--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25020" windowHeight="14130" activeTab="7"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -466,6 +466,15 @@
     <t>192（am）</t>
   </si>
   <si>
+    <t>6.27</t>
+  </si>
+  <si>
+    <t>milk+steam bun</t>
+  </si>
+  <si>
+    <t>190.4(am)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1031,9 +1040,6 @@
 （今日实际学习时长）</t>
   </si>
   <si>
-    <t>6.27</t>
-  </si>
-  <si>
     <t>Times
 （时长）</t>
   </si>
@@ -1092,9 +1098,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1161,50 +1167,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1220,9 +1182,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1244,9 +1260,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1259,32 +1288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1355,7 +1361,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,7 +1391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,7 +1409,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,13 +1475,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,85 +1505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,25 +1517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,35 +1589,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1645,23 +1642,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1673,10 +1679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1688,130 +1694,130 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2419,10 +2425,10 @@
   </sheetPr>
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3332,9 +3338,15 @@
       <c r="G50" s="15"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="35"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
+      <c r="A51" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="D51" s="15"/>
       <c r="F51" s="15">
         <f t="shared" si="0"/>
@@ -3344,12 +3356,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="33"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="15">
+        <v>8</v>
+      </c>
+      <c r="C52" s="15">
+        <v>12.5</v>
+      </c>
       <c r="D52" s="15"/>
+      <c r="E52" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="F52" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="G52" s="15"/>
     </row>
@@ -3410,7 +3429,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -3458,13 +3477,13 @@
         <v>4.24</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C62" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="3:7">
@@ -3488,13 +3507,13 @@
         <v>4.25</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F64" s="23">
         <f t="shared" ref="F64:F113" si="1">SUM(B64:D64)</f>
@@ -3521,13 +3540,13 @@
         <v>4.26</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F66" s="23">
         <f t="shared" si="1"/>
@@ -3554,13 +3573,13 @@
         <v>4.27</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F68" s="23">
         <f t="shared" si="1"/>
@@ -3587,7 +3606,7 @@
         <v>4.28</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C70" s="23" t="s">
         <v>8</v>
@@ -3614,13 +3633,13 @@
         <v>5.1</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F72" s="23">
         <f t="shared" si="1"/>
@@ -3641,7 +3660,7 @@
         <v>5.2</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C74" s="23" t="s">
         <v>8</v>
@@ -3674,7 +3693,7 @@
         <v>5.3</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C76" s="23" t="s">
         <v>8</v>
@@ -3707,7 +3726,7 @@
         <v>5.4</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C78" s="23" t="s">
         <v>8</v>
@@ -3737,7 +3756,7 @@
         <v>5.5</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C80" s="23" t="s">
         <v>8</v>
@@ -3764,7 +3783,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F82" s="23">
         <f t="shared" si="1"/>
@@ -3785,7 +3804,7 @@
         <v>5.9</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C84" s="23" t="s">
         <v>8</v>
@@ -3815,7 +3834,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F86" s="23">
         <f t="shared" si="1"/>
@@ -3836,7 +3855,7 @@
         <v>5.16</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C88" s="23" t="s">
         <v>8</v>
@@ -3869,7 +3888,7 @@
         <v>5.17</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C90" s="23" t="s">
         <v>8</v>
@@ -3902,13 +3921,13 @@
         <v>5.18</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C92" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F92" s="23">
         <f t="shared" si="1"/>
@@ -3935,7 +3954,7 @@
         <v>5.19</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C94" s="23" t="s">
         <v>8</v>
@@ -3959,10 +3978,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F96" s="23">
         <f t="shared" si="1"/>
@@ -3983,10 +4002,10 @@
         <v>5.22</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D98" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F98" s="23">
         <f t="shared" si="1"/>
@@ -4010,13 +4029,13 @@
         <v>5.23</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C100" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F100" s="23">
         <f t="shared" si="1"/>
@@ -4043,13 +4062,13 @@
         <v>5.24</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C102" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F102" s="23">
         <f t="shared" si="1"/>
@@ -4076,13 +4095,13 @@
         <v>5.25</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C104" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F104" s="23">
         <f t="shared" si="1"/>
@@ -4109,13 +4128,13 @@
         <v>5.26</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C106" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E106" s="24">
         <v>196.7</v>
@@ -4142,7 +4161,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F108" s="23">
         <f t="shared" si="1"/>
@@ -4161,7 +4180,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="38" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F110" s="23">
         <f t="shared" si="1"/>
@@ -4182,16 +4201,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="38" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B112" s="37" t="s">
         <v>54</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D112" s="37" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F112" s="23">
         <f t="shared" si="1"/>
@@ -4218,22 +4237,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C35:D35">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$F35&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="0" priority="37">
-      <formula>$F49&lt;&gt;0</formula>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F50&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:F34 A35:B35 E35:F48 A51:F500 A36:D50 F49:F50">
-    <cfRule type="expression" dxfId="0" priority="36">
+    <cfRule type="expression" dxfId="0" priority="37">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:F113">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$F5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4248,10 +4267,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4266,19 +4285,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4339,7 +4358,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1">
         <v>283</v>
@@ -4347,7 +4366,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1">
         <v>668</v>
@@ -4355,7 +4374,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B11" s="1">
         <v>40</v>
@@ -4395,7 +4414,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16" s="1">
         <v>360</v>
@@ -4447,6 +4466,14 @@
       </c>
       <c r="B22" s="1">
         <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4477,19 +4504,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4525,7 +4552,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4544,34 +4571,34 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:10">
       <c r="A1" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4586,11 +4613,11 @@
       </c>
       <c r="F2" s="19">
         <f>SUM(B2:B42)</f>
-        <v>36.8</v>
+        <v>37.8</v>
       </c>
       <c r="G2" s="19">
         <f>SUM(C2:C42)</f>
-        <v>26.2</v>
+        <v>27.2</v>
       </c>
       <c r="H2" s="19">
         <f>SUM(D2:D42)</f>
@@ -4598,11 +4625,11 @@
       </c>
       <c r="I2" s="19">
         <f>SUM(E2:E42)</f>
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="J2" s="21">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>0.300333333333333</v>
+        <v>0.310333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4709,7 +4736,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -4727,7 +4754,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B11" s="1">
         <v>2.1</v>
@@ -4784,7 +4811,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -4940,10 +4967,13 @@
         <v>61</v>
       </c>
       <c r="B23" s="1">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C23" s="1">
-        <v>0.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
@@ -5056,13 +5086,13 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:35">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -5158,12 +5188,12 @@
         <v>31</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AI2" s="1">
         <f>SUM(C2:AH2)</f>
@@ -5212,10 +5242,10 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H4" s="1">
         <v>70</v>
@@ -5239,7 +5269,7 @@
     </row>
     <row r="5" spans="2:35">
       <c r="B5" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="0"/>
@@ -5294,10 +5324,10 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="1">
         <v>32</v>
@@ -5309,7 +5339,7 @@
     </row>
     <row r="9" spans="2:35">
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I9" s="1">
         <v>16</v>
@@ -5321,7 +5351,7 @@
     </row>
     <row r="10" spans="2:35">
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I10" s="1">
         <v>32</v>
@@ -5333,7 +5363,7 @@
     </row>
     <row r="11" spans="2:35">
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="0"/>
@@ -5382,10 +5412,10 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="1">
         <v>32</v>
@@ -5397,7 +5427,7 @@
     </row>
     <row r="14" spans="2:35">
       <c r="B14" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H14" s="1">
         <v>32</v>
@@ -5412,7 +5442,7 @@
     </row>
     <row r="15" spans="2:35">
       <c r="B15" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="0"/>
@@ -5461,7 +5491,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="0"/>
@@ -5510,7 +5540,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H19" s="1">
         <v>100</v>
@@ -5583,10 +5613,10 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" si="0"/>
@@ -5595,7 +5625,7 @@
     </row>
     <row r="22" spans="2:35">
       <c r="B22" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
@@ -5647,10 +5677,10 @@
     </row>
     <row r="24" ht="15.95" customHeight="1" spans="1:35">
       <c r="A24" s="16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -5771,7 +5801,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AC27" s="1">
         <v>40</v>
@@ -5823,7 +5853,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M29" s="1">
         <v>100</v>
@@ -5875,7 +5905,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D31" s="4"/>
       <c r="M31" s="1">
@@ -5940,7 +5970,7 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P33" s="1">
         <v>25</v>
@@ -6004,10 +6034,10 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H35" s="1">
         <v>32</v>
@@ -6062,7 +6092,7 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B37" s="4"/>
       <c r="M37" s="1">
@@ -6130,7 +6160,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B39" s="4"/>
       <c r="M39" s="1">
@@ -6158,7 +6188,7 @@
     </row>
     <row r="41" ht="14.25" spans="1:35">
       <c r="A41" s="18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AI41" s="1">
         <f t="shared" si="2"/>
@@ -6167,13 +6197,13 @@
     </row>
     <row r="42" ht="27.75" spans="1:35">
       <c r="A42" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D42" s="3">
         <v>22</v>
@@ -6227,12 +6257,12 @@
         <v>31</v>
       </c>
       <c r="AI42" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
@@ -6277,10 +6307,10 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C45" s="1">
         <v>240</v>
@@ -6307,7 +6337,7 @@
     </row>
     <row r="46" spans="2:35">
       <c r="B46" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AI46" s="1">
         <f t="shared" si="3"/>
@@ -6362,10 +6392,10 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C49" s="1">
         <v>64</v>
@@ -6377,7 +6407,7 @@
     </row>
     <row r="50" spans="2:35">
       <c r="B50" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AI50" s="1">
         <f t="shared" si="3"/>
@@ -6386,7 +6416,7 @@
     </row>
     <row r="51" spans="2:35">
       <c r="B51" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D51" s="1">
         <v>32</v>
@@ -6398,7 +6428,7 @@
     </row>
     <row r="52" spans="2:35">
       <c r="B52" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C52" s="1">
         <v>32</v>
@@ -6456,10 +6486,10 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H54" s="1">
         <v>32</v>
@@ -6471,7 +6501,7 @@
     </row>
     <row r="55" spans="2:35">
       <c r="B55" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E55" s="1">
         <v>32</v>
@@ -6483,7 +6513,7 @@
     </row>
     <row r="56" spans="2:35">
       <c r="B56" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C56" s="1">
         <v>8</v>
@@ -6535,10 +6565,10 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AI58" s="1">
         <f t="shared" si="3"/>
@@ -6587,7 +6617,7 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C60" s="1">
         <v>20</v>
@@ -6654,10 +6684,10 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C62" s="1">
         <v>10</v>
@@ -6669,7 +6699,7 @@
     </row>
     <row r="63" spans="2:35">
       <c r="B63" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D63" s="1">
         <v>20</v>
@@ -6721,10 +6751,10 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C65" s="16">
         <v>5</v>
@@ -6847,7 +6877,7 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C68" s="1">
         <v>120</v>
@@ -6902,7 +6932,7 @@
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D70" s="1">
         <v>120</v>
@@ -6957,7 +6987,7 @@
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D72" s="4">
         <v>5</v>
@@ -7009,7 +7039,7 @@
     </row>
     <row r="74" spans="1:35">
       <c r="A74" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D74" s="1">
         <v>20</v>
@@ -7056,40 +7086,40 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="2:14">
@@ -7191,40 +7221,40 @@
     </row>
     <row r="19" ht="27.75" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -7368,7 +7398,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="5" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1">
         <v>328</v>
@@ -7456,7 +7486,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -7469,15 +7499,15 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -7485,7 +7515,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -7493,7 +7523,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B4" s="1">
         <v>43</v>
@@ -7501,7 +7531,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
@@ -7509,7 +7539,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="26148" windowHeight="14244" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -1098,10 +1098,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1153,7 +1153,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1168,7 +1235,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1182,47 +1249,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1237,26 +1274,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1267,30 +1288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1361,48 +1361,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1415,25 +1373,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,31 +1391,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,7 +1421,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,7 +1469,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,19 +1499,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1574,30 +1574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1609,41 +1585,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1671,6 +1612,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1679,10 +1679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1691,133 +1691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2307,9 +2307,9 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="12" customHeight="1" spans="8:17">
+    <row r="12" ht="13.5" customHeight="1" spans="8:17">
       <c r="H12" s="39" t="s">
         <v>0</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
     </row>
-    <row r="13" customHeight="1" spans="8:17">
+    <row r="13" ht="13.5" customHeight="1" spans="8:17">
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
@@ -2335,7 +2335,7 @@
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
     </row>
-    <row r="14" customHeight="1" spans="8:17">
+    <row r="14" ht="13.5" customHeight="1" spans="8:17">
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39"/>
@@ -2347,7 +2347,7 @@
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
     </row>
-    <row r="15" customHeight="1" spans="8:17">
+    <row r="15" ht="13.5" customHeight="1" spans="8:17">
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
@@ -2359,7 +2359,7 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
     </row>
-    <row r="16" customHeight="1" spans="8:17">
+    <row r="16" ht="13.5" customHeight="1" spans="8:17">
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
@@ -2371,7 +2371,7 @@
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
     </row>
-    <row r="17" customHeight="1" spans="8:17">
+    <row r="17" ht="13.5" customHeight="1" spans="8:17">
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
@@ -2383,7 +2383,7 @@
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
     </row>
-    <row r="18" customHeight="1" spans="8:17">
+    <row r="18" ht="13.5" customHeight="1" spans="8:17">
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
@@ -2395,7 +2395,7 @@
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
     </row>
-    <row r="19" customHeight="1" spans="8:17">
+    <row r="19" ht="13.5" customHeight="1" spans="8:17">
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
@@ -2425,23 +2425,23 @@
   </sheetPr>
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10" style="22" customWidth="1"/>
     <col min="2" max="2" width="16" style="23" customWidth="1"/>
-    <col min="3" max="3" width="26.3833333333333" style="23" customWidth="1"/>
+    <col min="3" max="3" width="26.3796296296296" style="23" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="15.1333333333333" style="24" customWidth="1"/>
+    <col min="5" max="5" width="15.1296296296296" style="24" customWidth="1"/>
     <col min="6" max="6" width="13" style="23" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="23" customWidth="1"/>
     <col min="8" max="9" width="9" style="23"/>
-    <col min="10" max="10" width="11.1333333333333" style="23" customWidth="1"/>
+    <col min="10" max="10" width="11.1296296296296" style="23" customWidth="1"/>
     <col min="11" max="11" width="21" style="23" customWidth="1"/>
     <col min="12" max="12" width="28" style="23" customWidth="1"/>
     <col min="13" max="13" width="24.25" style="23" customWidth="1"/>
@@ -2450,7 +2450,7 @@
     <col min="16" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:8">
+    <row r="1" ht="28.8" spans="1:8">
       <c r="A1" s="25"/>
       <c r="B1" s="26" t="s">
         <v>1</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" ht="27" spans="1:7">
+    <row r="11" ht="28.8" spans="1:7">
       <c r="A11" s="33">
         <v>6.6</v>
       </c>
@@ -3362,13 +3362,15 @@
       <c r="C52" s="15">
         <v>12.5</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="15">
+        <v>18</v>
+      </c>
       <c r="E52" s="24" t="s">
         <v>67</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>38.5</v>
       </c>
       <c r="G52" s="15"/>
     </row>
@@ -3441,7 +3443,7 @@
     <row r="59" spans="5:5">
       <c r="E59" s="23"/>
     </row>
-    <row r="60" ht="27" spans="1:8">
+    <row r="60" ht="28.8" spans="1:8">
       <c r="A60" s="25"/>
       <c r="B60" s="26" t="s">
         <v>1</v>
@@ -4024,7 +4026,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="100" ht="27" spans="1:6">
+    <row r="100" ht="28.8" spans="1:6">
       <c r="A100" s="22">
         <v>5.23</v>
       </c>
@@ -4057,7 +4059,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="102" ht="27" spans="1:6">
+    <row r="102" ht="28.8" spans="1:6">
       <c r="A102" s="22">
         <v>5.24</v>
       </c>
@@ -4090,7 +4092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" ht="27" spans="1:6">
+    <row r="104" ht="28.8" spans="1:6">
       <c r="A104" s="22">
         <v>5.25</v>
       </c>
@@ -4273,17 +4275,17 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" ht="29.55" spans="1:5">
       <c r="A1" s="8" t="s">
         <v>99</v>
       </c>
@@ -4493,16 +4495,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" ht="29.55" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>99</v>
       </c>
@@ -4552,24 +4554,24 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1296296296296" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.3833333333333" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.3796296296296" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:10">
+    <row r="1" ht="29.55" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>99</v>
       </c>
@@ -4613,11 +4615,11 @@
       </c>
       <c r="F2" s="19">
         <f>SUM(B2:B42)</f>
-        <v>37.8</v>
+        <v>39.3</v>
       </c>
       <c r="G2" s="19">
         <f>SUM(C2:C42)</f>
-        <v>27.2</v>
+        <v>29.2</v>
       </c>
       <c r="H2" s="19">
         <f>SUM(D2:D42)</f>
@@ -4625,11 +4627,11 @@
       </c>
       <c r="I2" s="19">
         <f>SUM(E2:E42)</f>
-        <v>25.1</v>
+        <v>26.1</v>
       </c>
       <c r="J2" s="21">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>0.310333333333333</v>
+        <v>0.325333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4980,7 +4982,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="10:10">
+    <row r="24" spans="1:10">
+      <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
       <c r="J24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5058,33 +5072,33 @@
       <selection activeCell="AK43" sqref="AK43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.8833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8796296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="4.13333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3.88333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.12962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="3.87962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="3.90833333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="26" width="3.38333333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.15" style="1" customWidth="1"/>
-    <col min="28" max="28" width="3.38333333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="3.90740740740741" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="26" width="3.37962962962963" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.14814814814815" style="1" customWidth="1"/>
+    <col min="28" max="28" width="3.37962962962963" style="1" customWidth="1"/>
     <col min="29" max="29" width="3.58333333333333" style="1" customWidth="1"/>
-    <col min="30" max="33" width="3.38333333333333" style="1" customWidth="1"/>
+    <col min="30" max="33" width="3.37962962962963" style="1" customWidth="1"/>
     <col min="34" max="34" width="6.5" style="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:35">
+    <row r="1" ht="29.55" spans="1:35">
       <c r="A1" s="2" t="s">
         <v>123</v>
       </c>
@@ -6186,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:35">
+    <row r="41" ht="15.15" spans="1:35">
       <c r="A41" s="18" t="s">
         <v>68</v>
       </c>
@@ -6195,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="27.75" spans="1:35">
+    <row r="42" ht="29.55" spans="1:35">
       <c r="A42" s="2" t="s">
         <v>123</v>
       </c>
@@ -7063,28 +7077,28 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="5"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.6296296296296" style="6" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1296296296296" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1296296296296" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="6" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:12">
+    <row r="1" ht="58.35" spans="1:12">
       <c r="A1" s="7" t="s">
         <v>152</v>
       </c>
@@ -7201,7 +7215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="2:12">
+    <row r="18" ht="15.15" spans="2:12">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -7219,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="27.75" spans="1:12">
+    <row r="19" ht="58.35" spans="1:12">
       <c r="A19" s="7" t="s">
         <v>152</v>
       </c>
@@ -7398,7 +7412,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1">
         <v>328</v>
@@ -7408,10 +7422,16 @@
         <v>0.358469945355191</v>
       </c>
     </row>
-    <row r="28" spans="6:6">
+    <row r="28" spans="2:6">
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1">
+        <v>420</v>
+      </c>
       <c r="F28" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.459016393442623</v>
       </c>
     </row>
     <row r="29" spans="6:6">
@@ -7490,14 +7510,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.13333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.12962962962963" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:2">
+    <row r="1" ht="29.55" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>123</v>
       </c>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26148" windowHeight="14244" activeTab="6"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -475,6 +475,18 @@
     <t>190.4(am)</t>
   </si>
   <si>
+    <t>6.28</t>
+  </si>
+  <si>
+    <t>milk+soymilk+fired noodles</t>
+  </si>
+  <si>
+    <t>6.29</t>
+  </si>
+  <si>
+    <t>6.30</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1098,10 +1110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1153,7 +1165,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1161,6 +1197,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,16 +1218,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,29 +1240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,7 +1255,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1250,6 +1270,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1257,32 +1285,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,7 +1302,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1361,6 +1373,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1373,13 +1397,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,19 +1421,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,7 +1463,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,97 +1529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1589,26 +1601,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1624,6 +1621,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1645,8 +1657,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1663,11 +1677,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1679,10 +1691,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1691,133 +1703,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2307,9 +2319,9 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="12" ht="13.5" customHeight="1" spans="8:17">
+    <row r="12" customHeight="1" spans="8:17">
       <c r="H12" s="39" t="s">
         <v>0</v>
       </c>
@@ -2323,7 +2335,7 @@
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1" spans="8:17">
+    <row r="13" customHeight="1" spans="8:17">
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
@@ -2335,7 +2347,7 @@
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1" spans="8:17">
+    <row r="14" customHeight="1" spans="8:17">
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39"/>
@@ -2347,7 +2359,7 @@
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1" spans="8:17">
+    <row r="15" customHeight="1" spans="8:17">
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
@@ -2359,7 +2371,7 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1" spans="8:17">
+    <row r="16" customHeight="1" spans="8:17">
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
@@ -2371,7 +2383,7 @@
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" spans="8:17">
+    <row r="17" customHeight="1" spans="8:17">
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
@@ -2383,7 +2395,7 @@
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1" spans="8:17">
+    <row r="18" customHeight="1" spans="8:17">
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
@@ -2395,7 +2407,7 @@
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
     </row>
-    <row r="19" ht="13.5" customHeight="1" spans="8:17">
+    <row r="19" customHeight="1" spans="8:17">
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
@@ -2423,25 +2435,25 @@
     <tabColor theme="2" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10" style="22" customWidth="1"/>
     <col min="2" max="2" width="16" style="23" customWidth="1"/>
-    <col min="3" max="3" width="26.3796296296296" style="23" customWidth="1"/>
+    <col min="3" max="3" width="26.3833333333333" style="23" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="15.1296296296296" style="24" customWidth="1"/>
+    <col min="5" max="5" width="15.1333333333333" style="24" customWidth="1"/>
     <col min="6" max="6" width="13" style="23" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="23" customWidth="1"/>
     <col min="8" max="9" width="9" style="23"/>
-    <col min="10" max="10" width="11.1296296296296" style="23" customWidth="1"/>
+    <col min="10" max="10" width="11.1333333333333" style="23" customWidth="1"/>
     <col min="11" max="11" width="21" style="23" customWidth="1"/>
     <col min="12" max="12" width="28" style="23" customWidth="1"/>
     <col min="13" max="13" width="24.25" style="23" customWidth="1"/>
@@ -2450,7 +2462,7 @@
     <col min="16" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:8">
+    <row r="1" ht="27" spans="1:8">
       <c r="A1" s="25"/>
       <c r="B1" s="26" t="s">
         <v>1</v>
@@ -2529,7 +2541,7 @@
       </c>
       <c r="D5" s="34"/>
       <c r="F5" s="15">
-        <f t="shared" ref="F5:F57" si="0">SUM(B5:D5)</f>
+        <f t="shared" ref="F5:F58" si="0">SUM(B5:D5)</f>
         <v>0</v>
       </c>
       <c r="G5" s="15"/>
@@ -2617,7 +2629,7 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" ht="28.8" spans="1:7">
+    <row r="11" ht="27" spans="1:7">
       <c r="A11" s="33">
         <v>6.6</v>
       </c>
@@ -3374,10 +3386,16 @@
       </c>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="35"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
+    <row r="53" ht="27" spans="1:7">
+      <c r="A53" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="D53" s="34"/>
       <c r="F53" s="15">
         <f t="shared" si="0"/>
@@ -3387,17 +3405,25 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="33"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+      <c r="B54" s="15">
+        <v>10</v>
+      </c>
+      <c r="C54" s="15">
+        <v>13</v>
+      </c>
+      <c r="D54" s="15">
+        <v>35.5</v>
+      </c>
       <c r="F54" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="33"/>
+      <c r="A55" s="33" t="s">
+        <v>70</v>
+      </c>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -3409,17 +3435,23 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="33"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="15">
+        <v>4</v>
+      </c>
+      <c r="C56" s="15">
+        <v>17.28</v>
+      </c>
       <c r="D56" s="15"/>
       <c r="F56" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.28</v>
       </c>
       <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="33"/>
+      <c r="A57" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -3430,832 +3462,849 @@
       <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="15"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="15">
+        <v>1</v>
+      </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
+      <c r="F58" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="5:5">
-      <c r="E59" s="23"/>
-    </row>
-    <row r="60" ht="28.8" spans="1:8">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26" t="s">
+    <row r="59" spans="1:7">
+      <c r="A59" s="33"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="33"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="F60" s="15">
+        <f>SUM(B60:D60)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="15"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+    </row>
+    <row r="62" spans="5:5">
+      <c r="E62" s="23"/>
+    </row>
+    <row r="63" ht="27" spans="1:8">
+      <c r="A63" s="25"/>
+      <c r="B63" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C63" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D63" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E63" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="28" t="s">
+      <c r="F63" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G60" s="28" t="s">
+      <c r="G63" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="28"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="29"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="22">
+      <c r="H63" s="28"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="29"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="22">
         <v>4.24</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="23" t="s">
+      <c r="B65" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7">
-      <c r="C63" s="23">
+      <c r="D65" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="C66" s="23">
         <v>12.2</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D66" s="23">
         <v>12</v>
       </c>
-      <c r="F63" s="23">
-        <f>SUM(B63:D63)</f>
+      <c r="F66" s="23">
+        <f>SUM(B66:D66)</f>
         <v>24.2</v>
       </c>
-      <c r="G63" s="23">
-        <f>SUM(F63:F94)</f>
+      <c r="G66" s="23">
+        <f>SUM(F66:F97)</f>
         <v>2574.5</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="22">
+    <row r="67" spans="1:6">
+      <c r="A67" s="22">
         <v>4.25</v>
       </c>
-      <c r="B64" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="23" t="s">
+      <c r="B67" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F64" s="23">
-        <f t="shared" ref="F64:F113" si="1">SUM(B64:D64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="23">
+      <c r="D67" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="23">
+        <f t="shared" ref="F67:F116" si="1">SUM(B67:D67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="23">
         <v>3</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C68" s="23">
         <v>10.85</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D68" s="23">
         <v>18</v>
       </c>
-      <c r="F65" s="23">
+      <c r="F68" s="23">
         <f t="shared" si="1"/>
         <v>31.85</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="22">
+    <row r="69" spans="1:6">
+      <c r="A69" s="22">
         <v>4.26</v>
       </c>
-      <c r="B66" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F66" s="23">
+      <c r="B69" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="23">
+    <row r="70" spans="2:6">
+      <c r="B70" s="23">
         <v>3</v>
       </c>
-      <c r="C67" s="23">
+      <c r="C70" s="23">
         <v>14</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D70" s="23">
         <v>19.7</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F70" s="23">
         <f t="shared" si="1"/>
         <v>36.7</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="22">
+    <row r="71" spans="1:6">
+      <c r="A71" s="22">
         <v>4.27</v>
       </c>
-      <c r="B68" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" s="23" t="s">
+      <c r="B71" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="23">
+      <c r="D71" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
-      <c r="B69" s="23">
+    <row r="72" spans="2:6">
+      <c r="B72" s="23">
         <v>3</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C72" s="23">
         <v>16.7</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D72" s="23">
         <v>26</v>
       </c>
-      <c r="F69" s="23">
+      <c r="F72" s="23">
         <f t="shared" si="1"/>
         <v>45.7</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="22">
+    <row r="73" spans="1:6">
+      <c r="A73" s="22">
         <v>4.28</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="23" t="s">
+      <c r="B73" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="23">
+      <c r="F73" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:6">
-      <c r="B71" s="23">
+    <row r="74" spans="2:6">
+      <c r="B74" s="23">
         <v>3</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C74" s="23">
         <v>16.2</v>
       </c>
-      <c r="F71" s="23">
+      <c r="F74" s="23">
         <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="22">
+    <row r="75" spans="1:6">
+      <c r="A75" s="22">
         <v>5.1</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F72" s="23">
+      <c r="B75" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="23">
+    <row r="76" spans="2:6">
+      <c r="B76" s="23">
         <v>1000</v>
       </c>
-      <c r="F73" s="23">
+      <c r="F76" s="23">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="22">
+    <row r="77" spans="1:6">
+      <c r="A77" s="22">
         <v>5.2</v>
       </c>
-      <c r="B74" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="23" t="s">
+      <c r="B77" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D77" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="23">
+      <c r="F77" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="23">
+    <row r="78" spans="2:6">
+      <c r="B78" s="23">
         <v>3</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C78" s="23">
         <v>12</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D78" s="23">
         <v>11</v>
       </c>
-      <c r="F75" s="23">
+      <c r="F78" s="23">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="22">
+    <row r="79" spans="1:6">
+      <c r="A79" s="22">
         <v>5.3</v>
       </c>
-      <c r="B76" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" s="23" t="s">
+      <c r="B79" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D79" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F79" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="23">
+    <row r="80" spans="2:6">
+      <c r="B80" s="23">
         <v>6</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C80" s="23">
         <v>9</v>
       </c>
-      <c r="D77" s="23">
+      <c r="D80" s="23">
         <v>291</v>
       </c>
-      <c r="F77" s="23">
+      <c r="F80" s="23">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="22">
+    <row r="81" spans="1:6">
+      <c r="A81" s="22">
         <v>5.4</v>
       </c>
-      <c r="B78" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" s="23" t="s">
+      <c r="B81" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="23">
+      <c r="F81" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="23">
+    <row r="82" spans="2:6">
+      <c r="B82" s="23">
         <v>3</v>
       </c>
-      <c r="C79" s="23">
+      <c r="C82" s="23">
         <v>21</v>
       </c>
-      <c r="D79" s="23">
+      <c r="D82" s="23">
         <v>95</v>
       </c>
-      <c r="F79" s="23">
+      <c r="F82" s="23">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="22">
+    <row r="83" spans="1:6">
+      <c r="A83" s="22">
         <v>5.5</v>
       </c>
-      <c r="B80" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="23" t="s">
+      <c r="B83" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="23">
+      <c r="F83" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="23">
+    <row r="84" spans="2:6">
+      <c r="B84" s="23">
         <v>3</v>
       </c>
-      <c r="C81" s="23">
+      <c r="C84" s="23">
         <v>12.75</v>
       </c>
-      <c r="D81" s="23">
+      <c r="D84" s="23">
         <v>10</v>
       </c>
-      <c r="F81" s="23">
+      <c r="F84" s="23">
         <f t="shared" si="1"/>
         <v>25.75</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F82" s="23">
+    <row r="85" spans="1:6">
+      <c r="A85" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:6">
-      <c r="D83" s="23">
+    <row r="86" spans="4:6">
+      <c r="D86" s="23">
         <v>300</v>
       </c>
-      <c r="F83" s="23">
+      <c r="F86" s="23">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="22">
+    <row r="87" spans="1:6">
+      <c r="A87" s="22">
         <v>5.9</v>
       </c>
-      <c r="B84" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C84" s="23" t="s">
+      <c r="B87" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D87" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="23">
+      <c r="F87" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="23">
+    <row r="88" spans="2:6">
+      <c r="B88" s="23">
         <v>3</v>
       </c>
-      <c r="C85" s="23">
+      <c r="C88" s="23">
         <v>9</v>
       </c>
-      <c r="D85" s="23">
+      <c r="D88" s="23">
         <v>18</v>
       </c>
-      <c r="F85" s="23">
+      <c r="F88" s="23">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F86" s="23">
+    <row r="89" spans="1:6">
+      <c r="A89" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F89" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:6">
-      <c r="D87" s="23">
+    <row r="90" spans="4:6">
+      <c r="D90" s="23">
         <v>200</v>
       </c>
-      <c r="F87" s="23">
+      <c r="F90" s="23">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="22">
+    <row r="91" spans="1:6">
+      <c r="A91" s="22">
         <v>5.16</v>
       </c>
-      <c r="B88" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="23" t="s">
+      <c r="B91" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="23" t="s">
+      <c r="D91" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="23">
+      <c r="F91" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="23">
+    <row r="92" spans="2:6">
+      <c r="B92" s="23">
         <v>10</v>
       </c>
-      <c r="C89" s="23">
+      <c r="C92" s="23">
         <v>10.9</v>
       </c>
-      <c r="D89" s="23">
+      <c r="D92" s="23">
         <v>10</v>
       </c>
-      <c r="F89" s="23">
+      <c r="F92" s="23">
         <f t="shared" si="1"/>
         <v>30.9</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="22">
+    <row r="93" spans="1:6">
+      <c r="A93" s="22">
         <v>5.17</v>
       </c>
-      <c r="B90" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C90" s="23" t="s">
+      <c r="B93" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="23" t="s">
+      <c r="D93" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="23">
+      <c r="F93" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="23">
+    <row r="94" spans="2:6">
+      <c r="B94" s="23">
         <v>3</v>
       </c>
-      <c r="C91" s="23">
+      <c r="C94" s="23">
         <v>10.9</v>
       </c>
-      <c r="D91" s="23">
+      <c r="D94" s="23">
         <v>19.5</v>
       </c>
-      <c r="F91" s="23">
+      <c r="F94" s="23">
         <f t="shared" si="1"/>
         <v>33.4</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="22">
+    <row r="95" spans="1:6">
+      <c r="A95" s="22">
         <v>5.18</v>
       </c>
-      <c r="B92" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C92" s="23" t="s">
+      <c r="B95" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F92" s="23">
+      <c r="D95" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F95" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="23">
+    <row r="96" spans="2:6">
+      <c r="B96" s="23">
         <v>3</v>
       </c>
-      <c r="C93" s="23">
+      <c r="C96" s="23">
         <v>16</v>
       </c>
-      <c r="D93" s="23">
+      <c r="D96" s="23">
         <v>326.8</v>
       </c>
-      <c r="F93" s="23">
+      <c r="F96" s="23">
         <f t="shared" si="1"/>
         <v>345.8</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="22">
+    <row r="97" spans="1:6">
+      <c r="A97" s="22">
         <v>5.19</v>
       </c>
-      <c r="B94" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" s="23" t="s">
+      <c r="B97" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="23">
+      <c r="F97" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="23">
+    <row r="98" spans="2:6">
+      <c r="B98" s="23">
         <v>24</v>
       </c>
-      <c r="C95" s="23">
+      <c r="C98" s="23">
         <v>16</v>
       </c>
-      <c r="F95" s="23">
+      <c r="F98" s="23">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F96" s="23">
+    <row r="99" spans="1:6">
+      <c r="A99" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F99" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="23">
+    <row r="100" spans="2:6">
+      <c r="B100" s="23">
         <v>80</v>
       </c>
-      <c r="F97" s="23">
+      <c r="F100" s="23">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="22">
+    <row r="101" spans="1:6">
+      <c r="A101" s="22">
         <v>5.22</v>
       </c>
-      <c r="C98" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D98" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="F98" s="23">
+      <c r="C101" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F101" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:6">
-      <c r="C99" s="23">
+    <row r="102" spans="3:6">
+      <c r="C102" s="23">
         <v>20.5</v>
       </c>
-      <c r="D99" s="23">
+      <c r="D102" s="23">
         <v>15</v>
       </c>
-      <c r="F99" s="23">
+      <c r="F102" s="23">
         <f t="shared" si="1"/>
         <v>35.5</v>
       </c>
     </row>
-    <row r="100" ht="28.8" spans="1:6">
-      <c r="A100" s="22">
+    <row r="103" ht="27" spans="1:6">
+      <c r="A103" s="22">
         <v>5.23</v>
       </c>
-      <c r="B100" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C100" s="23" t="s">
+      <c r="B103" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F100" s="23">
+      <c r="D103" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F103" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:6">
-      <c r="B101" s="23">
+    <row r="104" spans="2:6">
+      <c r="B104" s="23">
         <v>8</v>
       </c>
-      <c r="C101" s="23">
+      <c r="C104" s="23">
         <v>12.5</v>
       </c>
-      <c r="D101" s="23">
+      <c r="D104" s="23">
         <v>30</v>
       </c>
-      <c r="F101" s="23">
+      <c r="F104" s="23">
         <f t="shared" si="1"/>
         <v>50.5</v>
       </c>
     </row>
-    <row r="102" ht="28.8" spans="1:6">
-      <c r="A102" s="22">
+    <row r="105" ht="27" spans="1:6">
+      <c r="A105" s="22">
         <v>5.24</v>
       </c>
-      <c r="B102" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C102" s="23" t="s">
+      <c r="B105" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F102" s="23">
+      <c r="D105" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F105" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:6">
-      <c r="B103" s="23">
+    <row r="106" spans="2:6">
+      <c r="B106" s="23">
         <v>4</v>
       </c>
-      <c r="C103" s="23">
+      <c r="C106" s="23">
         <v>15</v>
       </c>
-      <c r="D103" s="23">
+      <c r="D106" s="23">
         <v>15</v>
       </c>
-      <c r="F103" s="23">
+      <c r="F106" s="23">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="104" ht="28.8" spans="1:6">
-      <c r="A104" s="22">
+    <row r="107" ht="27" spans="1:6">
+      <c r="A107" s="22">
         <v>5.25</v>
       </c>
-      <c r="B104" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C104" s="23" t="s">
+      <c r="B107" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F104" s="23">
+      <c r="D107" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F107" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:6">
-      <c r="B105" s="23">
+    <row r="108" spans="2:6">
+      <c r="B108" s="23">
         <v>3</v>
       </c>
-      <c r="C105" s="23">
+      <c r="C108" s="23">
         <v>14.5</v>
       </c>
-      <c r="D105" s="23">
+      <c r="D108" s="23">
         <v>20</v>
       </c>
-      <c r="F105" s="23">
+      <c r="F108" s="23">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="22">
+    <row r="109" spans="1:6">
+      <c r="A109" s="22">
         <v>5.26</v>
       </c>
-      <c r="B106" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="23" t="s">
+      <c r="B109" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E106" s="24">
+      <c r="D109" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E109" s="24">
         <v>196.7</v>
       </c>
-      <c r="F106" s="23">
+      <c r="F109" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:6">
-      <c r="B107" s="23">
+    <row r="110" spans="2:6">
+      <c r="B110" s="23">
         <v>5</v>
       </c>
-      <c r="C107" s="23">
+      <c r="C110" s="23">
         <v>9</v>
       </c>
-      <c r="D107" s="23">
+      <c r="D110" s="23">
         <v>10</v>
       </c>
-      <c r="F107" s="23">
+      <c r="F110" s="23">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F108" s="23">
+    <row r="111" spans="1:6">
+      <c r="A111" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F111" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:6">
-      <c r="B109" s="24">
+    <row r="112" spans="2:6">
+      <c r="B112" s="24">
         <v>600</v>
       </c>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23">
+      <c r="E112" s="23"/>
+      <c r="F112" s="23">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F110" s="23">
+    <row r="113" spans="1:6">
+      <c r="A113" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F113" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="4:6">
-      <c r="D111" s="23">
+    <row r="114" spans="4:6">
+      <c r="D114" s="23">
         <v>49</v>
       </c>
-      <c r="E111" s="24">
+      <c r="E114" s="24">
         <v>194.7</v>
       </c>
-      <c r="F111" s="23">
+      <c r="F114" s="23">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B112" s="37" t="s">
+    <row r="115" spans="1:6">
+      <c r="A115" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B115" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C112" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D112" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F112" s="23">
+      <c r="C115" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D115" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F115" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:6">
-      <c r="B113" s="23">
+    <row r="116" spans="2:6">
+      <c r="B116" s="23">
         <v>8</v>
       </c>
-      <c r="C113" s="23">
+      <c r="C116" s="23">
         <v>17.5</v>
       </c>
-      <c r="D113" s="23">
+      <c r="D116" s="23">
         <v>88</v>
       </c>
-      <c r="E113" s="24">
+      <c r="E116" s="24">
         <v>193</v>
       </c>
-      <c r="F113" s="23">
+      <c r="F116" s="23">
         <f t="shared" si="1"/>
         <v>113.5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C35:D35">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$F35&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F50&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:F34 A35:B35 E35:F48 A51:F500 A36:D50 F49:F50">
+  <conditionalFormatting sqref="A3:F3000">
     <cfRule type="expression" dxfId="0" priority="37">
       <formula>$F3&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:F113">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$F5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4269,37 +4318,37 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3833333333333" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:5">
+    <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4360,7 +4409,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B9" s="1">
         <v>283</v>
@@ -4368,7 +4417,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1">
         <v>668</v>
@@ -4376,7 +4425,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1">
         <v>40</v>
@@ -4416,7 +4465,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B16" s="1">
         <v>360</v>
@@ -4476,6 +4525,14 @@
       </c>
       <c r="B23" s="1">
         <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -4495,30 +4552,30 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="11.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:5">
+    <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4554,53 +4611,53 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1333333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.3796296296296" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.3833333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:10">
+    <row r="1" ht="27.75" spans="1:10">
       <c r="A1" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4615,7 +4672,7 @@
       </c>
       <c r="F2" s="19">
         <f>SUM(B2:B42)</f>
-        <v>39.3</v>
+        <v>41.3</v>
       </c>
       <c r="G2" s="19">
         <f>SUM(C2:C42)</f>
@@ -4627,11 +4684,11 @@
       </c>
       <c r="I2" s="19">
         <f>SUM(E2:E42)</f>
-        <v>26.1</v>
+        <v>27.1</v>
       </c>
       <c r="J2" s="21">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>0.325333333333333</v>
+        <v>0.335333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4738,7 +4795,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -4756,7 +4813,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1">
         <v>2.1</v>
@@ -4813,7 +4870,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -5000,7 +5057,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="10:10">
+    <row r="25" spans="1:10">
+      <c r="A25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
       <c r="J25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5072,41 +5138,41 @@
       <selection activeCell="AK43" sqref="AK43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.8796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8833333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="4.12962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3.87962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.13333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="3.88333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="3.90740740740741" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="26" width="3.37962962962963" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.14814814814815" style="1" customWidth="1"/>
-    <col min="28" max="28" width="3.37962962962963" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="3.90833333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="26" width="3.38333333333333" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.15" style="1" customWidth="1"/>
+    <col min="28" max="28" width="3.38333333333333" style="1" customWidth="1"/>
     <col min="29" max="29" width="3.58333333333333" style="1" customWidth="1"/>
-    <col min="30" max="33" width="3.37962962962963" style="1" customWidth="1"/>
+    <col min="30" max="33" width="3.38333333333333" style="1" customWidth="1"/>
     <col min="34" max="34" width="6.5" style="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:35">
+    <row r="1" ht="27.75" spans="1:35">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -5202,12 +5268,12 @@
         <v>31</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AI2" s="1">
         <f>SUM(C2:AH2)</f>
@@ -5256,10 +5322,10 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H4" s="1">
         <v>70</v>
@@ -5283,7 +5349,7 @@
     </row>
     <row r="5" spans="2:35">
       <c r="B5" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="0"/>
@@ -5338,10 +5404,10 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="1">
         <v>32</v>
@@ -5353,7 +5419,7 @@
     </row>
     <row r="9" spans="2:35">
       <c r="B9" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I9" s="1">
         <v>16</v>
@@ -5365,7 +5431,7 @@
     </row>
     <row r="10" spans="2:35">
       <c r="B10" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I10" s="1">
         <v>32</v>
@@ -5377,7 +5443,7 @@
     </row>
     <row r="11" spans="2:35">
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="0"/>
@@ -5426,10 +5492,10 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="1">
         <v>32</v>
@@ -5441,7 +5507,7 @@
     </row>
     <row r="14" spans="2:35">
       <c r="B14" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H14" s="1">
         <v>32</v>
@@ -5456,7 +5522,7 @@
     </row>
     <row r="15" spans="2:35">
       <c r="B15" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="0"/>
@@ -5505,7 +5571,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="0"/>
@@ -5554,7 +5620,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H19" s="1">
         <v>100</v>
@@ -5627,10 +5693,10 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" si="0"/>
@@ -5639,7 +5705,7 @@
     </row>
     <row r="22" spans="2:35">
       <c r="B22" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
@@ -5691,10 +5757,10 @@
     </row>
     <row r="24" ht="15.95" customHeight="1" spans="1:35">
       <c r="A24" s="16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -5815,7 +5881,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AC27" s="1">
         <v>40</v>
@@ -5867,7 +5933,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M29" s="1">
         <v>100</v>
@@ -5919,7 +5985,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D31" s="4"/>
       <c r="M31" s="1">
@@ -5984,7 +6050,7 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P33" s="1">
         <v>25</v>
@@ -6048,10 +6114,10 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H35" s="1">
         <v>32</v>
@@ -6106,7 +6172,7 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B37" s="4"/>
       <c r="M37" s="1">
@@ -6174,7 +6240,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B39" s="4"/>
       <c r="M39" s="1">
@@ -6200,24 +6266,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15.15" spans="1:35">
+    <row r="41" ht="14.25" spans="1:35">
       <c r="A41" s="18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AI41" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="29.55" spans="1:35">
+    <row r="42" ht="27.75" spans="1:35">
       <c r="A42" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D42" s="3">
         <v>22</v>
@@ -6271,12 +6337,12 @@
         <v>31</v>
       </c>
       <c r="AI42" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
@@ -6321,10 +6387,10 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C45" s="1">
         <v>240</v>
@@ -6351,7 +6417,7 @@
     </row>
     <row r="46" spans="2:35">
       <c r="B46" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AI46" s="1">
         <f t="shared" si="3"/>
@@ -6406,10 +6472,10 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C49" s="1">
         <v>64</v>
@@ -6421,7 +6487,7 @@
     </row>
     <row r="50" spans="2:35">
       <c r="B50" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AI50" s="1">
         <f t="shared" si="3"/>
@@ -6430,7 +6496,7 @@
     </row>
     <row r="51" spans="2:35">
       <c r="B51" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D51" s="1">
         <v>32</v>
@@ -6442,7 +6508,7 @@
     </row>
     <row r="52" spans="2:35">
       <c r="B52" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C52" s="1">
         <v>32</v>
@@ -6500,10 +6566,10 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H54" s="1">
         <v>32</v>
@@ -6515,7 +6581,7 @@
     </row>
     <row r="55" spans="2:35">
       <c r="B55" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E55" s="1">
         <v>32</v>
@@ -6527,7 +6593,7 @@
     </row>
     <row r="56" spans="2:35">
       <c r="B56" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C56" s="1">
         <v>8</v>
@@ -6579,10 +6645,10 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AI58" s="1">
         <f t="shared" si="3"/>
@@ -6631,7 +6697,7 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C60" s="1">
         <v>20</v>
@@ -6698,10 +6764,10 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C62" s="1">
         <v>10</v>
@@ -6713,7 +6779,7 @@
     </row>
     <row r="63" spans="2:35">
       <c r="B63" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D63" s="1">
         <v>20</v>
@@ -6765,10 +6831,10 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C65" s="16">
         <v>5</v>
@@ -6891,7 +6957,7 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C68" s="1">
         <v>120</v>
@@ -6946,7 +7012,7 @@
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D70" s="1">
         <v>120</v>
@@ -7001,7 +7067,7 @@
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D72" s="4">
         <v>5</v>
@@ -7053,7 +7119,7 @@
     </row>
     <row r="74" spans="1:35">
       <c r="A74" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D74" s="1">
         <v>20</v>
@@ -7077,63 +7143,63 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="5"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3833333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6296296296296" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.6333333333333" style="6" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1296296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1333333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1296296296296" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1333333333333" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="6" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58.35" spans="1:12">
+    <row r="1" ht="27.75" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="2:14">
@@ -7215,7 +7281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15.15" spans="2:12">
+    <row r="18" ht="14.25" spans="2:12">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -7233,42 +7299,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="58.35" spans="1:12">
+    <row r="19" ht="27.75" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -7510,24 +7576,24 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.12962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.13333333333333" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:2">
+    <row r="1" ht="27.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -7535,7 +7601,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -7543,7 +7609,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1">
         <v>43</v>
@@ -7551,7 +7617,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
@@ -7559,7 +7625,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -484,7 +484,13 @@
     <t>6.29</t>
   </si>
   <si>
+    <t>dunpling+soup+icecream+chicken leg+eggs</t>
+  </si>
+  <si>
     <t>6.30</t>
+  </si>
+  <si>
+    <t>195(am)</t>
   </si>
   <si>
     <r>
@@ -1110,10 +1116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1165,6 +1171,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1187,14 +1216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1206,22 +1227,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1246,6 +1251,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1262,39 +1298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1373,6 +1379,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1386,30 +1398,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,6 +1457,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1500,18 +1518,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,30 +1593,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1636,6 +1618,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1674,15 +1689,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1691,10 +1697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1703,133 +1709,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2437,10 +2443,10 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3420,13 +3426,17 @@
       </c>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" ht="27" spans="1:7">
       <c r="A55" s="33" t="s">
         <v>70</v>
       </c>
       <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
+      <c r="C55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="F55" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3441,19 +3451,23 @@
       <c r="C56" s="15">
         <v>17.28</v>
       </c>
-      <c r="D56" s="15"/>
+      <c r="D56" s="15">
+        <v>18.5</v>
+      </c>
       <c r="F56" s="15">
         <f t="shared" si="0"/>
-        <v>21.28</v>
+        <v>39.78</v>
       </c>
       <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
+      <c r="C57" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="D57" s="15"/>
       <c r="F57" s="15">
         <f t="shared" si="0"/>
@@ -3464,13 +3478,18 @@
     <row r="58" spans="1:7">
       <c r="A58" s="33"/>
       <c r="B58" s="15">
-        <v>1</v>
-      </c>
-      <c r="C58" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="C58" s="15">
+        <v>21</v>
+      </c>
       <c r="D58" s="15"/>
+      <c r="E58" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="F58" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G58" s="15"/>
     </row>
@@ -3495,7 +3514,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -3543,13 +3562,13 @@
         <v>4.24</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="3:7">
@@ -3573,13 +3592,13 @@
         <v>4.25</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F67" s="23">
         <f t="shared" ref="F67:F116" si="1">SUM(B67:D67)</f>
@@ -3606,13 +3625,13 @@
         <v>4.26</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F69" s="23">
         <f t="shared" si="1"/>
@@ -3639,13 +3658,13 @@
         <v>4.27</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C71" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="1"/>
@@ -3672,7 +3691,7 @@
         <v>4.28</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C73" s="23" t="s">
         <v>8</v>
@@ -3699,13 +3718,13 @@
         <v>5.1</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F75" s="23">
         <f t="shared" si="1"/>
@@ -3726,7 +3745,7 @@
         <v>5.2</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C77" s="23" t="s">
         <v>8</v>
@@ -3759,7 +3778,7 @@
         <v>5.3</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C79" s="23" t="s">
         <v>8</v>
@@ -3792,7 +3811,7 @@
         <v>5.4</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C81" s="23" t="s">
         <v>8</v>
@@ -3822,7 +3841,7 @@
         <v>5.5</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C83" s="23" t="s">
         <v>8</v>
@@ -3849,7 +3868,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F85" s="23">
         <f t="shared" si="1"/>
@@ -3870,7 +3889,7 @@
         <v>5.9</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C87" s="23" t="s">
         <v>8</v>
@@ -3900,7 +3919,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F89" s="23">
         <f t="shared" si="1"/>
@@ -3921,7 +3940,7 @@
         <v>5.16</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C91" s="23" t="s">
         <v>8</v>
@@ -3954,7 +3973,7 @@
         <v>5.17</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C93" s="23" t="s">
         <v>8</v>
@@ -3987,13 +4006,13 @@
         <v>5.18</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C95" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F95" s="23">
         <f t="shared" si="1"/>
@@ -4020,7 +4039,7 @@
         <v>5.19</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C97" s="23" t="s">
         <v>8</v>
@@ -4044,10 +4063,10 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F99" s="23">
         <f t="shared" si="1"/>
@@ -4068,10 +4087,10 @@
         <v>5.22</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D101" s="37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F101" s="23">
         <f t="shared" si="1"/>
@@ -4095,13 +4114,13 @@
         <v>5.23</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C103" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F103" s="23">
         <f t="shared" si="1"/>
@@ -4128,13 +4147,13 @@
         <v>5.24</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C105" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F105" s="23">
         <f t="shared" si="1"/>
@@ -4161,13 +4180,13 @@
         <v>5.25</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C107" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F107" s="23">
         <f t="shared" si="1"/>
@@ -4194,13 +4213,13 @@
         <v>5.26</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C109" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E109" s="24">
         <v>196.7</v>
@@ -4227,7 +4246,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F111" s="23">
         <f t="shared" si="1"/>
@@ -4246,7 +4265,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F113" s="23">
         <f t="shared" si="1"/>
@@ -4267,16 +4286,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B115" s="37" t="s">
         <v>54</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D115" s="37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F115" s="23">
         <f t="shared" si="1"/>
@@ -4318,10 +4337,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4336,19 +4355,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4409,7 +4428,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1">
         <v>283</v>
@@ -4417,7 +4436,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1">
         <v>668</v>
@@ -4425,7 +4444,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1">
         <v>40</v>
@@ -4465,7 +4484,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B16" s="1">
         <v>360</v>
@@ -4533,6 +4552,22 @@
       </c>
       <c r="B24" s="1">
         <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4563,19 +4598,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4611,7 +4646,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4630,34 +4665,34 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:10">
       <c r="A1" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4672,11 +4707,11 @@
       </c>
       <c r="F2" s="19">
         <f>SUM(B2:B42)</f>
-        <v>41.3</v>
+        <v>43.3</v>
       </c>
       <c r="G2" s="19">
         <f>SUM(C2:C42)</f>
-        <v>29.2</v>
+        <v>31.2</v>
       </c>
       <c r="H2" s="19">
         <f>SUM(D2:D42)</f>
@@ -4684,11 +4719,11 @@
       </c>
       <c r="I2" s="19">
         <f>SUM(E2:E42)</f>
-        <v>27.1</v>
+        <v>28.1</v>
       </c>
       <c r="J2" s="21">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>0.335333333333333</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4795,7 +4830,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -4813,7 +4848,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1">
         <v>2.1</v>
@@ -4870,7 +4905,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -5072,7 +5107,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="10:10">
+    <row r="26" spans="1:10">
+      <c r="A26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
       <c r="J26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5134,8 +5181,8 @@
   </sheetPr>
   <dimension ref="A1:AI74"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AK43" sqref="AK43"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK29" sqref="AK29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5166,13 +5213,13 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:35">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -5268,12 +5315,12 @@
         <v>31</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AI2" s="1">
         <f>SUM(C2:AH2)</f>
@@ -5322,10 +5369,10 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H4" s="1">
         <v>70</v>
@@ -5342,14 +5389,17 @@
       <c r="AC4" s="1">
         <v>100</v>
       </c>
+      <c r="AG4" s="1">
+        <v>40</v>
+      </c>
       <c r="AI4" s="1">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="2:35">
       <c r="B5" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="0"/>
@@ -5404,10 +5454,10 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="1">
         <v>32</v>
@@ -5419,7 +5469,7 @@
     </row>
     <row r="9" spans="2:35">
       <c r="B9" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I9" s="1">
         <v>16</v>
@@ -5431,7 +5481,7 @@
     </row>
     <row r="10" spans="2:35">
       <c r="B10" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I10" s="1">
         <v>32</v>
@@ -5443,7 +5493,7 @@
     </row>
     <row r="11" spans="2:35">
       <c r="B11" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="0"/>
@@ -5492,22 +5542,25 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="1">
         <v>32</v>
       </c>
+      <c r="AG13" s="1">
+        <v>32</v>
+      </c>
       <c r="AI13" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:35">
       <c r="B14" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H14" s="1">
         <v>32</v>
@@ -5515,14 +5568,17 @@
       <c r="I14" s="1">
         <v>16</v>
       </c>
+      <c r="AG14" s="1">
+        <v>32</v>
+      </c>
       <c r="AI14" s="1">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:35">
       <c r="B15" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="0"/>
@@ -5571,7 +5627,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="0"/>
@@ -5620,7 +5676,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H19" s="1">
         <v>100</v>
@@ -5693,10 +5749,10 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" si="0"/>
@@ -5705,7 +5761,7 @@
     </row>
     <row r="22" spans="2:35">
       <c r="B22" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
@@ -5757,10 +5813,10 @@
     </row>
     <row r="24" ht="15.95" customHeight="1" spans="1:35">
       <c r="A24" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>147</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>145</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -5881,7 +5937,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AC27" s="1">
         <v>40</v>
@@ -5933,7 +5989,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M29" s="1">
         <v>100</v>
@@ -5985,7 +6041,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D31" s="4"/>
       <c r="M31" s="1">
@@ -6003,9 +6059,12 @@
       <c r="AC31" s="1">
         <v>40</v>
       </c>
+      <c r="AF31" s="1">
+        <v>30</v>
+      </c>
       <c r="AI31" s="1">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" ht="3" customHeight="1" spans="1:35">
@@ -6050,7 +6109,7 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P33" s="1">
         <v>25</v>
@@ -6067,9 +6126,12 @@
       <c r="AC33" s="1">
         <v>20</v>
       </c>
+      <c r="AF33" s="1">
+        <v>20</v>
+      </c>
       <c r="AI33" s="1">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" ht="4.5" customHeight="1" spans="1:35">
@@ -6114,10 +6176,10 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H35" s="1">
         <v>32</v>
@@ -6172,7 +6234,7 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B37" s="4"/>
       <c r="M37" s="1">
@@ -6193,9 +6255,12 @@
       <c r="AA37" s="1">
         <v>100</v>
       </c>
+      <c r="AF37" s="1">
+        <v>20</v>
+      </c>
       <c r="AI37" s="1">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" ht="4.5" customHeight="1" spans="1:35">
@@ -6240,7 +6305,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B39" s="4"/>
       <c r="M39" s="1">
@@ -6255,9 +6320,12 @@
       <c r="AA39" s="1">
         <v>35</v>
       </c>
+      <c r="AF39" s="1">
+        <v>40</v>
+      </c>
       <c r="AI39" s="1">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="35:35">
@@ -6268,7 +6336,7 @@
     </row>
     <row r="41" ht="14.25" spans="1:35">
       <c r="A41" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AI41" s="1">
         <f t="shared" si="2"/>
@@ -6277,13 +6345,13 @@
     </row>
     <row r="42" ht="27.75" spans="1:35">
       <c r="A42" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="3">
         <v>22</v>
@@ -6337,12 +6405,12 @@
         <v>31</v>
       </c>
       <c r="AI42" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
@@ -6387,10 +6455,10 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1">
         <v>240</v>
@@ -6417,7 +6485,7 @@
     </row>
     <row r="46" spans="2:35">
       <c r="B46" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AI46" s="1">
         <f t="shared" si="3"/>
@@ -6472,10 +6540,10 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C49" s="1">
         <v>64</v>
@@ -6487,7 +6555,7 @@
     </row>
     <row r="50" spans="2:35">
       <c r="B50" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AI50" s="1">
         <f t="shared" si="3"/>
@@ -6496,7 +6564,7 @@
     </row>
     <row r="51" spans="2:35">
       <c r="B51" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D51" s="1">
         <v>32</v>
@@ -6508,7 +6576,7 @@
     </row>
     <row r="52" spans="2:35">
       <c r="B52" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C52" s="1">
         <v>32</v>
@@ -6566,10 +6634,10 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H54" s="1">
         <v>32</v>
@@ -6581,7 +6649,7 @@
     </row>
     <row r="55" spans="2:35">
       <c r="B55" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E55" s="1">
         <v>32</v>
@@ -6593,7 +6661,7 @@
     </row>
     <row r="56" spans="2:35">
       <c r="B56" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C56" s="1">
         <v>8</v>
@@ -6645,10 +6713,10 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AI58" s="1">
         <f t="shared" si="3"/>
@@ -6697,7 +6765,7 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C60" s="1">
         <v>20</v>
@@ -6764,10 +6832,10 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C62" s="1">
         <v>10</v>
@@ -6779,7 +6847,7 @@
     </row>
     <row r="63" spans="2:35">
       <c r="B63" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D63" s="1">
         <v>20</v>
@@ -6831,10 +6899,10 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>147</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>145</v>
       </c>
       <c r="C65" s="16">
         <v>5</v>
@@ -6957,7 +7025,7 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C68" s="1">
         <v>120</v>
@@ -7012,7 +7080,7 @@
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D70" s="1">
         <v>120</v>
@@ -7067,7 +7135,7 @@
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D72" s="4">
         <v>5</v>
@@ -7119,7 +7187,7 @@
     </row>
     <row r="74" spans="1:35">
       <c r="A74" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D74" s="1">
         <v>20</v>
@@ -7166,40 +7234,40 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="J1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="2:14">
@@ -7301,40 +7369,40 @@
     </row>
     <row r="19" ht="27.75" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -7573,7 +7641,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -7585,15 +7653,15 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -7601,7 +7669,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -7609,15 +7677,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B4" s="1">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
@@ -7625,7 +7693,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="26148" windowHeight="14244" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -845,6 +845,12 @@
     <t>6.15</t>
   </si>
   <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
     <t>Project
 （项目）</t>
   </si>
@@ -1058,6 +1064,9 @@
 （今日实际学习时长）</t>
   </si>
   <si>
+    <t>7.3</t>
+  </si>
+  <si>
     <t>Times
 （时长）</t>
   </si>
@@ -1117,8 +1126,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1171,7 +1180,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,6 +1209,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1194,7 +1232,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,24 +1277,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1237,28 +1291,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1267,15 +1300,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1291,24 +1316,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1379,13 +1388,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,7 +1418,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,67 +1520,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,49 +1550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,6 +1601,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1618,15 +1636,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1672,6 +1681,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1680,15 +1698,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1697,10 +1706,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1709,137 +1718,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1877,6 +1886,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2325,105 +2337,105 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="12" customHeight="1" spans="8:17">
-      <c r="H12" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-    </row>
-    <row r="13" customHeight="1" spans="8:17">
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-    </row>
-    <row r="14" customHeight="1" spans="8:17">
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-    </row>
-    <row r="15" customHeight="1" spans="8:17">
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-    </row>
-    <row r="16" customHeight="1" spans="8:17">
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-    </row>
-    <row r="17" customHeight="1" spans="8:17">
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-    </row>
-    <row r="18" customHeight="1" spans="8:17">
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-    </row>
-    <row r="19" customHeight="1" spans="8:17">
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
+    <row r="12" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H12" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2449,1873 +2461,1873 @@
       <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16" style="23" customWidth="1"/>
-    <col min="3" max="3" width="26.3833333333333" style="23" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="23" customWidth="1"/>
-    <col min="5" max="5" width="15.1333333333333" style="24" customWidth="1"/>
-    <col min="6" max="6" width="13" style="23" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="23" customWidth="1"/>
-    <col min="8" max="9" width="9" style="23"/>
-    <col min="10" max="10" width="11.1333333333333" style="23" customWidth="1"/>
-    <col min="11" max="11" width="21" style="23" customWidth="1"/>
-    <col min="12" max="12" width="28" style="23" customWidth="1"/>
-    <col min="13" max="13" width="24.25" style="23" customWidth="1"/>
-    <col min="14" max="14" width="9" style="23"/>
-    <col min="15" max="15" width="11" style="23" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="10" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16" style="24" customWidth="1"/>
+    <col min="3" max="3" width="26.3796296296296" style="24" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="15.1296296296296" style="25" customWidth="1"/>
+    <col min="6" max="6" width="13" style="24" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="24" customWidth="1"/>
+    <col min="8" max="9" width="9" style="24"/>
+    <col min="10" max="10" width="11.1296296296296" style="24" customWidth="1"/>
+    <col min="11" max="11" width="21" style="24" customWidth="1"/>
+    <col min="12" max="12" width="28" style="24" customWidth="1"/>
+    <col min="13" max="13" width="24.25" style="24" customWidth="1"/>
+    <col min="14" max="14" width="9" style="24"/>
+    <col min="15" max="15" width="11" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:8">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26" t="s">
+    <row r="1" ht="28.8" spans="1:8">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" ht="3" customHeight="1" spans="1:7">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="33">
+      <c r="A3" s="34">
         <v>6.1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="33"/>
-      <c r="B4" s="15">
+      <c r="A4" s="34"/>
+      <c r="B4" s="16">
         <v>8</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="16">
         <v>20</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <v>17</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="16">
         <f>SUM(B4:D4)</f>
         <v>45</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <f>SUM(F4:F35)</f>
         <v>1673.58</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="33">
+      <c r="A5" s="34">
         <v>6.2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="F5" s="15">
+      <c r="D5" s="35"/>
+      <c r="F5" s="16">
         <f t="shared" ref="F5:F58" si="0">SUM(B5:D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33"/>
-      <c r="B6" s="15">
+      <c r="A6" s="34"/>
+      <c r="B6" s="16">
         <v>4</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>20</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="24">
+      <c r="D6" s="16"/>
+      <c r="E6" s="25">
         <v>194.7</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="15"/>
-      <c r="F7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="33"/>
-      <c r="B8" s="15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="16">
         <v>650</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="F8" s="15">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="F8" s="16">
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="33">
+      <c r="A9" s="34">
         <v>6.5</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="15"/>
+      <c r="F9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="33"/>
-      <c r="B10" s="15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="16">
         <v>4</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="16">
         <v>16</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="16">
         <v>20</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="25">
         <v>194.3</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="16">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" ht="27" spans="1:7">
-      <c r="A11" s="33">
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" ht="28.8" spans="1:7">
+      <c r="A11" s="34">
         <v>6.6</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="15"/>
+      <c r="F11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="33"/>
-      <c r="B12" s="15">
+      <c r="A12" s="34"/>
+      <c r="B12" s="16">
         <v>1</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="16">
         <v>15.8</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="16">
         <v>20</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="25">
         <v>194.6</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="16">
         <f t="shared" si="0"/>
         <v>36.8</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="33">
+      <c r="A13" s="34">
         <v>6.7</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="F13" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="F13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="33"/>
-      <c r="B14" s="15">
+      <c r="A14" s="34"/>
+      <c r="B14" s="16">
         <v>3.5</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="16">
         <v>12</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="24">
+      <c r="D14" s="16"/>
+      <c r="E14" s="25">
         <v>194.7</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="16">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="33">
+      <c r="A15" s="34">
         <v>6.8</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="15"/>
+      <c r="F15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="33"/>
-      <c r="B16" s="15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="16">
         <v>3.5</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="16">
         <v>17</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="24" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="16">
         <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="33">
+      <c r="A17" s="34">
         <v>6.9</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="15"/>
+      <c r="F17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="33"/>
-      <c r="B18" s="15">
+      <c r="A18" s="34"/>
+      <c r="B18" s="16">
         <v>3.2</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="16">
         <v>10</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="16">
         <v>212</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="16">
         <f t="shared" si="0"/>
         <v>225.2</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="15"/>
+      <c r="F19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="33"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15">
+      <c r="A20" s="34"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16">
         <v>15</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="16">
         <v>15</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="15"/>
+      <c r="F21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="33"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15">
+      <c r="A22" s="34"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16">
         <v>30</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="16">
         <v>50</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="15"/>
+      <c r="F23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="33"/>
-      <c r="B24" s="15">
+      <c r="A24" s="34"/>
+      <c r="B24" s="16">
         <v>8</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="16">
         <v>10</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="16">
         <v>10.8</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="16">
         <f t="shared" si="0"/>
         <v>28.8</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="34" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="15"/>
+      <c r="F25" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="33"/>
-      <c r="B26" s="15">
+      <c r="A26" s="34"/>
+      <c r="B26" s="16">
         <v>3.5</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="16">
         <v>12.5</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="35">
         <v>14</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G26" s="15"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="34" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="15"/>
+      <c r="F27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="33"/>
-      <c r="B28" s="15">
+      <c r="A28" s="34"/>
+      <c r="B28" s="16">
         <v>3.5</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="16">
         <v>15.28</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="16">
         <v>41</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="16">
         <f t="shared" si="0"/>
         <v>59.78</v>
       </c>
-      <c r="G28" s="15"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="34" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="15"/>
+      <c r="F29" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="33"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15">
+      <c r="A30" s="34"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16">
         <v>8.5</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="16">
         <v>17</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="16">
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
-      <c r="G30" s="15"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="F31" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="F31" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="33"/>
-      <c r="B32" s="15">
+      <c r="A32" s="34"/>
+      <c r="B32" s="16">
         <v>3.5</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="16">
         <v>9</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="24" t="s">
+      <c r="D32" s="16"/>
+      <c r="E32" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="16">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="G32" s="15"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="F33" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="F33" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="33"/>
-      <c r="B34" s="15">
+      <c r="A34" s="34"/>
+      <c r="B34" s="16">
         <v>300</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="16">
         <v>50</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="24">
+      <c r="D34" s="16"/>
+      <c r="E34" s="25">
         <v>195</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="16">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="G34" s="15"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="15"/>
+      <c r="F35" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="33"/>
-      <c r="B36" s="15">
+      <c r="A36" s="34"/>
+      <c r="B36" s="16">
         <v>8</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="16">
         <v>13</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="16">
         <v>29</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="16">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G36" s="15"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="15"/>
+      <c r="F37" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="33"/>
-      <c r="B38" s="15">
+      <c r="A38" s="34"/>
+      <c r="B38" s="16">
         <v>4</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="16">
         <v>15</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="16">
         <v>11</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G38" s="15"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="34" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="F39" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="15"/>
+      <c r="D39" s="35"/>
+      <c r="F39" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="33"/>
-      <c r="B40" s="15">
+      <c r="A40" s="34"/>
+      <c r="B40" s="16">
         <v>2.8</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="16">
         <v>12</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="16">
         <v>10</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="16">
         <f t="shared" si="0"/>
         <v>24.8</v>
       </c>
-      <c r="G40" s="15"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="F41" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="F41" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="33"/>
-      <c r="B42" s="15">
+      <c r="A42" s="34"/>
+      <c r="B42" s="16">
         <v>208</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="16">
         <v>12</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="16">
         <v>7.5</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="16">
         <f t="shared" si="0"/>
         <v>227.5</v>
       </c>
-      <c r="G42" s="15"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="F43" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="F43" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="33"/>
-      <c r="B44" s="15">
+      <c r="A44" s="34"/>
+      <c r="B44" s="16">
         <v>4</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="16">
         <v>14.8</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="16">
         <v>20</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="16">
         <f t="shared" si="0"/>
         <v>38.8</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="15"/>
+      <c r="F45" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="33"/>
-      <c r="B46" s="15">
+      <c r="A46" s="34"/>
+      <c r="B46" s="16">
         <v>14</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="16">
         <v>14.5</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="16">
         <v>11.5</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="16">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G46" s="15"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="15"/>
+      <c r="F47" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="33"/>
-      <c r="B48" s="15">
+      <c r="A48" s="34"/>
+      <c r="B48" s="16">
         <v>17</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="16">
         <v>14.5</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="16">
         <v>25</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="16">
         <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
-      <c r="G48" s="15"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15" t="s">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="15"/>
+      <c r="F49" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="33"/>
-      <c r="B50" s="24">
+      <c r="A50" s="34"/>
+      <c r="B50" s="25">
         <v>4</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="16">
         <v>15</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="16">
         <v>10</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G50" s="15"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="F51" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="F51" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="33"/>
-      <c r="B52" s="15">
+      <c r="A52" s="34"/>
+      <c r="B52" s="16">
         <v>8</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="16">
         <v>12.5</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="16">
         <v>18</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="16">
         <f t="shared" si="0"/>
         <v>38.5</v>
       </c>
-      <c r="G52" s="15"/>
-    </row>
-    <row r="53" ht="27" spans="1:7">
-      <c r="A53" s="35" t="s">
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" ht="28.8" spans="1:7">
+      <c r="A53" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="F53" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="15"/>
+      <c r="D53" s="35"/>
+      <c r="F53" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="33"/>
-      <c r="B54" s="15">
+      <c r="A54" s="34"/>
+      <c r="B54" s="16">
         <v>10</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="16">
         <v>13</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="16">
         <v>35.5</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="16">
         <f t="shared" si="0"/>
         <v>58.5</v>
       </c>
-      <c r="G54" s="15"/>
-    </row>
-    <row r="55" ht="27" spans="1:7">
-      <c r="A55" s="33" t="s">
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" ht="28.8" spans="1:7">
+      <c r="A55" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15" t="s">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F55" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="15"/>
+      <c r="F55" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="33"/>
-      <c r="B56" s="15">
+      <c r="A56" s="34"/>
+      <c r="B56" s="16">
         <v>4</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="16">
         <v>17.28</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="16">
         <v>18.5</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="16">
         <f t="shared" si="0"/>
         <v>39.78</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15" t="s">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="F57" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="F57" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="33"/>
-      <c r="B58" s="15">
+      <c r="A58" s="34"/>
+      <c r="B58" s="16">
         <v>8</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="16">
         <v>21</v>
       </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="24" t="s">
+      <c r="D58" s="16"/>
+      <c r="E58" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G58" s="15"/>
+      <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="33"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="33"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="F60" s="15">
+      <c r="A60" s="34"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="F60" s="16">
         <f>SUM(B60:D60)</f>
         <v>0</v>
       </c>
-      <c r="G60" s="15"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
     </row>
     <row r="62" spans="5:5">
-      <c r="E62" s="23"/>
-    </row>
-    <row r="63" ht="27" spans="1:8">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26" t="s">
+      <c r="E62" s="24"/>
+    </row>
+    <row r="63" ht="28.8" spans="1:8">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E63" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="28" t="s">
+      <c r="F63" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="28" t="s">
+      <c r="G63" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="28"/>
+      <c r="H63" s="29"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="22">
+      <c r="A65" s="23">
         <v>4.24</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="66" spans="3:7">
-      <c r="C66" s="23">
+      <c r="C66" s="24">
         <v>12.2</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D66" s="24">
         <v>12</v>
       </c>
-      <c r="F66" s="23">
+      <c r="F66" s="24">
         <f>SUM(B66:D66)</f>
         <v>24.2</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="24">
         <f>SUM(F66:F97)</f>
         <v>2574.5</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="22">
+      <c r="A67" s="23">
         <v>4.25</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="37" t="s">
+      <c r="D67" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F67" s="24">
         <f t="shared" ref="F67:F116" si="1">SUM(B67:D67)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="23">
+      <c r="B68" s="24">
         <v>3</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="24">
         <v>10.85</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D68" s="24">
         <v>18</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F68" s="24">
         <f t="shared" si="1"/>
         <v>31.85</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="22">
+      <c r="A69" s="23">
         <v>4.26</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D69" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F69" s="23">
+      <c r="F69" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="23">
+      <c r="B70" s="24">
         <v>3</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="24">
         <v>14</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="24">
         <v>19.7</v>
       </c>
-      <c r="F70" s="23">
+      <c r="F70" s="24">
         <f t="shared" si="1"/>
         <v>36.7</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="22">
+      <c r="A71" s="23">
         <v>4.27</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="F71" s="23">
+      <c r="F71" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="23">
+      <c r="B72" s="24">
         <v>3</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C72" s="24">
         <v>16.7</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="24">
         <v>26</v>
       </c>
-      <c r="F72" s="23">
+      <c r="F72" s="24">
         <f t="shared" si="1"/>
         <v>45.7</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="22">
+      <c r="A73" s="23">
         <v>4.28</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="23">
+      <c r="F73" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="23">
+      <c r="B74" s="24">
         <v>3</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="24">
         <v>16.2</v>
       </c>
-      <c r="F74" s="23">
+      <c r="F74" s="24">
         <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="22">
+      <c r="A75" s="23">
         <v>5.1</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D75" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F75" s="23">
+      <c r="F75" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="23">
+      <c r="B76" s="24">
         <v>1000</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F76" s="24">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="22">
+      <c r="A77" s="23">
         <v>5.2</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D77" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="23">
+      <c r="F77" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="23">
+      <c r="B78" s="24">
         <v>3</v>
       </c>
-      <c r="C78" s="23">
+      <c r="C78" s="24">
         <v>12</v>
       </c>
-      <c r="D78" s="23">
+      <c r="D78" s="24">
         <v>11</v>
       </c>
-      <c r="F78" s="23">
+      <c r="F78" s="24">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="22">
+      <c r="A79" s="23">
         <v>5.3</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="23">
+      <c r="F79" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="23">
+      <c r="B80" s="24">
         <v>6</v>
       </c>
-      <c r="C80" s="23">
+      <c r="C80" s="24">
         <v>9</v>
       </c>
-      <c r="D80" s="23">
+      <c r="D80" s="24">
         <v>291</v>
       </c>
-      <c r="F80" s="23">
+      <c r="F80" s="24">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="22">
+      <c r="A81" s="23">
         <v>5.4</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="23">
+      <c r="F81" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="23">
+      <c r="B82" s="24">
         <v>3</v>
       </c>
-      <c r="C82" s="23">
+      <c r="C82" s="24">
         <v>21</v>
       </c>
-      <c r="D82" s="23">
+      <c r="D82" s="24">
         <v>95</v>
       </c>
-      <c r="F82" s="23">
+      <c r="F82" s="24">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="22">
+      <c r="A83" s="23">
         <v>5.5</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="23">
+      <c r="F83" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="23">
+      <c r="B84" s="24">
         <v>3</v>
       </c>
-      <c r="C84" s="23">
+      <c r="C84" s="24">
         <v>12.75</v>
       </c>
-      <c r="D84" s="23">
+      <c r="D84" s="24">
         <v>10</v>
       </c>
-      <c r="F84" s="23">
+      <c r="F84" s="24">
         <f t="shared" si="1"/>
         <v>25.75</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F85" s="23">
+      <c r="F85" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="4:6">
-      <c r="D86" s="23">
+      <c r="D86" s="24">
         <v>300</v>
       </c>
-      <c r="F86" s="23">
+      <c r="F86" s="24">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="22">
+      <c r="A87" s="23">
         <v>5.9</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="D87" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F87" s="23">
+      <c r="F87" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="23">
+      <c r="B88" s="24">
         <v>3</v>
       </c>
-      <c r="C88" s="23">
+      <c r="C88" s="24">
         <v>9</v>
       </c>
-      <c r="D88" s="23">
+      <c r="D88" s="24">
         <v>18</v>
       </c>
-      <c r="F88" s="23">
+      <c r="F88" s="24">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F89" s="23">
+      <c r="F89" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="4:6">
-      <c r="D90" s="23">
+      <c r="D90" s="24">
         <v>200</v>
       </c>
-      <c r="F90" s="23">
+      <c r="F90" s="24">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="22">
+      <c r="A91" s="23">
         <v>5.16</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="D91" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="23">
+      <c r="F91" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="23">
+      <c r="B92" s="24">
         <v>10</v>
       </c>
-      <c r="C92" s="23">
+      <c r="C92" s="24">
         <v>10.9</v>
       </c>
-      <c r="D92" s="23">
+      <c r="D92" s="24">
         <v>10</v>
       </c>
-      <c r="F92" s="23">
+      <c r="F92" s="24">
         <f t="shared" si="1"/>
         <v>30.9</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="22">
+      <c r="A93" s="23">
         <v>5.17</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D93" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F93" s="23">
+      <c r="F93" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="23">
+      <c r="B94" s="24">
         <v>3</v>
       </c>
-      <c r="C94" s="23">
+      <c r="C94" s="24">
         <v>10.9</v>
       </c>
-      <c r="D94" s="23">
+      <c r="D94" s="24">
         <v>19.5</v>
       </c>
-      <c r="F94" s="23">
+      <c r="F94" s="24">
         <f t="shared" si="1"/>
         <v>33.4</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="22">
+      <c r="A95" s="23">
         <v>5.18</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="C95" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="23" t="s">
+      <c r="D95" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F95" s="23">
+      <c r="F95" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="23">
+      <c r="B96" s="24">
         <v>3</v>
       </c>
-      <c r="C96" s="23">
+      <c r="C96" s="24">
         <v>16</v>
       </c>
-      <c r="D96" s="23">
+      <c r="D96" s="24">
         <v>326.8</v>
       </c>
-      <c r="F96" s="23">
+      <c r="F96" s="24">
         <f t="shared" si="1"/>
         <v>345.8</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="22">
+      <c r="A97" s="23">
         <v>5.19</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C97" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F97" s="23">
+      <c r="F97" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="23">
+      <c r="B98" s="24">
         <v>24</v>
       </c>
-      <c r="C98" s="23">
+      <c r="C98" s="24">
         <v>16</v>
       </c>
-      <c r="F98" s="23">
+      <c r="F98" s="24">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="F99" s="23">
+      <c r="F99" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="23">
+      <c r="B100" s="24">
         <v>80</v>
       </c>
-      <c r="F100" s="23">
+      <c r="F100" s="24">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="22">
+      <c r="A101" s="23">
         <v>5.22</v>
       </c>
-      <c r="C101" s="37" t="s">
+      <c r="C101" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="37" t="s">
+      <c r="D101" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="F101" s="23">
+      <c r="F101" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="3:6">
-      <c r="C102" s="23">
+      <c r="C102" s="24">
         <v>20.5</v>
       </c>
-      <c r="D102" s="23">
+      <c r="D102" s="24">
         <v>15</v>
       </c>
-      <c r="F102" s="23">
+      <c r="F102" s="24">
         <f t="shared" si="1"/>
         <v>35.5</v>
       </c>
     </row>
-    <row r="103" ht="27" spans="1:6">
-      <c r="A103" s="22">
+    <row r="103" ht="28.8" spans="1:6">
+      <c r="A103" s="23">
         <v>5.23</v>
       </c>
-      <c r="B103" s="37" t="s">
+      <c r="B103" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C103" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="23" t="s">
+      <c r="D103" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F103" s="23">
+      <c r="F103" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="23">
+      <c r="B104" s="24">
         <v>8</v>
       </c>
-      <c r="C104" s="23">
+      <c r="C104" s="24">
         <v>12.5</v>
       </c>
-      <c r="D104" s="23">
+      <c r="D104" s="24">
         <v>30</v>
       </c>
-      <c r="F104" s="23">
+      <c r="F104" s="24">
         <f t="shared" si="1"/>
         <v>50.5</v>
       </c>
     </row>
-    <row r="105" ht="27" spans="1:6">
-      <c r="A105" s="22">
+    <row r="105" ht="28.8" spans="1:6">
+      <c r="A105" s="23">
         <v>5.24</v>
       </c>
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C105" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="D105" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F105" s="23">
+      <c r="F105" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="23">
+      <c r="B106" s="24">
         <v>4</v>
       </c>
-      <c r="C106" s="23">
+      <c r="C106" s="24">
         <v>15</v>
       </c>
-      <c r="D106" s="23">
+      <c r="D106" s="24">
         <v>15</v>
       </c>
-      <c r="F106" s="23">
+      <c r="F106" s="24">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="107" ht="27" spans="1:6">
-      <c r="A107" s="22">
+    <row r="107" ht="28.8" spans="1:6">
+      <c r="A107" s="23">
         <v>5.25</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="23" t="s">
+      <c r="C107" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="23" t="s">
+      <c r="D107" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F107" s="23">
+      <c r="F107" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="23">
+      <c r="B108" s="24">
         <v>3</v>
       </c>
-      <c r="C108" s="23">
+      <c r="C108" s="24">
         <v>14.5</v>
       </c>
-      <c r="D108" s="23">
+      <c r="D108" s="24">
         <v>20</v>
       </c>
-      <c r="F108" s="23">
+      <c r="F108" s="24">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="22">
+      <c r="A109" s="23">
         <v>5.26</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B109" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C109" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="23" t="s">
+      <c r="D109" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E109" s="24">
+      <c r="E109" s="25">
         <v>196.7</v>
       </c>
-      <c r="F109" s="23">
+      <c r="F109" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="23">
+      <c r="B110" s="24">
         <v>5</v>
       </c>
-      <c r="C110" s="23">
+      <c r="C110" s="24">
         <v>9</v>
       </c>
-      <c r="D110" s="23">
+      <c r="D110" s="24">
         <v>10</v>
       </c>
-      <c r="F110" s="23">
+      <c r="F110" s="24">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F111" s="23">
+      <c r="F111" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="24">
+      <c r="B112" s="25">
         <v>600</v>
       </c>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23">
+      <c r="E112" s="24"/>
+      <c r="F112" s="24">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="38" t="s">
+      <c r="A113" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F113" s="23">
+      <c r="F113" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="4:6">
-      <c r="D114" s="23">
+      <c r="D114" s="24">
         <v>49</v>
       </c>
-      <c r="E114" s="24">
+      <c r="E114" s="25">
         <v>194.7</v>
       </c>
-      <c r="F114" s="23">
+      <c r="F114" s="24">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="38" t="s">
+      <c r="A115" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B115" s="37" t="s">
+      <c r="B115" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C115" s="37" t="s">
+      <c r="C115" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D115" s="37" t="s">
+      <c r="D115" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F115" s="23">
+      <c r="F115" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="23">
+      <c r="B116" s="24">
         <v>8</v>
       </c>
-      <c r="C116" s="23">
+      <c r="C116" s="24">
         <v>17.5</v>
       </c>
-      <c r="D116" s="23">
+      <c r="D116" s="24">
         <v>88</v>
       </c>
-      <c r="E116" s="24">
+      <c r="E116" s="25">
         <v>193</v>
       </c>
-      <c r="F116" s="23">
+      <c r="F116" s="24">
         <f t="shared" si="1"/>
         <v>113.5</v>
       </c>
@@ -4340,20 +4352,20 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" ht="29.55" spans="1:5">
       <c r="A1" s="8" t="s">
         <v>105</v>
       </c>
@@ -4427,7 +4439,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>110</v>
       </c>
       <c r="B9" s="1">
@@ -4435,7 +4447,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="1">
@@ -4443,7 +4455,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="1">
@@ -4451,7 +4463,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1">
@@ -4459,7 +4471,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="1">
@@ -4467,7 +4479,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="1">
@@ -4567,7 +4579,7 @@
         <v>72</v>
       </c>
       <c r="B26" s="1">
-        <v>181</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4587,16 +4599,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" ht="29.55" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
@@ -4646,24 +4658,24 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1296296296296" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.3833333333333" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.3796296296296" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:10">
+    <row r="1" ht="29.55" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>105</v>
       </c>
@@ -4705,25 +4717,25 @@
       <c r="E2" s="1">
         <v>0.2</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="20">
         <f>SUM(B2:B42)</f>
-        <v>43.3</v>
-      </c>
-      <c r="G2" s="19">
+        <v>51.3</v>
+      </c>
+      <c r="G2" s="20">
         <f>SUM(C2:C42)</f>
         <v>31.2</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="20">
         <f>SUM(D2:D42)</f>
         <v>3</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="20">
         <f>SUM(E2:E42)</f>
-        <v>28.1</v>
-      </c>
-      <c r="J2" s="21">
+        <v>32.1</v>
+      </c>
+      <c r="J2" s="22">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>0.352</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4865,7 +4877,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1">
@@ -4883,7 +4895,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="1">
@@ -5125,19 +5137,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="10:10">
+    <row r="27" spans="1:10">
+      <c r="A27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
       <c r="J27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="10:10">
+    <row r="28" spans="1:10">
+      <c r="A28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
       <c r="J28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="10:10">
+    <row r="29" spans="1:10">
+      <c r="A29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
       <c r="J29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5181,45 +5220,45 @@
   </sheetPr>
   <dimension ref="A1:AI74"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AK29" sqref="AK29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.8833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8796296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="4.13333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3.88333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.12962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="3.87962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="3.90833333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="26" width="3.38333333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.15" style="1" customWidth="1"/>
-    <col min="28" max="28" width="3.38333333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="3.90740740740741" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="26" width="3.37962962962963" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.14814814814815" style="1" customWidth="1"/>
+    <col min="28" max="28" width="3.37962962962963" style="1" customWidth="1"/>
     <col min="29" max="29" width="3.58333333333333" style="1" customWidth="1"/>
-    <col min="30" max="33" width="3.38333333333333" style="1" customWidth="1"/>
+    <col min="30" max="33" width="3.37962962962963" style="1" customWidth="1"/>
     <col min="34" max="34" width="6.5" style="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:35">
+    <row r="1" ht="29.55" spans="1:35">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -5315,12 +5354,12 @@
         <v>31</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AI2" s="1">
         <f>SUM(C2:AH2)</f>
@@ -5328,51 +5367,51 @@
       </c>
     </row>
     <row r="3" ht="5.25" customHeight="1" spans="1:35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15">
         <f t="shared" ref="AI3:AI33" si="0">SUM(C3:AH3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H4" s="1">
         <v>70</v>
@@ -5399,7 +5438,7 @@
     </row>
     <row r="5" spans="2:35">
       <c r="B5" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="0"/>
@@ -5413,51 +5452,51 @@
       </c>
     </row>
     <row r="7" ht="3.75" customHeight="1" spans="1:35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="1">
         <v>32</v>
@@ -5469,7 +5508,7 @@
     </row>
     <row r="9" spans="2:35">
       <c r="B9" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I9" s="1">
         <v>16</v>
@@ -5481,7 +5520,7 @@
     </row>
     <row r="10" spans="2:35">
       <c r="B10" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I10" s="1">
         <v>32</v>
@@ -5493,7 +5532,7 @@
     </row>
     <row r="11" spans="2:35">
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="0"/>
@@ -5501,51 +5540,51 @@
       </c>
     </row>
     <row r="12" ht="4.5" customHeight="1" spans="1:35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="1">
         <v>32</v>
@@ -5560,7 +5599,7 @@
     </row>
     <row r="14" spans="2:35">
       <c r="B14" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H14" s="1">
         <v>32</v>
@@ -5578,7 +5617,7 @@
     </row>
     <row r="15" spans="2:35">
       <c r="B15" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="0"/>
@@ -5586,48 +5625,48 @@
       </c>
     </row>
     <row r="16" ht="3.75" customHeight="1" spans="1:35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="0"/>
@@ -5635,48 +5674,48 @@
       </c>
     </row>
     <row r="18" ht="3" customHeight="1" spans="1:35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:35">
-      <c r="A19" s="15" t="s">
-        <v>145</v>
+      <c r="A19" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="H19" s="1">
         <v>100</v>
@@ -5708,51 +5747,51 @@
       </c>
     </row>
     <row r="20" ht="3.75" customHeight="1" spans="1:35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" si="0"/>
@@ -5761,7 +5800,7 @@
     </row>
     <row r="22" spans="2:35">
       <c r="B22" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
@@ -5772,172 +5811,172 @@
       </c>
     </row>
     <row r="23" ht="4.5" customHeight="1" spans="1:35">
-      <c r="A23" s="14"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14">
+      <c r="A23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="15.95" customHeight="1" spans="1:35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
       <c r="AI24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:35">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
-      <c r="AG25" s="16"/>
-      <c r="AH25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
       <c r="AI25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="5.1" customHeight="1" spans="1:35">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14">
+      <c r="A26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AC27" s="1">
         <v>40</v>
@@ -5948,48 +5987,48 @@
       </c>
     </row>
     <row r="28" ht="3" customHeight="1" spans="1:35">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M29" s="1">
         <v>100</v>
@@ -6000,48 +6039,48 @@
       </c>
     </row>
     <row r="30" ht="3" customHeight="1" spans="1:35">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D31" s="4"/>
       <c r="M31" s="1">
@@ -6068,48 +6107,48 @@
       </c>
     </row>
     <row r="32" ht="3" customHeight="1" spans="1:35">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P33" s="1">
         <v>25</v>
@@ -6135,51 +6174,51 @@
       </c>
     </row>
     <row r="34" ht="4.5" customHeight="1" spans="1:35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15">
         <f t="shared" ref="AI34:AI39" si="1">SUM(C34:AH34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H35" s="1">
         <v>32</v>
@@ -6193,48 +6232,48 @@
       </c>
     </row>
     <row r="36" ht="4.5" customHeight="1" spans="1:35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B37" s="4"/>
       <c r="M37" s="1">
@@ -6264,48 +6303,48 @@
       </c>
     </row>
     <row r="38" ht="4.5" customHeight="1" spans="1:35">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B39" s="4"/>
       <c r="M39" s="1">
@@ -6334,8 +6373,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:35">
-      <c r="A41" s="18" t="s">
+    <row r="41" ht="15.15" spans="1:35">
+      <c r="A41" s="19" t="s">
         <v>74</v>
       </c>
       <c r="AI41" s="1">
@@ -6343,15 +6382,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="27.75" spans="1:35">
+    <row r="42" ht="29.55" spans="1:35">
       <c r="A42" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="3">
         <v>22</v>
@@ -6405,60 +6444,60 @@
         <v>31</v>
       </c>
       <c r="AI42" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:35">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="14"/>
-      <c r="AI44" s="14"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="15"/>
+      <c r="AI44" s="15"/>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C45" s="1">
         <v>240</v>
@@ -6485,7 +6524,7 @@
     </row>
     <row r="46" spans="2:35">
       <c r="B46" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AI46" s="1">
         <f t="shared" si="3"/>
@@ -6499,51 +6538,51 @@
       </c>
     </row>
     <row r="48" spans="1:35">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="14"/>
-      <c r="AA48" s="14"/>
-      <c r="AB48" s="14"/>
-      <c r="AC48" s="14"/>
-      <c r="AD48" s="14"/>
-      <c r="AE48" s="14"/>
-      <c r="AF48" s="14"/>
-      <c r="AG48" s="14"/>
-      <c r="AH48" s="14"/>
-      <c r="AI48" s="14">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C49" s="1">
         <v>64</v>
@@ -6555,7 +6594,7 @@
     </row>
     <row r="50" spans="2:35">
       <c r="B50" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AI50" s="1">
         <f t="shared" si="3"/>
@@ -6564,7 +6603,7 @@
     </row>
     <row r="51" spans="2:35">
       <c r="B51" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D51" s="1">
         <v>32</v>
@@ -6576,7 +6615,7 @@
     </row>
     <row r="52" spans="2:35">
       <c r="B52" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C52" s="1">
         <v>32</v>
@@ -6593,51 +6632,51 @@
       </c>
     </row>
     <row r="53" spans="1:35">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="14"/>
-      <c r="Y53" s="14"/>
-      <c r="Z53" s="14"/>
-      <c r="AA53" s="14"/>
-      <c r="AB53" s="14"/>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="14"/>
-      <c r="AE53" s="14"/>
-      <c r="AF53" s="14"/>
-      <c r="AG53" s="14"/>
-      <c r="AH53" s="14"/>
-      <c r="AI53" s="14">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="15"/>
+      <c r="AF53" s="15"/>
+      <c r="AG53" s="15"/>
+      <c r="AH53" s="15"/>
+      <c r="AI53" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H54" s="1">
         <v>32</v>
@@ -6649,7 +6688,7 @@
     </row>
     <row r="55" spans="2:35">
       <c r="B55" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E55" s="1">
         <v>32</v>
@@ -6661,7 +6700,7 @@
     </row>
     <row r="56" spans="2:35">
       <c r="B56" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C56" s="1">
         <v>8</v>
@@ -6672,51 +6711,51 @@
       </c>
     </row>
     <row r="57" spans="1:35">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="14"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="14"/>
-      <c r="X57" s="14"/>
-      <c r="Y57" s="14"/>
-      <c r="Z57" s="14"/>
-      <c r="AA57" s="14"/>
-      <c r="AB57" s="14"/>
-      <c r="AC57" s="14"/>
-      <c r="AD57" s="14"/>
-      <c r="AE57" s="14"/>
-      <c r="AF57" s="14"/>
-      <c r="AG57" s="14"/>
-      <c r="AH57" s="14"/>
-      <c r="AI57" s="14">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="15"/>
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="15"/>
+      <c r="AF57" s="15"/>
+      <c r="AG57" s="15"/>
+      <c r="AH57" s="15"/>
+      <c r="AI57" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AI58" s="1">
         <f t="shared" si="3"/>
@@ -6724,48 +6763,48 @@
       </c>
     </row>
     <row r="59" spans="1:35">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="14"/>
-      <c r="Z59" s="14"/>
-      <c r="AA59" s="14"/>
-      <c r="AB59" s="14"/>
-      <c r="AC59" s="14"/>
-      <c r="AD59" s="14"/>
-      <c r="AE59" s="14"/>
-      <c r="AF59" s="14"/>
-      <c r="AG59" s="14"/>
-      <c r="AH59" s="14"/>
-      <c r="AI59" s="14">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="15"/>
+      <c r="AC59" s="15"/>
+      <c r="AD59" s="15"/>
+      <c r="AE59" s="15"/>
+      <c r="AF59" s="15"/>
+      <c r="AG59" s="15"/>
+      <c r="AH59" s="15"/>
+      <c r="AI59" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:35">
-      <c r="A60" s="15" t="s">
-        <v>145</v>
+      <c r="A60" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="C60" s="1">
         <v>20</v>
@@ -6791,51 +6830,51 @@
       </c>
     </row>
     <row r="61" spans="1:35">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="14"/>
-      <c r="V61" s="14"/>
-      <c r="W61" s="14"/>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="14"/>
-      <c r="Z61" s="14"/>
-      <c r="AA61" s="14"/>
-      <c r="AB61" s="14"/>
-      <c r="AC61" s="14"/>
-      <c r="AD61" s="14"/>
-      <c r="AE61" s="14"/>
-      <c r="AF61" s="14"/>
-      <c r="AG61" s="14"/>
-      <c r="AH61" s="14"/>
-      <c r="AI61" s="14">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="15"/>
+      <c r="AB61" s="15"/>
+      <c r="AC61" s="15"/>
+      <c r="AD61" s="15"/>
+      <c r="AE61" s="15"/>
+      <c r="AF61" s="15"/>
+      <c r="AG61" s="15"/>
+      <c r="AH61" s="15"/>
+      <c r="AI61" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C62" s="1">
         <v>10</v>
@@ -6847,7 +6886,7 @@
     </row>
     <row r="63" spans="2:35">
       <c r="B63" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D63" s="1">
         <v>20</v>
@@ -6858,174 +6897,174 @@
       </c>
     </row>
     <row r="64" spans="1:35">
-      <c r="A64" s="14"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14"/>
-      <c r="V64" s="14"/>
-      <c r="W64" s="14"/>
-      <c r="X64" s="14"/>
-      <c r="Y64" s="14"/>
-      <c r="Z64" s="14"/>
-      <c r="AA64" s="14"/>
-      <c r="AB64" s="14"/>
-      <c r="AC64" s="14"/>
-      <c r="AD64" s="14"/>
-      <c r="AE64" s="14"/>
-      <c r="AF64" s="14"/>
-      <c r="AG64" s="14"/>
-      <c r="AH64" s="14"/>
-      <c r="AI64" s="14">
+      <c r="A64" s="15"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
+      <c r="AC64" s="15"/>
+      <c r="AD64" s="15"/>
+      <c r="AE64" s="15"/>
+      <c r="AF64" s="15"/>
+      <c r="AG64" s="15"/>
+      <c r="AH64" s="15"/>
+      <c r="AI64" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:35">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="16">
+      <c r="C65" s="17">
         <v>5</v>
       </c>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="16"/>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="16"/>
-      <c r="AB65" s="16"/>
-      <c r="AC65" s="16"/>
-      <c r="AD65" s="16"/>
-      <c r="AE65" s="16"/>
-      <c r="AF65" s="16"/>
-      <c r="AG65" s="16"/>
-      <c r="AH65" s="16"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="17"/>
+      <c r="AA65" s="17"/>
+      <c r="AB65" s="17"/>
+      <c r="AC65" s="17"/>
+      <c r="AD65" s="17"/>
+      <c r="AE65" s="17"/>
+      <c r="AF65" s="17"/>
+      <c r="AG65" s="17"/>
+      <c r="AH65" s="17"/>
       <c r="AI65" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:35">
-      <c r="A66" s="16"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
-      <c r="X66" s="16"/>
-      <c r="Y66" s="16"/>
-      <c r="Z66" s="16"/>
-      <c r="AA66" s="16"/>
-      <c r="AB66" s="16"/>
-      <c r="AC66" s="16"/>
-      <c r="AD66" s="16"/>
-      <c r="AE66" s="16"/>
-      <c r="AF66" s="16"/>
-      <c r="AG66" s="16"/>
-      <c r="AH66" s="16"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="17"/>
+      <c r="AA66" s="17"/>
+      <c r="AB66" s="17"/>
+      <c r="AC66" s="17"/>
+      <c r="AD66" s="17"/>
+      <c r="AE66" s="17"/>
+      <c r="AF66" s="17"/>
+      <c r="AG66" s="17"/>
+      <c r="AH66" s="17"/>
       <c r="AI66" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:35">
-      <c r="A67" s="14"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
-      <c r="T67" s="14"/>
-      <c r="U67" s="14"/>
-      <c r="V67" s="14"/>
-      <c r="W67" s="14"/>
-      <c r="X67" s="14"/>
-      <c r="Y67" s="14"/>
-      <c r="Z67" s="14"/>
-      <c r="AA67" s="14"/>
-      <c r="AB67" s="14"/>
-      <c r="AC67" s="14"/>
-      <c r="AD67" s="14"/>
-      <c r="AE67" s="14"/>
-      <c r="AF67" s="14"/>
-      <c r="AG67" s="14"/>
-      <c r="AH67" s="14"/>
-      <c r="AI67" s="14">
+      <c r="A67" s="15"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="15"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
+      <c r="AE67" s="15"/>
+      <c r="AF67" s="15"/>
+      <c r="AG67" s="15"/>
+      <c r="AH67" s="15"/>
+      <c r="AI67" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C68" s="1">
         <v>120</v>
@@ -7039,48 +7078,48 @@
       </c>
     </row>
     <row r="69" spans="1:35">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
-      <c r="T69" s="14"/>
-      <c r="U69" s="14"/>
-      <c r="V69" s="14"/>
-      <c r="W69" s="14"/>
-      <c r="X69" s="14"/>
-      <c r="Y69" s="14"/>
-      <c r="Z69" s="14"/>
-      <c r="AA69" s="14"/>
-      <c r="AB69" s="14"/>
-      <c r="AC69" s="14"/>
-      <c r="AD69" s="14"/>
-      <c r="AE69" s="14"/>
-      <c r="AF69" s="14"/>
-      <c r="AG69" s="14"/>
-      <c r="AH69" s="14"/>
-      <c r="AI69" s="14">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="15"/>
+      <c r="AB69" s="15"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="15"/>
+      <c r="AG69" s="15"/>
+      <c r="AH69" s="15"/>
+      <c r="AI69" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D70" s="1">
         <v>120</v>
@@ -7094,48 +7133,48 @@
       </c>
     </row>
     <row r="71" spans="1:35">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
-      <c r="T71" s="14"/>
-      <c r="U71" s="14"/>
-      <c r="V71" s="14"/>
-      <c r="W71" s="14"/>
-      <c r="X71" s="14"/>
-      <c r="Y71" s="14"/>
-      <c r="Z71" s="14"/>
-      <c r="AA71" s="14"/>
-      <c r="AB71" s="14"/>
-      <c r="AC71" s="14"/>
-      <c r="AD71" s="14"/>
-      <c r="AE71" s="14"/>
-      <c r="AF71" s="14"/>
-      <c r="AG71" s="14"/>
-      <c r="AH71" s="14"/>
-      <c r="AI71" s="14">
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="15"/>
+      <c r="AA71" s="15"/>
+      <c r="AB71" s="15"/>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
+      <c r="AE71" s="15"/>
+      <c r="AF71" s="15"/>
+      <c r="AG71" s="15"/>
+      <c r="AH71" s="15"/>
+      <c r="AI71" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D72" s="4">
         <v>5</v>
@@ -7146,48 +7185,48 @@
       </c>
     </row>
     <row r="73" spans="1:35">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="14"/>
-      <c r="U73" s="14"/>
-      <c r="V73" s="14"/>
-      <c r="W73" s="14"/>
-      <c r="X73" s="14"/>
-      <c r="Y73" s="14"/>
-      <c r="Z73" s="14"/>
-      <c r="AA73" s="14"/>
-      <c r="AB73" s="14"/>
-      <c r="AC73" s="14"/>
-      <c r="AD73" s="14"/>
-      <c r="AE73" s="14"/>
-      <c r="AF73" s="14"/>
-      <c r="AG73" s="14"/>
-      <c r="AH73" s="14"/>
-      <c r="AI73" s="14">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15"/>
+      <c r="AH73" s="15"/>
+      <c r="AI73" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:35">
       <c r="A74" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D74" s="1">
         <v>20</v>
@@ -7211,30 +7250,30 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="5"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.6296296296296" style="6" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1296296296296" style="5" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1296296296296" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="6" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:12">
+    <row r="1" ht="58.35" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>105</v>
@@ -7252,9 +7291,9 @@
         <v>117</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>105</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -7349,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="2:12">
+    <row r="18" ht="15.15" spans="2:12">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -7358,7 +7397,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -7367,9 +7406,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="27.75" spans="1:12">
+    <row r="19" ht="58.35" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>105</v>
@@ -7387,19 +7426,19 @@
         <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>105</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>117</v>
@@ -7416,7 +7455,7 @@
         <f t="shared" si="0"/>
         <v>0.0437158469945355</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="5">
         <v>5.22</v>
       </c>
       <c r="I20" s="1">
@@ -7426,8 +7465,8 @@
         <v>5</v>
       </c>
       <c r="L20" s="6">
-        <f>SUM(I20:I42)/256</f>
-        <v>0.037890625</v>
+        <f>SUM(I20:I42)/93</f>
+        <v>0.12258064516129</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -7441,7 +7480,7 @@
         <f t="shared" si="0"/>
         <v>0.0546448087431694</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="5">
         <v>5.23</v>
       </c>
       <c r="I21" s="1">
@@ -7462,7 +7501,7 @@
         <f t="shared" si="0"/>
         <v>0.087431693989071</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="5">
         <v>5.25</v>
       </c>
       <c r="I22" s="1">
@@ -7483,7 +7522,7 @@
         <f t="shared" si="0"/>
         <v>0.106010928961749</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="5">
         <v>5.26</v>
       </c>
       <c r="J23" s="1">
@@ -7501,7 +7540,7 @@
         <f t="shared" ref="F24:F38" si="2">C24/915</f>
         <v>0.179234972677596</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="5">
         <v>5.31</v>
       </c>
       <c r="I24" s="1">
@@ -7519,7 +7558,7 @@
         <f t="shared" si="2"/>
         <v>0.273224043715847</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="5">
         <v>6.13</v>
       </c>
       <c r="I25" s="1">
@@ -7537,14 +7576,14 @@
         <f t="shared" si="2"/>
         <v>0.331147540983607</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="5">
         <v>6.14</v>
       </c>
       <c r="I26" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:9">
       <c r="B27" s="5" t="s">
         <v>61</v>
       </c>
@@ -7555,8 +7594,14 @@
         <f t="shared" si="2"/>
         <v>0.358469945355191</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="H27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
       <c r="B28" s="5" t="s">
         <v>65</v>
       </c>
@@ -7567,17 +7612,38 @@
         <f t="shared" si="2"/>
         <v>0.459016393442623</v>
       </c>
-    </row>
-    <row r="29" spans="6:6">
+      <c r="H28" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="13">
+        <v>0.888888888888889</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="1">
+        <v>472</v>
+      </c>
       <c r="F29" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="6:6">
+        <v>0.515846994535519</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="1">
+        <v>550</v>
+      </c>
       <c r="F30" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.601092896174863</v>
       </c>
     </row>
     <row r="31" spans="6:6">
@@ -7644,24 +7710,24 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.13333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.12962962962963" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:2">
+    <row r="1" ht="29.55" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -7669,7 +7735,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -7677,7 +7743,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1">
         <v>50</v>
@@ -7685,7 +7751,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
@@ -7693,7 +7759,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26148" windowHeight="14244" activeTab="6"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -788,6 +788,9 @@
     <t>6.18</t>
   </si>
   <si>
+    <t>7.4</t>
+  </si>
+  <si>
     <t>Read pages
 （当前阅读页码）</t>
   </si>
@@ -1006,6 +1009,9 @@
     <t>滚轮</t>
   </si>
   <si>
+    <t>June</t>
+  </si>
+  <si>
     <t>30s</t>
   </si>
   <si>
@@ -1127,8 +1133,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1144,6 +1150,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1180,28 +1192,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,7 +1253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1240,37 +1261,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1291,6 +1282,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1299,17 +1297,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1317,16 +1306,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1388,7 +1394,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,7 +1436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,97 +1454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,7 +1472,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,25 +1496,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,9 +1609,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1640,6 +1672,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1659,42 +1700,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1706,10 +1712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1718,137 +1724,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1906,16 +1912,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1924,7 +1939,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="34" applyNumberFormat="1" applyAlignment="1">
@@ -1933,10 +1948,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1945,7 +1957,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1969,7 +1981,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2337,105 +2349,105 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="12" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H12" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
+    <row r="12" customHeight="1" spans="8:17">
+      <c r="H12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+    </row>
+    <row r="13" customHeight="1" spans="8:17">
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+    </row>
+    <row r="14" customHeight="1" spans="8:17">
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+    </row>
+    <row r="15" customHeight="1" spans="8:17">
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+    </row>
+    <row r="16" customHeight="1" spans="8:17">
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+    </row>
+    <row r="17" customHeight="1" spans="8:17">
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+    </row>
+    <row r="18" customHeight="1" spans="8:17">
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+    </row>
+    <row r="19" customHeight="1" spans="8:17">
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2461,74 +2473,74 @@
       <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16" style="24" customWidth="1"/>
-    <col min="3" max="3" width="26.3796296296296" style="24" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="15.1296296296296" style="25" customWidth="1"/>
-    <col min="6" max="6" width="13" style="24" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="24" customWidth="1"/>
-    <col min="8" max="9" width="9" style="24"/>
-    <col min="10" max="10" width="11.1296296296296" style="24" customWidth="1"/>
-    <col min="11" max="11" width="21" style="24" customWidth="1"/>
-    <col min="12" max="12" width="28" style="24" customWidth="1"/>
-    <col min="13" max="13" width="24.25" style="24" customWidth="1"/>
-    <col min="14" max="14" width="9" style="24"/>
-    <col min="15" max="15" width="11" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="10" style="26" customWidth="1"/>
+    <col min="2" max="2" width="16" style="27" customWidth="1"/>
+    <col min="3" max="3" width="26.3833333333333" style="27" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="27" customWidth="1"/>
+    <col min="5" max="5" width="15.1333333333333" style="28" customWidth="1"/>
+    <col min="6" max="6" width="13" style="27" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="27" customWidth="1"/>
+    <col min="8" max="9" width="9" style="27"/>
+    <col min="10" max="10" width="11.1333333333333" style="27" customWidth="1"/>
+    <col min="11" max="11" width="21" style="27" customWidth="1"/>
+    <col min="12" max="12" width="28" style="27" customWidth="1"/>
+    <col min="13" max="13" width="24.25" style="27" customWidth="1"/>
+    <col min="14" max="14" width="9" style="27"/>
+    <col min="15" max="15" width="11" style="27" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:8">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27" t="s">
+    <row r="1" ht="27" spans="1:8">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" ht="3" customHeight="1" spans="1:7">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="34">
+      <c r="A3" s="36">
         <v>6.1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="34"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="16">
         <v>8</v>
       </c>
@@ -2548,7 +2560,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="34">
+      <c r="A5" s="36">
         <v>6.2</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -2557,7 +2569,7 @@
       <c r="C5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="37"/>
       <c r="F5" s="16">
         <f t="shared" ref="F5:F58" si="0">SUM(B5:D5)</f>
         <v>0</v>
@@ -2565,7 +2577,7 @@
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="34"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="16">
         <v>4</v>
       </c>
@@ -2573,7 +2585,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="25">
+      <c r="E6" s="28">
         <v>194.7</v>
       </c>
       <c r="F6" s="16">
@@ -2583,11 +2595,11 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="16"/>
-      <c r="C7" s="35"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="16"/>
       <c r="F7" s="16">
         <f t="shared" si="0"/>
@@ -2596,7 +2608,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="34"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="16">
         <v>650</v>
       </c>
@@ -2609,16 +2621,16 @@
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="34">
+      <c r="A9" s="36">
         <v>6.5</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="16">
@@ -2628,7 +2640,7 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="34"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="16">
         <v>4</v>
       </c>
@@ -2638,7 +2650,7 @@
       <c r="D10" s="16">
         <v>20</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="28">
         <v>194.3</v>
       </c>
       <c r="F10" s="16">
@@ -2647,17 +2659,17 @@
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" ht="28.8" spans="1:7">
-      <c r="A11" s="34">
+    <row r="11" ht="27" spans="1:7">
+      <c r="A11" s="36">
         <v>6.6</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="37" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="16">
@@ -2667,7 +2679,7 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="34"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="16">
         <v>1</v>
       </c>
@@ -2677,7 +2689,7 @@
       <c r="D12" s="16">
         <v>20</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="28">
         <v>194.6</v>
       </c>
       <c r="F12" s="16">
@@ -2687,13 +2699,13 @@
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="34">
+      <c r="A13" s="36">
         <v>6.7</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="37" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="16"/>
@@ -2704,7 +2716,7 @@
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="34"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="16">
         <v>3.5</v>
       </c>
@@ -2712,7 +2724,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="16"/>
-      <c r="E14" s="25">
+      <c r="E14" s="28">
         <v>194.7</v>
       </c>
       <c r="F14" s="16">
@@ -2722,17 +2734,17 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="34">
+      <c r="A15" s="36">
         <v>6.8</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="37" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="16"/>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="28" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="16">
@@ -2742,7 +2754,7 @@
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="34"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="16">
         <v>3.5</v>
       </c>
@@ -2750,7 +2762,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="16"/>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="28" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="16">
@@ -2760,7 +2772,7 @@
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="34">
+      <c r="A17" s="36">
         <v>6.9</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -2779,7 +2791,7 @@
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="34"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="16">
         <v>3.2</v>
       </c>
@@ -2789,7 +2801,7 @@
       <c r="D18" s="16">
         <v>212</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="28" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="16">
@@ -2799,14 +2811,14 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="37" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="16">
@@ -2816,7 +2828,7 @@
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="34"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16">
         <v>15</v>
@@ -2824,7 +2836,7 @@
       <c r="D20" s="16">
         <v>15</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="28" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="16">
@@ -2834,14 +2846,14 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="16"/>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="37" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="16">
@@ -2851,7 +2863,7 @@
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="34"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16">
         <v>30</v>
@@ -2866,19 +2878,19 @@
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="37" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="28" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="16">
@@ -2888,7 +2900,7 @@
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="34"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="16">
         <v>8</v>
       </c>
@@ -2905,17 +2917,17 @@
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="16"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="28" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="16">
@@ -2925,14 +2937,14 @@
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="34"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="16">
         <v>3.5</v>
       </c>
       <c r="C26" s="16">
         <v>12.5</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="37">
         <v>14</v>
       </c>
       <c r="F26" s="16">
@@ -2942,14 +2954,14 @@
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="38" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="16"/>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="37" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="16">
@@ -2959,7 +2971,7 @@
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="34"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="16">
         <v>3.5</v>
       </c>
@@ -2969,7 +2981,7 @@
       <c r="D28" s="16">
         <v>41</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="28" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="16">
@@ -2979,11 +2991,11 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="38" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="16"/>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="37" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="16" t="s">
@@ -2996,7 +3008,7 @@
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="34"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16">
         <v>8.5</v>
@@ -3004,7 +3016,7 @@
       <c r="D30" s="16">
         <v>17</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="28" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="16">
@@ -3014,7 +3026,7 @@
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="36" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="16"/>
@@ -3029,7 +3041,7 @@
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="34"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="16">
         <v>3.5</v>
       </c>
@@ -3037,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="16"/>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="28" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="16">
@@ -3047,7 +3059,7 @@
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="36" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -3064,7 +3076,7 @@
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="34"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="16">
         <v>300</v>
       </c>
@@ -3072,7 +3084,7 @@
         <v>50</v>
       </c>
       <c r="D34" s="16"/>
-      <c r="E34" s="25">
+      <c r="E34" s="28">
         <v>195</v>
       </c>
       <c r="F34" s="16">
@@ -3082,7 +3094,7 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="16"/>
@@ -3099,7 +3111,7 @@
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="34"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="16">
         <v>8</v>
       </c>
@@ -3109,7 +3121,7 @@
       <c r="D36" s="16">
         <v>29</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="28" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="16">
@@ -3119,7 +3131,7 @@
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="16"/>
@@ -3136,7 +3148,7 @@
       <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="34"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="16">
         <v>4</v>
       </c>
@@ -3146,7 +3158,7 @@
       <c r="D38" s="16">
         <v>11</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="28" t="s">
         <v>48</v>
       </c>
       <c r="F38" s="16">
@@ -3156,14 +3168,14 @@
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="36" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="16"/>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="35"/>
+      <c r="D39" s="37"/>
       <c r="F39" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3171,7 +3183,7 @@
       <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="34"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="16">
         <v>2.8</v>
       </c>
@@ -3181,7 +3193,7 @@
       <c r="D40" s="16">
         <v>10</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="28" t="s">
         <v>48</v>
       </c>
       <c r="F40" s="16">
@@ -3191,10 +3203,10 @@
       <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="16"/>
@@ -3206,7 +3218,7 @@
       <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="34"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="16">
         <v>208</v>
       </c>
@@ -3216,7 +3228,7 @@
       <c r="D42" s="16">
         <v>7.5</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="28" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="16">
@@ -3226,10 +3238,10 @@
       <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="37" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="16" t="s">
@@ -3243,7 +3255,7 @@
       <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="34"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="16">
         <v>4</v>
       </c>
@@ -3260,7 +3272,7 @@
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="36" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="16" t="s">
@@ -3279,7 +3291,7 @@
       <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="34"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="16">
         <v>14</v>
       </c>
@@ -3296,7 +3308,7 @@
       <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="36" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="16"/>
@@ -3311,7 +3323,7 @@
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="34"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="16">
         <v>17</v>
       </c>
@@ -3321,7 +3333,7 @@
       <c r="D48" s="16">
         <v>25</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="28" t="s">
         <v>60</v>
       </c>
       <c r="F48" s="16">
@@ -3331,7 +3343,7 @@
       <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="36" t="s">
         <v>61</v>
       </c>
       <c r="B49" s="16"/>
@@ -3348,8 +3360,8 @@
       <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="34"/>
-      <c r="B50" s="25">
+      <c r="A50" s="36"/>
+      <c r="B50" s="28">
         <v>4</v>
       </c>
       <c r="C50" s="16">
@@ -3358,7 +3370,7 @@
       <c r="D50" s="16">
         <v>10</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F50" s="16">
@@ -3368,7 +3380,7 @@
       <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B51" s="16" t="s">
@@ -3385,7 +3397,7 @@
       <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="34"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="16">
         <v>8</v>
       </c>
@@ -3395,7 +3407,7 @@
       <c r="D52" s="16">
         <v>18</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="28" t="s">
         <v>67</v>
       </c>
       <c r="F52" s="16">
@@ -3404,17 +3416,17 @@
       </c>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" ht="28.8" spans="1:7">
-      <c r="A53" s="36" t="s">
+    <row r="53" ht="27" spans="1:7">
+      <c r="A53" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="35"/>
+      <c r="D53" s="37"/>
       <c r="F53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3422,7 +3434,7 @@
       <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="34"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="16">
         <v>10</v>
       </c>
@@ -3438,8 +3450,8 @@
       </c>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" ht="28.8" spans="1:7">
-      <c r="A55" s="34" t="s">
+    <row r="55" ht="27" spans="1:7">
+      <c r="A55" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B55" s="16"/>
@@ -3456,7 +3468,7 @@
       <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="34"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="16">
         <v>4</v>
       </c>
@@ -3473,7 +3485,7 @@
       <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="36" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="16"/>
@@ -3488,7 +3500,7 @@
       <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="34"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="16">
         <v>8</v>
       </c>
@@ -3496,7 +3508,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="16"/>
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="28" t="s">
         <v>73</v>
       </c>
       <c r="F58" s="16">
@@ -3506,7 +3518,7 @@
       <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="34"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
@@ -3514,7 +3526,7 @@
       <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="34"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -3525,7 +3537,7 @@
       <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="39" t="s">
         <v>74</v>
       </c>
       <c r="B61" s="16"/>
@@ -3536,798 +3548,798 @@
       <c r="G61" s="16"/>
     </row>
     <row r="62" spans="5:5">
-      <c r="E62" s="24"/>
-    </row>
-    <row r="63" ht="28.8" spans="1:8">
-      <c r="A63" s="26"/>
-      <c r="B63" s="27" t="s">
+      <c r="E62" s="27"/>
+    </row>
+    <row r="63" ht="27" spans="1:8">
+      <c r="A63" s="29"/>
+      <c r="B63" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="28" t="s">
+      <c r="E63" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F63" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="29"/>
+      <c r="H63" s="22"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="30"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="23">
+      <c r="A65" s="26">
         <v>4.24</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="27" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="66" spans="3:7">
-      <c r="C66" s="24">
+      <c r="C66" s="27">
         <v>12.2</v>
       </c>
-      <c r="D66" s="24">
+      <c r="D66" s="27">
         <v>12</v>
       </c>
-      <c r="F66" s="24">
+      <c r="F66" s="27">
         <f>SUM(B66:D66)</f>
         <v>24.2</v>
       </c>
-      <c r="G66" s="24">
+      <c r="G66" s="27">
         <f>SUM(F66:F97)</f>
         <v>2574.5</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="23">
+      <c r="A67" s="26">
         <v>4.25</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="F67" s="24">
+      <c r="F67" s="27">
         <f t="shared" ref="F67:F116" si="1">SUM(B67:D67)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="24">
+      <c r="B68" s="27">
         <v>3</v>
       </c>
-      <c r="C68" s="24">
+      <c r="C68" s="27">
         <v>10.85</v>
       </c>
-      <c r="D68" s="24">
+      <c r="D68" s="27">
         <v>18</v>
       </c>
-      <c r="F68" s="24">
+      <c r="F68" s="27">
         <f t="shared" si="1"/>
         <v>31.85</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="23">
+      <c r="A69" s="26">
         <v>4.26</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F69" s="24">
+      <c r="F69" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="24">
+      <c r="B70" s="27">
         <v>3</v>
       </c>
-      <c r="C70" s="24">
+      <c r="C70" s="27">
         <v>14</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D70" s="27">
         <v>19.7</v>
       </c>
-      <c r="F70" s="24">
+      <c r="F70" s="27">
         <f t="shared" si="1"/>
         <v>36.7</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="23">
+      <c r="A71" s="26">
         <v>4.27</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="F71" s="24">
+      <c r="F71" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="24">
+      <c r="B72" s="27">
         <v>3</v>
       </c>
-      <c r="C72" s="24">
+      <c r="C72" s="27">
         <v>16.7</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D72" s="27">
         <v>26</v>
       </c>
-      <c r="F72" s="24">
+      <c r="F72" s="27">
         <f t="shared" si="1"/>
         <v>45.7</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="23">
+      <c r="A73" s="26">
         <v>4.28</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="24">
+      <c r="F73" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="24">
+      <c r="B74" s="27">
         <v>3</v>
       </c>
-      <c r="C74" s="24">
+      <c r="C74" s="27">
         <v>16.2</v>
       </c>
-      <c r="F74" s="24">
+      <c r="F74" s="27">
         <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="23">
+      <c r="A75" s="26">
         <v>5.1</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F75" s="24">
+      <c r="F75" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="24">
+      <c r="B76" s="27">
         <v>1000</v>
       </c>
-      <c r="F76" s="24">
+      <c r="F76" s="27">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="23">
+      <c r="A77" s="26">
         <v>5.2</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="24">
+      <c r="F77" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="24">
+      <c r="B78" s="27">
         <v>3</v>
       </c>
-      <c r="C78" s="24">
+      <c r="C78" s="27">
         <v>12</v>
       </c>
-      <c r="D78" s="24">
+      <c r="D78" s="27">
         <v>11</v>
       </c>
-      <c r="F78" s="24">
+      <c r="F78" s="27">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="23">
+      <c r="A79" s="26">
         <v>5.3</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="24">
+      <c r="F79" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="24">
+      <c r="B80" s="27">
         <v>6</v>
       </c>
-      <c r="C80" s="24">
+      <c r="C80" s="27">
         <v>9</v>
       </c>
-      <c r="D80" s="24">
+      <c r="D80" s="27">
         <v>291</v>
       </c>
-      <c r="F80" s="24">
+      <c r="F80" s="27">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="23">
+      <c r="A81" s="26">
         <v>5.4</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="24">
+      <c r="F81" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="24">
+      <c r="B82" s="27">
         <v>3</v>
       </c>
-      <c r="C82" s="24">
+      <c r="C82" s="27">
         <v>21</v>
       </c>
-      <c r="D82" s="24">
+      <c r="D82" s="27">
         <v>95</v>
       </c>
-      <c r="F82" s="24">
+      <c r="F82" s="27">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="23">
+      <c r="A83" s="26">
         <v>5.5</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="24">
+      <c r="F83" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="24">
+      <c r="B84" s="27">
         <v>3</v>
       </c>
-      <c r="C84" s="24">
+      <c r="C84" s="27">
         <v>12.75</v>
       </c>
-      <c r="D84" s="24">
+      <c r="D84" s="27">
         <v>10</v>
       </c>
-      <c r="F84" s="24">
+      <c r="F84" s="27">
         <f t="shared" si="1"/>
         <v>25.75</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F85" s="24">
+      <c r="F85" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="4:6">
-      <c r="D86" s="24">
+      <c r="D86" s="27">
         <v>300</v>
       </c>
-      <c r="F86" s="24">
+      <c r="F86" s="27">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="23">
+      <c r="A87" s="26">
         <v>5.9</v>
       </c>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D87" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F87" s="24">
+      <c r="F87" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="24">
+      <c r="B88" s="27">
         <v>3</v>
       </c>
-      <c r="C88" s="24">
+      <c r="C88" s="27">
         <v>9</v>
       </c>
-      <c r="D88" s="24">
+      <c r="D88" s="27">
         <v>18</v>
       </c>
-      <c r="F88" s="24">
+      <c r="F88" s="27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F89" s="24">
+      <c r="F89" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="4:6">
-      <c r="D90" s="24">
+      <c r="D90" s="27">
         <v>200</v>
       </c>
-      <c r="F90" s="24">
+      <c r="F90" s="27">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="23">
+      <c r="A91" s="26">
         <v>5.16</v>
       </c>
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="C91" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="24">
+      <c r="F91" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="24">
+      <c r="B92" s="27">
         <v>10</v>
       </c>
-      <c r="C92" s="24">
+      <c r="C92" s="27">
         <v>10.9</v>
       </c>
-      <c r="D92" s="24">
+      <c r="D92" s="27">
         <v>10</v>
       </c>
-      <c r="F92" s="24">
+      <c r="F92" s="27">
         <f t="shared" si="1"/>
         <v>30.9</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="23">
+      <c r="A93" s="26">
         <v>5.17</v>
       </c>
-      <c r="B93" s="24" t="s">
+      <c r="B93" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F93" s="24">
+      <c r="F93" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="24">
+      <c r="B94" s="27">
         <v>3</v>
       </c>
-      <c r="C94" s="24">
+      <c r="C94" s="27">
         <v>10.9</v>
       </c>
-      <c r="D94" s="24">
+      <c r="D94" s="27">
         <v>19.5</v>
       </c>
-      <c r="F94" s="24">
+      <c r="F94" s="27">
         <f t="shared" si="1"/>
         <v>33.4</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="23">
+      <c r="A95" s="26">
         <v>5.18</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="24" t="s">
+      <c r="D95" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F95" s="24">
+      <c r="F95" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="24">
+      <c r="B96" s="27">
         <v>3</v>
       </c>
-      <c r="C96" s="24">
+      <c r="C96" s="27">
         <v>16</v>
       </c>
-      <c r="D96" s="24">
+      <c r="D96" s="27">
         <v>326.8</v>
       </c>
-      <c r="F96" s="24">
+      <c r="F96" s="27">
         <f t="shared" si="1"/>
         <v>345.8</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="23">
+      <c r="A97" s="26">
         <v>5.19</v>
       </c>
-      <c r="B97" s="24" t="s">
+      <c r="B97" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F97" s="24">
+      <c r="F97" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="24">
+      <c r="B98" s="27">
         <v>24</v>
       </c>
-      <c r="C98" s="24">
+      <c r="C98" s="27">
         <v>16</v>
       </c>
-      <c r="F98" s="24">
+      <c r="F98" s="27">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B99" s="24" t="s">
+      <c r="B99" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F99" s="24">
+      <c r="F99" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="24">
+      <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="F100" s="24">
+      <c r="F100" s="27">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="23">
+      <c r="A101" s="26">
         <v>5.22</v>
       </c>
-      <c r="C101" s="38" t="s">
+      <c r="C101" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="38" t="s">
+      <c r="D101" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="F101" s="24">
+      <c r="F101" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="3:6">
-      <c r="C102" s="24">
+      <c r="C102" s="27">
         <v>20.5</v>
       </c>
-      <c r="D102" s="24">
+      <c r="D102" s="27">
         <v>15</v>
       </c>
-      <c r="F102" s="24">
+      <c r="F102" s="27">
         <f t="shared" si="1"/>
         <v>35.5</v>
       </c>
     </row>
-    <row r="103" ht="28.8" spans="1:6">
-      <c r="A103" s="23">
+    <row r="103" ht="27" spans="1:6">
+      <c r="A103" s="26">
         <v>5.23</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="C103" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F103" s="24">
+      <c r="F103" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="24">
+      <c r="B104" s="27">
         <v>8</v>
       </c>
-      <c r="C104" s="24">
+      <c r="C104" s="27">
         <v>12.5</v>
       </c>
-      <c r="D104" s="24">
+      <c r="D104" s="27">
         <v>30</v>
       </c>
-      <c r="F104" s="24">
+      <c r="F104" s="27">
         <f t="shared" si="1"/>
         <v>50.5</v>
       </c>
     </row>
-    <row r="105" ht="28.8" spans="1:6">
-      <c r="A105" s="23">
+    <row r="105" ht="27" spans="1:6">
+      <c r="A105" s="26">
         <v>5.24</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="C105" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="24" t="s">
+      <c r="D105" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="F105" s="24">
+      <c r="F105" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="24">
+      <c r="B106" s="27">
         <v>4</v>
       </c>
-      <c r="C106" s="24">
+      <c r="C106" s="27">
         <v>15</v>
       </c>
-      <c r="D106" s="24">
+      <c r="D106" s="27">
         <v>15</v>
       </c>
-      <c r="F106" s="24">
+      <c r="F106" s="27">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="107" ht="28.8" spans="1:6">
-      <c r="A107" s="23">
+    <row r="107" ht="27" spans="1:6">
+      <c r="A107" s="26">
         <v>5.25</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="C107" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F107" s="24">
+      <c r="F107" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="24">
+      <c r="B108" s="27">
         <v>3</v>
       </c>
-      <c r="C108" s="24">
+      <c r="C108" s="27">
         <v>14.5</v>
       </c>
-      <c r="D108" s="24">
+      <c r="D108" s="27">
         <v>20</v>
       </c>
-      <c r="F108" s="24">
+      <c r="F108" s="27">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="23">
+      <c r="A109" s="26">
         <v>5.26</v>
       </c>
-      <c r="B109" s="24" t="s">
+      <c r="B109" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="C109" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="24" t="s">
+      <c r="D109" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="E109" s="25">
+      <c r="E109" s="28">
         <v>196.7</v>
       </c>
-      <c r="F109" s="24">
+      <c r="F109" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="24">
+      <c r="B110" s="27">
         <v>5</v>
       </c>
-      <c r="C110" s="24">
+      <c r="C110" s="27">
         <v>9</v>
       </c>
-      <c r="D110" s="24">
+      <c r="D110" s="27">
         <v>10</v>
       </c>
-      <c r="F110" s="24">
+      <c r="F110" s="27">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F111" s="24">
+      <c r="F111" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="25">
+      <c r="B112" s="28">
         <v>600</v>
       </c>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24">
+      <c r="E112" s="27"/>
+      <c r="F112" s="27">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="39" t="s">
+      <c r="A113" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="F113" s="24">
+      <c r="F113" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="4:6">
-      <c r="D114" s="24">
+      <c r="D114" s="27">
         <v>49</v>
       </c>
-      <c r="E114" s="25">
+      <c r="E114" s="28">
         <v>194.7</v>
       </c>
-      <c r="F114" s="24">
+      <c r="F114" s="27">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="39" t="s">
+      <c r="A115" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B115" s="38" t="s">
+      <c r="B115" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C115" s="38" t="s">
+      <c r="C115" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D115" s="38" t="s">
+      <c r="D115" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F115" s="24">
+      <c r="F115" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="24">
+      <c r="B116" s="27">
         <v>8</v>
       </c>
-      <c r="C116" s="24">
+      <c r="C116" s="27">
         <v>17.5</v>
       </c>
-      <c r="D116" s="24">
+      <c r="D116" s="27">
         <v>88</v>
       </c>
-      <c r="E116" s="25">
+      <c r="E116" s="28">
         <v>193</v>
       </c>
-      <c r="F116" s="24">
+      <c r="F116" s="27">
         <f t="shared" si="1"/>
         <v>113.5</v>
       </c>
@@ -4349,23 +4361,23 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3833333333333" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:5">
+    <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="8" t="s">
         <v>105</v>
       </c>
@@ -4439,7 +4451,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="24" t="s">
         <v>110</v>
       </c>
       <c r="B9" s="1">
@@ -4447,7 +4459,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="1">
@@ -4455,7 +4467,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="24" t="s">
         <v>112</v>
       </c>
       <c r="B11" s="1">
@@ -4463,7 +4475,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1">
@@ -4471,7 +4483,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="1">
@@ -4479,7 +4491,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="1">
@@ -4580,6 +4592,14 @@
       </c>
       <c r="B26" s="1">
         <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="1">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -4599,30 +4619,30 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="11.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:5">
+    <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4655,119 +4675,114 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1333333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.3796296296296" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.3833333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:10">
+    <row r="1" ht="27.75" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23">
+        <f>SUM(B3:B43)</f>
+        <v>51.3</v>
+      </c>
+      <c r="G2" s="23">
+        <f>SUM(C3:C43)</f>
+        <v>32.2</v>
+      </c>
+      <c r="H2" s="23">
+        <f>SUM(D3:D43)</f>
+        <v>3</v>
+      </c>
+      <c r="I2" s="23">
+        <f>SUM(E3:E43)</f>
+        <v>32.6</v>
+      </c>
+      <c r="J2" s="25">
+        <f>(F2+G2+H2+I2)/300</f>
+        <v>0.397</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="1:5">
+      <c r="A3" s="5">
         <v>5.22</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>1.5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>0.2</v>
       </c>
-      <c r="F2" s="20">
-        <f>SUM(B2:B42)</f>
-        <v>51.3</v>
-      </c>
-      <c r="G2" s="20">
-        <f>SUM(C2:C42)</f>
-        <v>31.2</v>
-      </c>
-      <c r="H2" s="20">
-        <f>SUM(D2:D42)</f>
-        <v>3</v>
-      </c>
-      <c r="I2" s="20">
-        <f>SUM(E2:E42)</f>
-        <v>32.1</v>
-      </c>
-      <c r="J2" s="22">
-        <f>(F2+G2+H2+I2)/300</f>
-        <v>0.392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5">
+    </row>
+    <row r="4" hidden="1" spans="1:10">
+      <c r="A4" s="5">
         <v>5.23</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="6">
-        <f t="shared" ref="J3:J33" si="0">(F3+G3+H3)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5">
-        <v>5.24</v>
       </c>
       <c r="B4" s="1">
         <v>0.5</v>
       </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
       <c r="J4" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <f t="shared" ref="J4:J34" si="0">(F4+G4+H4)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="1:10">
       <c r="A5" s="5">
-        <v>5.25</v>
+        <v>5.24</v>
       </c>
       <c r="B5" s="1">
         <v>0.5</v>
@@ -4777,39 +4792,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" hidden="1" spans="1:10">
       <c r="A6" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:10">
+      <c r="A7" s="5">
         <v>5.26</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>1.2</v>
       </c>
-      <c r="J6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5">
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:10">
+      <c r="A8" s="5">
         <v>6.6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5">
-        <v>6.8</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -4818,95 +4827,92 @@
         <v>0.5</v>
       </c>
       <c r="E8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" spans="1:10">
+      <c r="A9" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:10">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>2.5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <v>0.5</v>
       </c>
-      <c r="J9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.5</v>
-      </c>
       <c r="J10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" hidden="1" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="1">
         <v>2.1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>0.7</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>1.1</v>
       </c>
-      <c r="J11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="21" t="s">
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:10">
+      <c r="A13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
@@ -4915,15 +4921,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>128</v>
+    <row r="14" hidden="1" spans="1:10">
+      <c r="A14" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -4933,69 +4942,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" hidden="1" spans="1:10">
       <c r="A15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" spans="1:10">
+      <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5" t="s">
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:10">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>0.5</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>4</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>0.5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>3</v>
       </c>
-      <c r="J16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="5" t="s">
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" spans="1:10">
+      <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -5005,26 +5014,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" hidden="1" spans="1:10">
       <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:10">
+      <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1">
@@ -5035,66 +5047,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" hidden="1" spans="1:10">
       <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" spans="1:10">
+      <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>3</v>
       </c>
-      <c r="J21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="5" t="s">
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" hidden="1" spans="1:10">
+      <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>7</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>6</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="J22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="5" t="s">
+      <c r="J23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:10">
+      <c r="A24" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="B24" s="1">
         <v>1.5</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -5104,11 +5113,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" hidden="1" spans="1:10">
       <c r="A25" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="1">
@@ -5119,16 +5131,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" hidden="1" spans="1:10">
       <c r="A26" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
@@ -5137,12 +5146,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" hidden="1" spans="1:10">
       <c r="A27" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1">
-        <v>2.2</v>
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -5152,15 +5164,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" hidden="1" spans="1:10">
       <c r="A28" s="5" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="0"/>
@@ -5172,23 +5184,41 @@
         <v>130</v>
       </c>
       <c r="B29" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="E29" s="1">
         <v>2</v>
       </c>
-      <c r="E29" s="1">
+      <c r="J29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="J29" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="10:10">
       <c r="J30" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="10:10">
+    <row r="31" spans="1:10">
+      <c r="A31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5202,6 +5232,12 @@
     </row>
     <row r="33" spans="10:10">
       <c r="J33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5218,47 +5254,47 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AI74"/>
+  <dimension ref="A1:AI124"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AK29" sqref="AK29"/>
+      <selection activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.8796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8833333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="4.12962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3.87962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.38333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.13333333333333" style="1" customWidth="1"/>
+    <col min="10" max="12" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="3.88333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="3.90740740740741" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="26" width="3.37962962962963" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.14814814814815" style="1" customWidth="1"/>
-    <col min="28" max="28" width="3.37962962962963" style="1" customWidth="1"/>
-    <col min="29" max="29" width="3.58333333333333" style="1" customWidth="1"/>
-    <col min="30" max="33" width="3.37962962962963" style="1" customWidth="1"/>
-    <col min="34" max="34" width="6.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="3.90833333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.15" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="3.58333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="30" max="33" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:35">
+    <row r="1" ht="27.75" spans="1:35">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -5354,19 +5390,19 @@
         <v>31</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AI2" s="1">
         <f>SUM(C2:AH2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="5.25" customHeight="1" spans="1:35">
+    <row r="3" spans="1:35">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -5401,44 +5437,27 @@
       <c r="AF3" s="15"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
-      <c r="AI3" s="15">
-        <f t="shared" ref="AI3:AI33" si="0">SUM(C3:AH3)</f>
-        <v>0</v>
-      </c>
+      <c r="AI3" s="15"/>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="1">
-        <v>70</v>
-      </c>
-      <c r="P4" s="1">
-        <v>100</v>
-      </c>
-      <c r="R4" s="1">
-        <v>110</v>
-      </c>
-      <c r="X4" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>100</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>40</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1"/>
       <c r="AI4" s="1">
-        <f t="shared" si="0"/>
-        <v>470</v>
+        <f t="shared" ref="AI3:AI39" si="0">SUM(C4:AH4)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:35">
       <c r="B5" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="0"/>
@@ -5451,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="3.75" customHeight="1" spans="1:35">
+    <row r="7" spans="1:35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -5486,60 +5505,48 @@
       <c r="AF7" s="15"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
-      <c r="AI7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AI7" s="15"/>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:35">
       <c r="B9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="1">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="AI9" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:35">
       <c r="B10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I10" s="1">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:35">
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="4.5" customHeight="1" spans="1:35">
+    <row r="12" spans="1:35">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -5574,57 +5581,39 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="15"/>
-      <c r="AI12" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AI12" s="15"/>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>32</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="AI13" s="1">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:35">
       <c r="B14" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="1">
-        <v>32</v>
-      </c>
-      <c r="I14" s="1">
-        <v>16</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="AI14" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:35">
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="3.75" customHeight="1" spans="1:35">
+    <row r="16" spans="1:35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -5659,21 +5648,18 @@
       <c r="AF16" s="15"/>
       <c r="AG16" s="15"/>
       <c r="AH16" s="15"/>
-      <c r="AI16" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AI16" s="15"/>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="3" customHeight="1" spans="1:35">
+    <row r="18" spans="1:35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -5708,45 +5694,18 @@
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="15"/>
-      <c r="AI18" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AI18" s="15"/>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="1">
-        <v>100</v>
-      </c>
-      <c r="I19" s="1">
-        <v>100</v>
-      </c>
-      <c r="O19" s="1">
-        <v>100</v>
-      </c>
-      <c r="P19" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>50</v>
-      </c>
-      <c r="R19" s="1">
-        <v>25</v>
-      </c>
-      <c r="W19" s="1">
-        <v>30</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="AI19" s="1">
         <f t="shared" si="0"/>
-        <v>605</v>
-      </c>
-    </row>
-    <row r="20" ht="3.75" customHeight="1" spans="1:35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -5781,17 +5740,14 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="15"/>
-      <c r="AI20" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AI20" s="15"/>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" si="0"/>
@@ -5800,17 +5756,14 @@
     </row>
     <row r="22" spans="2:35">
       <c r="B22" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I22" s="1">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" ht="4.5" customHeight="1" spans="1:35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
       <c r="A23" s="15"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -5845,17 +5798,14 @@
       <c r="AF23" s="15"/>
       <c r="AG23" s="15"/>
       <c r="AH23" s="15"/>
-      <c r="AI23" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.95" customHeight="1" spans="1:35">
+      <c r="AI23" s="15"/>
+    </row>
+    <row r="24" spans="1:35">
       <c r="A24" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5894,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:35">
+    <row r="25" spans="1:35">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="17"/>
@@ -5934,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="5.1" customHeight="1" spans="1:35">
+    <row r="26" spans="1:35">
       <c r="A26" s="15"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
@@ -5969,24 +5919,18 @@
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
       <c r="AH26" s="15"/>
-      <c r="AI26" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AI26" s="15"/>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="AI27" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" ht="3" customHeight="1" spans="1:35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -6021,24 +5965,18 @@
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="15"/>
-      <c r="AI28" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AI28" s="15"/>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M29" s="1">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="AI29" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" ht="3" customHeight="1" spans="1:35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -6073,40 +6011,19 @@
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
       <c r="AH30" s="15"/>
-      <c r="AI30" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AI30" s="15"/>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="M31" s="1">
-        <v>15</v>
-      </c>
-      <c r="N31" s="1">
-        <v>30</v>
-      </c>
-      <c r="P31" s="1">
-        <v>45</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>70</v>
-      </c>
-      <c r="AC31" s="1">
-        <v>40</v>
-      </c>
-      <c r="AF31" s="1">
-        <v>30</v>
-      </c>
       <c r="AI31" s="1">
         <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" ht="3" customHeight="1" spans="1:35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -6141,39 +6058,18 @@
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
       <c r="AH32" s="15"/>
-      <c r="AI32" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AI32" s="15"/>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P33" s="1">
-        <v>25</v>
-      </c>
-      <c r="R33" s="1">
-        <v>45</v>
-      </c>
-      <c r="X33" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>40</v>
-      </c>
-      <c r="AC33" s="1">
-        <v>20</v>
-      </c>
-      <c r="AF33" s="1">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="AI33" s="1">
         <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" ht="4.5" customHeight="1" spans="1:35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -6208,30 +6104,21 @@
       <c r="AF34" s="15"/>
       <c r="AG34" s="15"/>
       <c r="AH34" s="15"/>
-      <c r="AI34" s="15">
-        <f t="shared" ref="AI34:AI39" si="1">SUM(C34:AH34)</f>
-        <v>0</v>
-      </c>
+      <c r="AI34" s="15"/>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="1">
-        <v>32</v>
-      </c>
-      <c r="N35" s="1">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="AI35" s="1">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" ht="4.5" customHeight="1" spans="1:35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -6266,43 +6153,19 @@
       <c r="AF36" s="14"/>
       <c r="AG36" s="14"/>
       <c r="AH36" s="14"/>
-      <c r="AI36" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AI36" s="14"/>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="M37" s="1">
-        <v>30</v>
-      </c>
-      <c r="P37" s="1">
-        <v>30</v>
-      </c>
-      <c r="R37" s="1">
-        <v>20</v>
-      </c>
-      <c r="X37" s="1">
-        <v>30</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>100</v>
-      </c>
-      <c r="AF37" s="1">
-        <v>20</v>
-      </c>
       <c r="AI37" s="1">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" ht="4.5" customHeight="1" spans="1:35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -6337,302 +6200,141 @@
       <c r="AF38" s="14"/>
       <c r="AG38" s="14"/>
       <c r="AH38" s="14"/>
-      <c r="AI38" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AI38" s="14"/>
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="M39" s="1">
+      <c r="AI39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:1">
+      <c r="A50" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" ht="27.75" spans="1:35">
+      <c r="A51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3">
+        <v>3</v>
+      </c>
+      <c r="G51" s="3">
+        <v>4</v>
+      </c>
+      <c r="H51" s="3">
+        <v>5</v>
+      </c>
+      <c r="I51" s="3">
+        <v>6</v>
+      </c>
+      <c r="J51" s="3">
+        <v>7</v>
+      </c>
+      <c r="K51" s="3">
+        <v>8</v>
+      </c>
+      <c r="L51" s="3">
+        <v>9</v>
+      </c>
+      <c r="M51" s="3">
+        <v>10</v>
+      </c>
+      <c r="N51" s="3">
+        <v>11</v>
+      </c>
+      <c r="O51" s="3">
+        <v>12</v>
+      </c>
+      <c r="P51" s="3">
+        <v>13</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>14</v>
+      </c>
+      <c r="R51" s="3">
+        <v>15</v>
+      </c>
+      <c r="S51" s="3">
+        <v>16</v>
+      </c>
+      <c r="T51" s="3">
+        <v>17</v>
+      </c>
+      <c r="U51" s="3">
+        <v>18</v>
+      </c>
+      <c r="V51" s="3">
+        <v>19</v>
+      </c>
+      <c r="W51" s="3">
+        <v>20</v>
+      </c>
+      <c r="X51" s="3">
+        <v>21</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>22</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>23</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>24</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>25</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>26</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>27</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>28</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>29</v>
+      </c>
+      <c r="AG51" s="3">
         <v>30</v>
       </c>
-      <c r="P39" s="1">
-        <v>21</v>
-      </c>
-      <c r="X39" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>35</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>40</v>
-      </c>
-      <c r="AI39" s="1">
-        <f t="shared" si="1"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="35:35">
-      <c r="AI40" s="1">
-        <f t="shared" ref="AI40:AI41" si="2">SUM(C40:AH40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.15" spans="1:35">
-      <c r="A41" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI41" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="29.55" spans="1:35">
-      <c r="A42" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" s="3">
-        <v>22</v>
-      </c>
-      <c r="E42" s="3">
-        <v>23</v>
-      </c>
-      <c r="F42" s="3">
-        <v>24</v>
-      </c>
-      <c r="G42" s="3">
-        <v>25</v>
-      </c>
-      <c r="H42" s="3">
-        <v>26</v>
-      </c>
-      <c r="I42" s="3">
-        <v>27</v>
-      </c>
-      <c r="J42" s="3">
-        <v>28</v>
-      </c>
-      <c r="K42" s="3">
-        <v>29</v>
-      </c>
-      <c r="L42" s="3">
-        <v>30</v>
-      </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
-      <c r="AH42" s="3">
+      <c r="AH51" s="3">
         <v>31</v>
       </c>
-      <c r="AI42" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4" t="s">
+      <c r="AI51" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15"/>
-      <c r="AC44" s="15"/>
-      <c r="AD44" s="15"/>
-      <c r="AE44" s="15"/>
-      <c r="AF44" s="15"/>
-      <c r="AG44" s="15"/>
-      <c r="AH44" s="15"/>
-      <c r="AI44" s="15"/>
-    </row>
-    <row r="45" spans="1:35">
-      <c r="A45" s="4" t="s">
+    </row>
+    <row r="52" spans="1:35">
+      <c r="A52" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="1">
-        <v>240</v>
-      </c>
-      <c r="D45" s="1">
-        <v>20</v>
-      </c>
-      <c r="E45" s="1">
-        <v>10</v>
-      </c>
-      <c r="G45" s="1">
-        <v>80</v>
-      </c>
-      <c r="H45" s="1">
-        <v>30</v>
-      </c>
-      <c r="AH45" s="1">
-        <v>30</v>
-      </c>
-      <c r="AI45" s="1">
-        <f t="shared" ref="AI45:AI74" si="3">SUM(C45:AH45)</f>
-        <v>410</v>
-      </c>
-    </row>
-    <row r="46" spans="2:35">
-      <c r="B46" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI46" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="35:35">
-      <c r="AI47" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
-      <c r="AC48" s="15"/>
-      <c r="AD48" s="15"/>
-      <c r="AE48" s="15"/>
-      <c r="AF48" s="15"/>
-      <c r="AG48" s="15"/>
-      <c r="AH48" s="15"/>
-      <c r="AI48" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35">
-      <c r="A49" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" s="1">
-        <v>64</v>
-      </c>
-      <c r="AI49" s="1">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="2:35">
-      <c r="B50" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI50" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:35">
-      <c r="B51" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI51" s="1">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="2:35">
-      <c r="B52" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="1">
-        <v>32</v>
-      </c>
-      <c r="D52" s="1">
-        <v>32</v>
-      </c>
-      <c r="G52" s="1">
-        <v>32</v>
-      </c>
       <c r="AI52" s="1">
-        <f t="shared" si="3"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35">
-      <c r="A53" s="15"/>
+        <f>SUM(C52:AH52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="5.25" customHeight="1" spans="1:35">
+      <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -6667,50 +6369,56 @@
       <c r="AG53" s="15"/>
       <c r="AH53" s="15"/>
       <c r="AI53" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AI53:AI83" si="1">SUM(C53:AH53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:35">
-      <c r="A54" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>145</v>
+      <c r="A54" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="H54" s="1">
-        <v>32</v>
+        <v>70</v>
+      </c>
+      <c r="P54" s="1">
+        <v>100</v>
+      </c>
+      <c r="R54" s="1">
+        <v>110</v>
+      </c>
+      <c r="X54" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>100</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>40</v>
       </c>
       <c r="AI54" s="1">
-        <f t="shared" si="3"/>
-        <v>32</v>
+        <f>SUM(C54:AH54)</f>
+        <v>470</v>
       </c>
     </row>
     <row r="55" spans="2:35">
       <c r="B55" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" s="1">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="AI55" s="1">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="2:35">
-      <c r="B56" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="1">
-        <v>8</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="35:35">
       <c r="AI56" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="3.75" customHeight="1" spans="1:35">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -6746,447 +6454,332 @@
       <c r="AG57" s="15"/>
       <c r="AH57" s="15"/>
       <c r="AI57" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:35">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI58" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="2:35">
+      <c r="B59" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I59" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI59" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="2:35">
+      <c r="B60" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI60" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="2:35">
+      <c r="B61" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI61" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" ht="4.5" customHeight="1" spans="1:35">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="15"/>
+      <c r="AA62" s="15"/>
+      <c r="AB62" s="15"/>
+      <c r="AC62" s="15"/>
+      <c r="AD62" s="15"/>
+      <c r="AE62" s="15"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="15"/>
+      <c r="AH62" s="15"/>
+      <c r="AI62" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35">
+      <c r="A63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI58" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
-      <c r="X59" s="15"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="15"/>
-      <c r="AA59" s="15"/>
-      <c r="AB59" s="15"/>
-      <c r="AC59" s="15"/>
-      <c r="AD59" s="15"/>
-      <c r="AE59" s="15"/>
-      <c r="AF59" s="15"/>
-      <c r="AG59" s="15"/>
-      <c r="AH59" s="15"/>
-      <c r="AI59" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35">
-      <c r="A60" s="16" t="s">
+      <c r="Q63" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI63" s="1">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="2:35">
+      <c r="B64" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H64" s="1">
+        <v>32</v>
+      </c>
+      <c r="I64" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI64" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="2:35">
+      <c r="B65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI65" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" ht="3.75" customHeight="1" spans="1:35">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="15"/>
+      <c r="AA66" s="15"/>
+      <c r="AB66" s="15"/>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="15"/>
+      <c r="AE66" s="15"/>
+      <c r="AF66" s="15"/>
+      <c r="AG66" s="15"/>
+      <c r="AH66" s="15"/>
+      <c r="AI66" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35">
+      <c r="A67" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="1">
-        <v>20</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="AI67" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" ht="3" customHeight="1" spans="1:35">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="15"/>
+      <c r="Z68" s="15"/>
+      <c r="AA68" s="15"/>
+      <c r="AB68" s="15"/>
+      <c r="AC68" s="15"/>
+      <c r="AD68" s="15"/>
+      <c r="AE68" s="15"/>
+      <c r="AF68" s="15"/>
+      <c r="AG68" s="15"/>
+      <c r="AH68" s="15"/>
+      <c r="AI68" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35">
+      <c r="A69" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H69" s="1">
+        <v>100</v>
+      </c>
+      <c r="I69" s="1">
+        <v>100</v>
+      </c>
+      <c r="O69" s="1">
+        <v>100</v>
+      </c>
+      <c r="P69" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q69" s="1">
         <v>50</v>
       </c>
-      <c r="E60" s="1">
-        <v>40</v>
-      </c>
-      <c r="G60" s="1">
-        <v>50</v>
-      </c>
-      <c r="H60" s="1">
-        <v>20</v>
-      </c>
-      <c r="AH60" s="1">
+      <c r="R69" s="1">
+        <v>25</v>
+      </c>
+      <c r="W69" s="1">
         <v>30</v>
       </c>
-      <c r="AI60" s="1">
-        <f t="shared" si="3"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="15"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="15"/>
-      <c r="AA61" s="15"/>
-      <c r="AB61" s="15"/>
-      <c r="AC61" s="15"/>
-      <c r="AD61" s="15"/>
-      <c r="AE61" s="15"/>
-      <c r="AF61" s="15"/>
-      <c r="AG61" s="15"/>
-      <c r="AH61" s="15"/>
-      <c r="AI61" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35">
-      <c r="A62" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="AC69" s="1">
+        <v>100</v>
+      </c>
+      <c r="AI69" s="1">
+        <f t="shared" si="1"/>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="70" ht="3.75" customHeight="1" spans="1:35">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="15"/>
+      <c r="W70" s="15"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="15"/>
+      <c r="Z70" s="15"/>
+      <c r="AA70" s="15"/>
+      <c r="AB70" s="15"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
+      <c r="AE70" s="15"/>
+      <c r="AF70" s="15"/>
+      <c r="AG70" s="15"/>
+      <c r="AH70" s="15"/>
+      <c r="AI70" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35">
+      <c r="A71" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="1">
+      <c r="B71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI71" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:35">
+      <c r="B72" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I72" s="1">
         <v>10</v>
       </c>
-      <c r="AI62" s="1">
-        <f t="shared" si="3"/>
+      <c r="AI72" s="1">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:35">
-      <c r="B63" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D63" s="1">
-        <v>20</v>
-      </c>
-      <c r="AI63" s="1">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35">
-      <c r="A64" s="15"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="15"/>
-      <c r="AA64" s="15"/>
-      <c r="AB64" s="15"/>
-      <c r="AC64" s="15"/>
-      <c r="AD64" s="15"/>
-      <c r="AE64" s="15"/>
-      <c r="AF64" s="15"/>
-      <c r="AG64" s="15"/>
-      <c r="AH64" s="15"/>
-      <c r="AI64" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35">
-      <c r="A65" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C65" s="17">
-        <v>5</v>
-      </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="17"/>
-      <c r="V65" s="17"/>
-      <c r="W65" s="17"/>
-      <c r="X65" s="17"/>
-      <c r="Y65" s="17"/>
-      <c r="Z65" s="17"/>
-      <c r="AA65" s="17"/>
-      <c r="AB65" s="17"/>
-      <c r="AC65" s="17"/>
-      <c r="AD65" s="17"/>
-      <c r="AE65" s="17"/>
-      <c r="AF65" s="17"/>
-      <c r="AG65" s="17"/>
-      <c r="AH65" s="17"/>
-      <c r="AI65" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="17"/>
-      <c r="V66" s="17"/>
-      <c r="W66" s="17"/>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="17"/>
-      <c r="Z66" s="17"/>
-      <c r="AA66" s="17"/>
-      <c r="AB66" s="17"/>
-      <c r="AC66" s="17"/>
-      <c r="AD66" s="17"/>
-      <c r="AE66" s="17"/>
-      <c r="AF66" s="17"/>
-      <c r="AG66" s="17"/>
-      <c r="AH66" s="17"/>
-      <c r="AI66" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35">
-      <c r="A67" s="15"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
-      <c r="U67" s="15"/>
-      <c r="V67" s="15"/>
-      <c r="W67" s="15"/>
-      <c r="X67" s="15"/>
-      <c r="Y67" s="15"/>
-      <c r="Z67" s="15"/>
-      <c r="AA67" s="15"/>
-      <c r="AB67" s="15"/>
-      <c r="AC67" s="15"/>
-      <c r="AD67" s="15"/>
-      <c r="AE67" s="15"/>
-      <c r="AF67" s="15"/>
-      <c r="AG67" s="15"/>
-      <c r="AH67" s="15"/>
-      <c r="AI67" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35">
-      <c r="A68" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C68" s="1">
-        <v>120</v>
-      </c>
-      <c r="G68" s="1">
-        <v>20</v>
-      </c>
-      <c r="AI68" s="1">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
-      <c r="U69" s="15"/>
-      <c r="V69" s="15"/>
-      <c r="W69" s="15"/>
-      <c r="X69" s="15"/>
-      <c r="Y69" s="15"/>
-      <c r="Z69" s="15"/>
-      <c r="AA69" s="15"/>
-      <c r="AB69" s="15"/>
-      <c r="AC69" s="15"/>
-      <c r="AD69" s="15"/>
-      <c r="AE69" s="15"/>
-      <c r="AF69" s="15"/>
-      <c r="AG69" s="15"/>
-      <c r="AH69" s="15"/>
-      <c r="AI69" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35">
-      <c r="A70" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D70" s="1">
-        <v>120</v>
-      </c>
-      <c r="AH70" s="1">
-        <v>100</v>
-      </c>
-      <c r="AI70" s="1">
-        <f t="shared" si="3"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
-      <c r="U71" s="15"/>
-      <c r="V71" s="15"/>
-      <c r="W71" s="15"/>
-      <c r="X71" s="15"/>
-      <c r="Y71" s="15"/>
-      <c r="Z71" s="15"/>
-      <c r="AA71" s="15"/>
-      <c r="AB71" s="15"/>
-      <c r="AC71" s="15"/>
-      <c r="AD71" s="15"/>
-      <c r="AE71" s="15"/>
-      <c r="AF71" s="15"/>
-      <c r="AG71" s="15"/>
-      <c r="AH71" s="15"/>
-      <c r="AI71" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35">
-      <c r="A72" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D72" s="4">
-        <v>5</v>
-      </c>
-      <c r="AI72" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35">
+    <row r="73" ht="4.5" customHeight="1" spans="1:35">
       <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
@@ -7220,19 +6813,1393 @@
       <c r="AG73" s="15"/>
       <c r="AH73" s="15"/>
       <c r="AI73" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" ht="15.95" customHeight="1" spans="1:35">
+      <c r="A74" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+      <c r="AB74" s="17"/>
+      <c r="AC74" s="17"/>
+      <c r="AD74" s="17"/>
+      <c r="AE74" s="17"/>
+      <c r="AF74" s="17"/>
+      <c r="AG74" s="17"/>
+      <c r="AH74" s="17"/>
+      <c r="AI74" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" ht="18" customHeight="1" spans="1:35">
+      <c r="A75" s="17"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="17"/>
+      <c r="X75" s="17"/>
+      <c r="Y75" s="17"/>
+      <c r="Z75" s="17"/>
+      <c r="AA75" s="17"/>
+      <c r="AB75" s="17"/>
+      <c r="AC75" s="17"/>
+      <c r="AD75" s="17"/>
+      <c r="AE75" s="17"/>
+      <c r="AF75" s="17"/>
+      <c r="AG75" s="17"/>
+      <c r="AH75" s="17"/>
+      <c r="AI75" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" ht="5.1" customHeight="1" spans="1:35">
+      <c r="A76" s="15"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="15"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="15"/>
+      <c r="AA76" s="15"/>
+      <c r="AB76" s="15"/>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="15"/>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="15"/>
+      <c r="AH76" s="15"/>
+      <c r="AI76" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35">
+      <c r="A77" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC77" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI77" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" ht="3" customHeight="1" spans="1:35">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="15"/>
+      <c r="X78" s="15"/>
+      <c r="Y78" s="15"/>
+      <c r="Z78" s="15"/>
+      <c r="AA78" s="15"/>
+      <c r="AB78" s="15"/>
+      <c r="AC78" s="15"/>
+      <c r="AD78" s="15"/>
+      <c r="AE78" s="15"/>
+      <c r="AF78" s="15"/>
+      <c r="AG78" s="15"/>
+      <c r="AH78" s="15"/>
+      <c r="AI78" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35">
+      <c r="A79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M79" s="1">
+        <v>100</v>
+      </c>
+      <c r="AI79" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" ht="3" customHeight="1" spans="1:35">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="15"/>
+      <c r="V80" s="15"/>
+      <c r="W80" s="15"/>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="15"/>
+      <c r="AA80" s="15"/>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="15"/>
+      <c r="AD80" s="15"/>
+      <c r="AE80" s="15"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="15"/>
+      <c r="AH80" s="15"/>
+      <c r="AI80" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35">
+      <c r="A81" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="M81" s="1">
+        <v>15</v>
+      </c>
+      <c r="N81" s="1">
+        <v>30</v>
+      </c>
+      <c r="P81" s="1">
+        <v>45</v>
+      </c>
+      <c r="AA81" s="1">
+        <v>70</v>
+      </c>
+      <c r="AC81" s="1">
+        <v>40</v>
+      </c>
+      <c r="AF81" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI81" s="1">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" ht="3" customHeight="1" spans="1:35">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="15"/>
+      <c r="V82" s="15"/>
+      <c r="W82" s="15"/>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="15"/>
+      <c r="AA82" s="15"/>
+      <c r="AB82" s="15"/>
+      <c r="AC82" s="15"/>
+      <c r="AD82" s="15"/>
+      <c r="AE82" s="15"/>
+      <c r="AF82" s="15"/>
+      <c r="AG82" s="15"/>
+      <c r="AH82" s="15"/>
+      <c r="AI82" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35">
+      <c r="A83" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="P83" s="1">
+        <v>25</v>
+      </c>
+      <c r="R83" s="1">
+        <v>45</v>
+      </c>
+      <c r="X83" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA83" s="1">
+        <v>40</v>
+      </c>
+      <c r="AC83" s="1">
+        <v>20</v>
+      </c>
+      <c r="AF83" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI83" s="1">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" ht="4.5" customHeight="1" spans="1:35">
+      <c r="A84" s="14"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="15"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="15"/>
+      <c r="AH84" s="15"/>
+      <c r="AI84" s="15">
+        <f t="shared" ref="AI84:AI89" si="2">SUM(C84:AH84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35">
+      <c r="A85" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H85" s="1">
+        <v>32</v>
+      </c>
+      <c r="N85" s="1">
+        <v>10</v>
+      </c>
+      <c r="AI85" s="1">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" ht="4.5" customHeight="1" spans="1:35">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="14"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="14"/>
+      <c r="W86" s="14"/>
+      <c r="X86" s="14"/>
+      <c r="Y86" s="14"/>
+      <c r="Z86" s="14"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="14"/>
+      <c r="AC86" s="14"/>
+      <c r="AD86" s="14"/>
+      <c r="AE86" s="14"/>
+      <c r="AF86" s="14"/>
+      <c r="AG86" s="14"/>
+      <c r="AH86" s="14"/>
+      <c r="AI86" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:35">
+      <c r="A87" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="M87" s="1">
+        <v>30</v>
+      </c>
+      <c r="P87" s="1">
+        <v>30</v>
+      </c>
+      <c r="R87" s="1">
+        <v>20</v>
+      </c>
+      <c r="X87" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y87" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA87" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF87" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI87" s="1">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" ht="4.5" customHeight="1" spans="1:35">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+      <c r="R88" s="14"/>
+      <c r="S88" s="14"/>
+      <c r="T88" s="14"/>
+      <c r="U88" s="14"/>
+      <c r="V88" s="14"/>
+      <c r="W88" s="14"/>
+      <c r="X88" s="14"/>
+      <c r="Y88" s="14"/>
+      <c r="Z88" s="14"/>
+      <c r="AA88" s="14"/>
+      <c r="AB88" s="14"/>
+      <c r="AC88" s="14"/>
+      <c r="AD88" s="14"/>
+      <c r="AE88" s="14"/>
+      <c r="AF88" s="14"/>
+      <c r="AG88" s="14"/>
+      <c r="AH88" s="14"/>
+      <c r="AI88" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35">
+      <c r="A89" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="M89" s="1">
+        <v>30</v>
+      </c>
+      <c r="P89" s="1">
+        <v>21</v>
+      </c>
+      <c r="X89" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA89" s="1">
+        <v>35</v>
+      </c>
+      <c r="AF89" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI89" s="1">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="35:35">
+      <c r="AI90" s="1">
+        <f t="shared" ref="AI90:AI91" si="3">SUM(C90:AH90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" spans="1:35">
+      <c r="A91" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI91" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
-      <c r="A74" s="4" t="s">
+    <row r="92" ht="27.75" spans="1:35">
+      <c r="A92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" s="3">
+        <v>22</v>
+      </c>
+      <c r="E92" s="3">
+        <v>23</v>
+      </c>
+      <c r="F92" s="3">
+        <v>24</v>
+      </c>
+      <c r="G92" s="3">
+        <v>25</v>
+      </c>
+      <c r="H92" s="3">
+        <v>26</v>
+      </c>
+      <c r="I92" s="3">
+        <v>27</v>
+      </c>
+      <c r="J92" s="3">
+        <v>28</v>
+      </c>
+      <c r="K92" s="3">
+        <v>29</v>
+      </c>
+      <c r="L92" s="3">
+        <v>30</v>
+      </c>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="3"/>
+      <c r="AD92" s="3"/>
+      <c r="AE92" s="3"/>
+      <c r="AF92" s="3"/>
+      <c r="AG92" s="3"/>
+      <c r="AH92" s="3">
+        <v>31</v>
+      </c>
+      <c r="AI92" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D93" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35">
+      <c r="A94" s="14"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
+      <c r="S94" s="15"/>
+      <c r="T94" s="15"/>
+      <c r="U94" s="15"/>
+      <c r="V94" s="15"/>
+      <c r="W94" s="15"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="15"/>
+      <c r="AA94" s="15"/>
+      <c r="AB94" s="15"/>
+      <c r="AC94" s="15"/>
+      <c r="AD94" s="15"/>
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="15"/>
+      <c r="AH94" s="15"/>
+      <c r="AI94" s="15"/>
+    </row>
+    <row r="95" spans="1:35">
+      <c r="A95" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="1">
+        <v>240</v>
+      </c>
+      <c r="D95" s="1">
+        <v>20</v>
+      </c>
+      <c r="E95" s="1">
+        <v>10</v>
+      </c>
+      <c r="G95" s="1">
+        <v>80</v>
+      </c>
+      <c r="H95" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH95" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI95" s="1">
+        <f t="shared" ref="AI95:AI124" si="4">SUM(C95:AH95)</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="96" spans="2:35">
+      <c r="B96" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI96" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="35:35">
+      <c r="AI97" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:35">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="15"/>
+      <c r="S98" s="15"/>
+      <c r="T98" s="15"/>
+      <c r="U98" s="15"/>
+      <c r="V98" s="15"/>
+      <c r="W98" s="15"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="Z98" s="15"/>
+      <c r="AA98" s="15"/>
+      <c r="AB98" s="15"/>
+      <c r="AC98" s="15"/>
+      <c r="AD98" s="15"/>
+      <c r="AE98" s="15"/>
+      <c r="AF98" s="15"/>
+      <c r="AG98" s="15"/>
+      <c r="AH98" s="15"/>
+      <c r="AI98" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:35">
+      <c r="A99" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="1">
+        <v>64</v>
+      </c>
+      <c r="AI99" s="1">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="2:35">
+      <c r="B100" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI100" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:35">
+      <c r="B101" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI101" s="1">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="2:35">
+      <c r="B102" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" s="1">
+        <v>32</v>
+      </c>
+      <c r="D102" s="1">
+        <v>32</v>
+      </c>
+      <c r="G102" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI102" s="1">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35">
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="15"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="15"/>
+      <c r="S103" s="15"/>
+      <c r="T103" s="15"/>
+      <c r="U103" s="15"/>
+      <c r="V103" s="15"/>
+      <c r="W103" s="15"/>
+      <c r="X103" s="15"/>
+      <c r="Y103" s="15"/>
+      <c r="Z103" s="15"/>
+      <c r="AA103" s="15"/>
+      <c r="AB103" s="15"/>
+      <c r="AC103" s="15"/>
+      <c r="AD103" s="15"/>
+      <c r="AE103" s="15"/>
+      <c r="AF103" s="15"/>
+      <c r="AG103" s="15"/>
+      <c r="AH103" s="15"/>
+      <c r="AI103" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:35">
+      <c r="A104" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H104" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI104" s="1">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="2:35">
+      <c r="B105" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E105" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="2:35">
+      <c r="B106" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106" s="1">
+        <v>8</v>
+      </c>
+      <c r="AI106" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:35">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="15"/>
+      <c r="S107" s="15"/>
+      <c r="T107" s="15"/>
+      <c r="U107" s="15"/>
+      <c r="V107" s="15"/>
+      <c r="W107" s="15"/>
+      <c r="X107" s="15"/>
+      <c r="Y107" s="15"/>
+      <c r="Z107" s="15"/>
+      <c r="AA107" s="15"/>
+      <c r="AB107" s="15"/>
+      <c r="AC107" s="15"/>
+      <c r="AD107" s="15"/>
+      <c r="AE107" s="15"/>
+      <c r="AF107" s="15"/>
+      <c r="AG107" s="15"/>
+      <c r="AH107" s="15"/>
+      <c r="AI107" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:35">
+      <c r="A108" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI108" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:35">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="15"/>
+      <c r="S109" s="15"/>
+      <c r="T109" s="15"/>
+      <c r="U109" s="15"/>
+      <c r="V109" s="15"/>
+      <c r="W109" s="15"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="15"/>
+      <c r="AA109" s="15"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="15"/>
+      <c r="AD109" s="15"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+      <c r="AG109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AI109" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:35">
+      <c r="A110" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" s="1">
+        <v>20</v>
+      </c>
+      <c r="D110" s="1">
+        <v>50</v>
+      </c>
+      <c r="E110" s="1">
+        <v>40</v>
+      </c>
+      <c r="G110" s="1">
+        <v>50</v>
+      </c>
+      <c r="H110" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH110" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI110" s="1">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:35">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="15"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="15"/>
+      <c r="R111" s="15"/>
+      <c r="S111" s="15"/>
+      <c r="T111" s="15"/>
+      <c r="U111" s="15"/>
+      <c r="V111" s="15"/>
+      <c r="W111" s="15"/>
+      <c r="X111" s="15"/>
+      <c r="Y111" s="15"/>
+      <c r="Z111" s="15"/>
+      <c r="AA111" s="15"/>
+      <c r="AB111" s="15"/>
+      <c r="AC111" s="15"/>
+      <c r="AD111" s="15"/>
+      <c r="AE111" s="15"/>
+      <c r="AF111" s="15"/>
+      <c r="AG111" s="15"/>
+      <c r="AH111" s="15"/>
+      <c r="AI111" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:35">
+      <c r="A112" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112" s="1">
+        <v>10</v>
+      </c>
+      <c r="AI112" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="2:35">
+      <c r="B113" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI113" s="1">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:35">
+      <c r="A114" s="15"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
+      <c r="O114" s="15"/>
+      <c r="P114" s="15"/>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="15"/>
+      <c r="S114" s="15"/>
+      <c r="T114" s="15"/>
+      <c r="U114" s="15"/>
+      <c r="V114" s="15"/>
+      <c r="W114" s="15"/>
+      <c r="X114" s="15"/>
+      <c r="Y114" s="15"/>
+      <c r="Z114" s="15"/>
+      <c r="AA114" s="15"/>
+      <c r="AB114" s="15"/>
+      <c r="AC114" s="15"/>
+      <c r="AD114" s="15"/>
+      <c r="AE114" s="15"/>
+      <c r="AF114" s="15"/>
+      <c r="AG114" s="15"/>
+      <c r="AH114" s="15"/>
+      <c r="AI114" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:35">
+      <c r="A115" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C115" s="17">
+        <v>5</v>
+      </c>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
+      <c r="R115" s="17"/>
+      <c r="S115" s="17"/>
+      <c r="T115" s="17"/>
+      <c r="U115" s="17"/>
+      <c r="V115" s="17"/>
+      <c r="W115" s="17"/>
+      <c r="X115" s="17"/>
+      <c r="Y115" s="17"/>
+      <c r="Z115" s="17"/>
+      <c r="AA115" s="17"/>
+      <c r="AB115" s="17"/>
+      <c r="AC115" s="17"/>
+      <c r="AD115" s="17"/>
+      <c r="AE115" s="17"/>
+      <c r="AF115" s="17"/>
+      <c r="AG115" s="17"/>
+      <c r="AH115" s="17"/>
+      <c r="AI115" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:35">
+      <c r="A116" s="17"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="17"/>
+      <c r="T116" s="17"/>
+      <c r="U116" s="17"/>
+      <c r="V116" s="17"/>
+      <c r="W116" s="17"/>
+      <c r="X116" s="17"/>
+      <c r="Y116" s="17"/>
+      <c r="Z116" s="17"/>
+      <c r="AA116" s="17"/>
+      <c r="AB116" s="17"/>
+      <c r="AC116" s="17"/>
+      <c r="AD116" s="17"/>
+      <c r="AE116" s="17"/>
+      <c r="AF116" s="17"/>
+      <c r="AG116" s="17"/>
+      <c r="AH116" s="17"/>
+      <c r="AI116" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:35">
+      <c r="A117" s="15"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="15"/>
+      <c r="P117" s="15"/>
+      <c r="Q117" s="15"/>
+      <c r="R117" s="15"/>
+      <c r="S117" s="15"/>
+      <c r="T117" s="15"/>
+      <c r="U117" s="15"/>
+      <c r="V117" s="15"/>
+      <c r="W117" s="15"/>
+      <c r="X117" s="15"/>
+      <c r="Y117" s="15"/>
+      <c r="Z117" s="15"/>
+      <c r="AA117" s="15"/>
+      <c r="AB117" s="15"/>
+      <c r="AC117" s="15"/>
+      <c r="AD117" s="15"/>
+      <c r="AE117" s="15"/>
+      <c r="AF117" s="15"/>
+      <c r="AG117" s="15"/>
+      <c r="AH117" s="15"/>
+      <c r="AI117" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:35">
+      <c r="A118" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C118" s="1">
+        <v>120</v>
+      </c>
+      <c r="G118" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI118" s="1">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:35">
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="15"/>
+      <c r="Q119" s="15"/>
+      <c r="R119" s="15"/>
+      <c r="S119" s="15"/>
+      <c r="T119" s="15"/>
+      <c r="U119" s="15"/>
+      <c r="V119" s="15"/>
+      <c r="W119" s="15"/>
+      <c r="X119" s="15"/>
+      <c r="Y119" s="15"/>
+      <c r="Z119" s="15"/>
+      <c r="AA119" s="15"/>
+      <c r="AB119" s="15"/>
+      <c r="AC119" s="15"/>
+      <c r="AD119" s="15"/>
+      <c r="AE119" s="15"/>
+      <c r="AF119" s="15"/>
+      <c r="AG119" s="15"/>
+      <c r="AH119" s="15"/>
+      <c r="AI119" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:35">
+      <c r="A120" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" s="1">
+        <v>120</v>
+      </c>
+      <c r="AH120" s="1">
+        <v>100</v>
+      </c>
+      <c r="AI120" s="1">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:35">
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="15"/>
+      <c r="O121" s="15"/>
+      <c r="P121" s="15"/>
+      <c r="Q121" s="15"/>
+      <c r="R121" s="15"/>
+      <c r="S121" s="15"/>
+      <c r="T121" s="15"/>
+      <c r="U121" s="15"/>
+      <c r="V121" s="15"/>
+      <c r="W121" s="15"/>
+      <c r="X121" s="15"/>
+      <c r="Y121" s="15"/>
+      <c r="Z121" s="15"/>
+      <c r="AA121" s="15"/>
+      <c r="AB121" s="15"/>
+      <c r="AC121" s="15"/>
+      <c r="AD121" s="15"/>
+      <c r="AE121" s="15"/>
+      <c r="AF121" s="15"/>
+      <c r="AG121" s="15"/>
+      <c r="AH121" s="15"/>
+      <c r="AI121" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:35">
+      <c r="A122" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D122" s="4">
+        <v>5</v>
+      </c>
+      <c r="AI122" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:35">
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15"/>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15"/>
+      <c r="N123" s="15"/>
+      <c r="O123" s="15"/>
+      <c r="P123" s="15"/>
+      <c r="Q123" s="15"/>
+      <c r="R123" s="15"/>
+      <c r="S123" s="15"/>
+      <c r="T123" s="15"/>
+      <c r="U123" s="15"/>
+      <c r="V123" s="15"/>
+      <c r="W123" s="15"/>
+      <c r="X123" s="15"/>
+      <c r="Y123" s="15"/>
+      <c r="Z123" s="15"/>
+      <c r="AA123" s="15"/>
+      <c r="AB123" s="15"/>
+      <c r="AC123" s="15"/>
+      <c r="AD123" s="15"/>
+      <c r="AE123" s="15"/>
+      <c r="AF123" s="15"/>
+      <c r="AG123" s="15"/>
+      <c r="AH123" s="15"/>
+      <c r="AI123" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:35">
+      <c r="A124" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D124" s="1">
         <v>20</v>
       </c>
-      <c r="AI74" s="1">
-        <f t="shared" si="3"/>
+      <c r="AI124" s="1">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -7250,63 +8217,63 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="5"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3833333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6296296296296" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.6333333333333" style="6" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1296296296296" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.1333333333333" style="5" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1296296296296" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1333333333333" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="6" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58.35" spans="1:12">
+    <row r="1" ht="27.75" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>105</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="2:14">
@@ -7388,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15.15" spans="2:12">
+    <row r="18" ht="14.25" spans="2:12">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -7406,42 +8373,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="58.35" spans="1:12">
+    <row r="19" ht="27.75" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>105</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -7613,7 +8580,7 @@
         <v>0.459016393442623</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
@@ -7624,7 +8591,7 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1">
         <v>472</v>
@@ -7636,7 +8603,7 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C30" s="1">
         <v>550</v>
@@ -7710,24 +8677,24 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.12962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.13333333333333" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:2">
+    <row r="1" ht="27.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -7735,7 +8702,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -7743,7 +8710,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B4" s="1">
         <v>50</v>
@@ -7751,7 +8718,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
@@ -7759,7 +8726,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="4"/>
+    <workbookView windowWidth="26148" windowHeight="14244" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -1131,10 +1131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1198,24 +1198,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1229,7 +1220,45 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1246,6 +1275,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1253,7 +1290,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1268,68 +1328,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1394,25 +1394,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,67 +1418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,13 +1436,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1526,13 +1496,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,19 +1538,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,50 +1609,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1668,15 +1627,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1700,7 +1650,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1712,10 +1712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1724,133 +1724,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2349,9 +2349,9 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="12" customHeight="1" spans="8:17">
+    <row r="12" ht="13.5" customHeight="1" spans="8:17">
       <c r="H12" s="42" t="s">
         <v>0</v>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="P12" s="42"/>
       <c r="Q12" s="42"/>
     </row>
-    <row r="13" customHeight="1" spans="8:17">
+    <row r="13" ht="13.5" customHeight="1" spans="8:17">
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
@@ -2377,7 +2377,7 @@
       <c r="P13" s="42"/>
       <c r="Q13" s="42"/>
     </row>
-    <row r="14" customHeight="1" spans="8:17">
+    <row r="14" ht="13.5" customHeight="1" spans="8:17">
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
@@ -2389,7 +2389,7 @@
       <c r="P14" s="42"/>
       <c r="Q14" s="42"/>
     </row>
-    <row r="15" customHeight="1" spans="8:17">
+    <row r="15" ht="13.5" customHeight="1" spans="8:17">
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
@@ -2401,7 +2401,7 @@
       <c r="P15" s="42"/>
       <c r="Q15" s="42"/>
     </row>
-    <row r="16" customHeight="1" spans="8:17">
+    <row r="16" ht="13.5" customHeight="1" spans="8:17">
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
@@ -2413,7 +2413,7 @@
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
     </row>
-    <row r="17" customHeight="1" spans="8:17">
+    <row r="17" ht="13.5" customHeight="1" spans="8:17">
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
@@ -2425,7 +2425,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
     </row>
-    <row r="18" customHeight="1" spans="8:17">
+    <row r="18" ht="13.5" customHeight="1" spans="8:17">
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
@@ -2437,7 +2437,7 @@
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
     </row>
-    <row r="19" customHeight="1" spans="8:17">
+    <row r="19" ht="13.5" customHeight="1" spans="8:17">
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
@@ -2473,17 +2473,17 @@
       <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10" style="26" customWidth="1"/>
     <col min="2" max="2" width="16" style="27" customWidth="1"/>
-    <col min="3" max="3" width="26.3833333333333" style="27" customWidth="1"/>
+    <col min="3" max="3" width="26.3796296296296" style="27" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="27" customWidth="1"/>
-    <col min="5" max="5" width="15.1333333333333" style="28" customWidth="1"/>
+    <col min="5" max="5" width="15.1296296296296" style="28" customWidth="1"/>
     <col min="6" max="6" width="13" style="27" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="27" customWidth="1"/>
     <col min="8" max="9" width="9" style="27"/>
-    <col min="10" max="10" width="11.1333333333333" style="27" customWidth="1"/>
+    <col min="10" max="10" width="11.1296296296296" style="27" customWidth="1"/>
     <col min="11" max="11" width="21" style="27" customWidth="1"/>
     <col min="12" max="12" width="28" style="27" customWidth="1"/>
     <col min="13" max="13" width="24.25" style="27" customWidth="1"/>
@@ -2492,7 +2492,7 @@
     <col min="16" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:8">
+    <row r="1" ht="28.8" spans="1:8">
       <c r="A1" s="29"/>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" ht="27" spans="1:7">
+    <row r="11" ht="28.8" spans="1:7">
       <c r="A11" s="36">
         <v>6.6</v>
       </c>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" ht="27" spans="1:7">
+    <row r="53" ht="28.8" spans="1:7">
       <c r="A53" s="38" t="s">
         <v>68</v>
       </c>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" ht="27" spans="1:7">
+    <row r="55" ht="28.8" spans="1:7">
       <c r="A55" s="36" t="s">
         <v>70</v>
       </c>
@@ -3550,7 +3550,7 @@
     <row r="62" spans="5:5">
       <c r="E62" s="27"/>
     </row>
-    <row r="63" ht="27" spans="1:8">
+    <row r="63" ht="28.8" spans="1:8">
       <c r="A63" s="29"/>
       <c r="B63" s="30" t="s">
         <v>1</v>
@@ -4133,7 +4133,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="103" ht="27" spans="1:6">
+    <row r="103" ht="28.8" spans="1:6">
       <c r="A103" s="26">
         <v>5.23</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="105" ht="27" spans="1:6">
+    <row r="105" ht="28.8" spans="1:6">
       <c r="A105" s="26">
         <v>5.24</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" ht="27" spans="1:6">
+    <row r="107" ht="28.8" spans="1:6">
       <c r="A107" s="26">
         <v>5.25</v>
       </c>
@@ -4367,17 +4367,17 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" ht="29.55" spans="1:5">
       <c r="A1" s="8" t="s">
         <v>105</v>
       </c>
@@ -4619,16 +4619,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" ht="29.55" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
@@ -4678,24 +4678,24 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1296296296296" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.3833333333333" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.3796296296296" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:10">
+    <row r="1" ht="29.55" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>105</v>
       </c>
@@ -4735,7 +4735,7 @@
       <c r="E2" s="22"/>
       <c r="F2" s="23">
         <f>SUM(B3:B43)</f>
-        <v>51.3</v>
+        <v>53.3</v>
       </c>
       <c r="G2" s="23">
         <f>SUM(C3:C43)</f>
@@ -4747,11 +4747,11 @@
       </c>
       <c r="I2" s="23">
         <f>SUM(E3:E43)</f>
-        <v>32.6</v>
+        <v>33.6</v>
       </c>
       <c r="J2" s="25">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>0.397</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:5">
@@ -5213,11 +5213,14 @@
       <c r="A31" s="5" t="s">
         <v>114</v>
       </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J31" s="6">
         <f t="shared" si="0"/>
@@ -5260,33 +5263,33 @@
       <selection activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.8833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8796296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.38333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.37962962962963" style="1" customWidth="1"/>
     <col min="8" max="8" width="3.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.13333333333333" style="1" customWidth="1"/>
-    <col min="10" max="12" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3.88333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.12962962962963" style="1" customWidth="1"/>
+    <col min="10" max="12" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="3.87962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="3.90833333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.15" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="3.90740740740741" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.14814814814815" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="3.58333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="33" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="30" max="33" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:35">
+    <row r="1" ht="29.55" spans="1:35">
       <c r="A1" s="2" t="s">
         <v>132</v>
       </c>
@@ -5449,7 +5452,6 @@
       <c r="G4" s="1">
         <v>10</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="AI4" s="1">
         <f t="shared" ref="AI3:AI39" si="0">SUM(C4:AH4)</f>
         <v>10</v>
@@ -6212,12 +6214,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:1">
+    <row r="50" ht="15.15" spans="1:1">
       <c r="A50" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="51" ht="27.75" spans="1:35">
+    <row r="51" ht="29.55" spans="1:35">
       <c r="A51" s="2" t="s">
         <v>132</v>
       </c>
@@ -6399,7 +6401,7 @@
         <v>40</v>
       </c>
       <c r="AI54" s="1">
-        <f>SUM(C54:AH54)</f>
+        <f t="shared" si="1"/>
         <v>470</v>
       </c>
     </row>
@@ -7340,7 +7342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:35">
+    <row r="91" ht="15.15" spans="1:35">
       <c r="A91" s="20" t="s">
         <v>74</v>
       </c>
@@ -7349,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="27.75" spans="1:35">
+    <row r="92" ht="29.55" spans="1:35">
       <c r="A92" s="2" t="s">
         <v>132</v>
       </c>
@@ -8218,27 +8220,27 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="5"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.6296296296296" style="6" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1333333333333" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.1296296296296" style="5" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1296296296296" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="6" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:12">
+    <row r="1" ht="58.35" spans="1:12">
       <c r="A1" s="7" t="s">
         <v>162</v>
       </c>
@@ -8355,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="2:12">
+    <row r="18" ht="15.15" spans="2:12">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -8373,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="27.75" spans="1:12">
+    <row r="19" ht="58.35" spans="1:12">
       <c r="A19" s="7" t="s">
         <v>162</v>
       </c>
@@ -8433,7 +8435,7 @@
       </c>
       <c r="L20" s="6">
         <f>SUM(I20:I42)/93</f>
-        <v>0.12258064516129</v>
+        <v>0.127956989247312</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -8589,7 +8591,7 @@
         <v>0.888888888888889</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:9">
       <c r="B29" s="5" t="s">
         <v>130</v>
       </c>
@@ -8600,6 +8602,12 @@
         <f t="shared" si="2"/>
         <v>0.515846994535519</v>
       </c>
+      <c r="H29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="5" t="s">
@@ -8613,10 +8621,16 @@
         <v>0.601092896174863</v>
       </c>
     </row>
-    <row r="31" spans="6:6">
+    <row r="31" spans="2:6">
+      <c r="B31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="1">
+        <v>580</v>
+      </c>
       <c r="F31" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.633879781420765</v>
       </c>
     </row>
     <row r="32" spans="6:6">
@@ -8677,14 +8691,14 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.13333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.12962962962963" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:2">
+    <row r="1" ht="29.55" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>132</v>
       </c>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26148" windowHeight="14244" activeTab="4"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -48,6 +48,267 @@
   <si>
     <t>totaly cost
 （总花销）</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>puncake</t>
+  </si>
+  <si>
+    <t>take-out</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ay</t>
+    </r>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>fruits and milk</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ast food</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>take-out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(叉烧鸡腿饭)</t>
+    </r>
+  </si>
+  <si>
+    <t>fast food&amp;chicken fillet</t>
+  </si>
+  <si>
+    <t>fast food&amp;drumstick</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>5.6-8</t>
+  </si>
+  <si>
+    <t>5.10-5.15</t>
+  </si>
+  <si>
+    <t>cake+milk</t>
+  </si>
+  <si>
+    <t>take-out+dinner+wash card</t>
+  </si>
+  <si>
+    <t>breakfirst</t>
+  </si>
+  <si>
+    <t>5.20-21</t>
+  </si>
+  <si>
+    <t>car fee</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>take-out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+member card</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oodle+egg tart</t>
+    </r>
+  </si>
+  <si>
+    <t>pancake+milk</t>
+  </si>
+  <si>
+    <t>sausage+water+coca cola+noodle+banana+apple</t>
+  </si>
+  <si>
+    <t>pancake+milk+hamburger</t>
+  </si>
+  <si>
+    <t>noodle+wilk with tea</t>
+  </si>
+  <si>
+    <t>pancake</t>
+  </si>
+  <si>
+    <t>noodle+beer egg +mosquto spellent iscense</t>
+  </si>
+  <si>
+    <t>fire noodle</t>
+  </si>
+  <si>
+    <t>fire cake+rice dumpling</t>
+  </si>
+  <si>
+    <t>5.27-29</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.31</t>
+    </r>
+  </si>
+  <si>
+    <t>milk+bun</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ake-out</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oodle+soymilk+glass</t>
+    </r>
+  </si>
+  <si>
+    <t>June</t>
   </si>
   <si>
     <r>
@@ -68,9 +329,6 @@
       </rPr>
       <t>ilk+bun</t>
     </r>
-  </si>
-  <si>
-    <t>take-out</t>
   </si>
   <si>
     <r>
@@ -433,9 +691,6 @@
     <t>6.23</t>
   </si>
   <si>
-    <t>milk+bun</t>
-  </si>
-  <si>
     <t>6.24</t>
   </si>
   <si>
@@ -491,252 +746,6 @@
   </si>
   <si>
     <t>195(am)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ay</t>
-    </r>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>fruits and milk</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ast food</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>take-out</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(叉烧鸡腿饭)</t>
-    </r>
-  </si>
-  <si>
-    <t>fast food&amp;chicken fillet</t>
-  </si>
-  <si>
-    <t>fast food&amp;drumstick</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>5.6-8</t>
-  </si>
-  <si>
-    <t>5.10-5.15</t>
-  </si>
-  <si>
-    <t>cake+milk</t>
-  </si>
-  <si>
-    <t>take-out+dinner+wash card</t>
-  </si>
-  <si>
-    <t>breakfirst</t>
-  </si>
-  <si>
-    <t>5.20-21</t>
-  </si>
-  <si>
-    <t>car fee</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>take-out</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+member card</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>oodle+egg tart</t>
-    </r>
-  </si>
-  <si>
-    <t>pancake+milk</t>
-  </si>
-  <si>
-    <t>sausage+water+coca cola+noodle+banana+apple</t>
-  </si>
-  <si>
-    <t>pancake+milk+hamburger</t>
-  </si>
-  <si>
-    <t>noodle+wilk with tea</t>
-  </si>
-  <si>
-    <t>pancake</t>
-  </si>
-  <si>
-    <t>noodle+beer egg +mosquto spellent iscense</t>
-  </si>
-  <si>
-    <t>fire noodle</t>
-  </si>
-  <si>
-    <t>fire cake+rice dumpling</t>
-  </si>
-  <si>
-    <t>5.27-29</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.31</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ake-out</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>oodle+soymilk+glass</t>
-    </r>
   </si>
   <si>
     <t>Date
@@ -791,6 +800,9 @@
     <t>7.4</t>
   </si>
   <si>
+    <t>7.5</t>
+  </si>
+  <si>
     <t>Read pages
 （当前阅读页码）</t>
   </si>
@@ -1009,9 +1021,6 @@
     <t>滚轮</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
     <t>30s</t>
   </si>
   <si>
@@ -1132,9 +1141,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1192,14 +1201,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1213,29 +1262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1258,15 +1285,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1275,15 +1302,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1297,23 +1330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1321,15 +1338,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1394,7 +1403,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,67 +1481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,7 +1493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,7 +1511,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,55 +1559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,26 +1616,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1642,15 +1651,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1672,6 +1672,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1679,28 +1690,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1712,10 +1721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1724,133 +1733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2349,9 +2358,9 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="12" ht="13.5" customHeight="1" spans="8:17">
+    <row r="12" customHeight="1" spans="8:17">
       <c r="H12" s="42" t="s">
         <v>0</v>
       </c>
@@ -2365,7 +2374,7 @@
       <c r="P12" s="42"/>
       <c r="Q12" s="42"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1" spans="8:17">
+    <row r="13" customHeight="1" spans="8:17">
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
@@ -2377,7 +2386,7 @@
       <c r="P13" s="42"/>
       <c r="Q13" s="42"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1" spans="8:17">
+    <row r="14" customHeight="1" spans="8:17">
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
@@ -2389,7 +2398,7 @@
       <c r="P14" s="42"/>
       <c r="Q14" s="42"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1" spans="8:17">
+    <row r="15" customHeight="1" spans="8:17">
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
@@ -2401,7 +2410,7 @@
       <c r="P15" s="42"/>
       <c r="Q15" s="42"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1" spans="8:17">
+    <row r="16" customHeight="1" spans="8:17">
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
@@ -2413,7 +2422,7 @@
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" spans="8:17">
+    <row r="17" customHeight="1" spans="8:17">
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
@@ -2425,7 +2434,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1" spans="8:17">
+    <row r="18" customHeight="1" spans="8:17">
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
@@ -2437,7 +2446,7 @@
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
     </row>
-    <row r="19" ht="13.5" customHeight="1" spans="8:17">
+    <row r="19" customHeight="1" spans="8:17">
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
@@ -2465,25 +2474,25 @@
     <tabColor theme="2" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10" style="26" customWidth="1"/>
     <col min="2" max="2" width="16" style="27" customWidth="1"/>
-    <col min="3" max="3" width="26.3796296296296" style="27" customWidth="1"/>
+    <col min="3" max="3" width="26.3833333333333" style="27" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="27" customWidth="1"/>
-    <col min="5" max="5" width="15.1296296296296" style="28" customWidth="1"/>
+    <col min="5" max="5" width="15.1333333333333" style="28" customWidth="1"/>
     <col min="6" max="6" width="13" style="27" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="27" customWidth="1"/>
     <col min="8" max="9" width="9" style="27"/>
-    <col min="10" max="10" width="11.1296296296296" style="27" customWidth="1"/>
+    <col min="10" max="10" width="11.1333333333333" style="27" customWidth="1"/>
     <col min="11" max="11" width="21" style="27" customWidth="1"/>
     <col min="12" max="12" width="28" style="27" customWidth="1"/>
     <col min="13" max="13" width="24.25" style="27" customWidth="1"/>
@@ -2492,7 +2501,7 @@
     <col min="16" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:8">
+    <row r="1" ht="27" spans="1:8">
       <c r="A1" s="29"/>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -2524,80 +2533,59 @@
       <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="36">
-        <v>6.1</v>
+      <c r="A3" s="36" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="37" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="37"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="36"/>
       <c r="B4" s="16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" s="16">
-        <v>20</v>
-      </c>
-      <c r="D4" s="16">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D4" s="16"/>
       <c r="F4" s="16">
         <f>SUM(B4:D4)</f>
-        <v>45</v>
-      </c>
-      <c r="G4" s="16">
-        <f>SUM(F4:F35)</f>
-        <v>1673.58</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="36">
-        <v>6.2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="36"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="37"/>
       <c r="F5" s="16">
-        <f t="shared" ref="F5:F58" si="0">SUM(B5:D5)</f>
+        <f t="shared" ref="F5:F36" si="0">SUM(B5:D5)</f>
         <v>0</v>
       </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="36"/>
-      <c r="B6" s="16">
-        <v>4</v>
-      </c>
-      <c r="C6" s="16">
-        <v>20</v>
-      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="28">
-        <v>194.7</v>
-      </c>
+      <c r="E6" s="28"/>
       <c r="F6" s="16">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="36" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="36"/>
       <c r="B7" s="16"/>
       <c r="C7" s="37"/>
       <c r="D7" s="16"/>
@@ -2609,30 +2597,20 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="36"/>
-      <c r="B8" s="16">
-        <v>650</v>
-      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="F8" s="16">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="36">
-        <v>6.5</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="F9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2641,37 +2619,21 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="36"/>
-      <c r="B10" s="16">
-        <v>4</v>
-      </c>
-      <c r="C10" s="16">
-        <v>16</v>
-      </c>
-      <c r="D10" s="16">
-        <v>20</v>
-      </c>
-      <c r="E10" s="28">
-        <v>194.3</v>
-      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="16">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" ht="28.8" spans="1:7">
-      <c r="A11" s="36">
-        <v>6.6</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>15</v>
-      </c>
+    <row r="11" spans="1:7">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="F11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2680,34 +2642,20 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="36"/>
-      <c r="B12" s="16">
-        <v>1</v>
-      </c>
-      <c r="C12" s="16">
-        <v>15.8</v>
-      </c>
-      <c r="D12" s="16">
-        <v>20</v>
-      </c>
-      <c r="E12" s="28">
-        <v>194.6</v>
-      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="16">
         <f t="shared" si="0"/>
-        <v>36.8</v>
+        <v>0</v>
       </c>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="36">
-        <v>6.7</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>8</v>
-      </c>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="16"/>
       <c r="F13" s="16">
         <f t="shared" si="0"/>
@@ -2717,36 +2665,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="36"/>
-      <c r="B14" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="C14" s="16">
-        <v>12</v>
-      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="28">
-        <v>194.7</v>
-      </c>
+      <c r="E14" s="28"/>
       <c r="F14" s="16">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="36">
-        <v>6.8</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="28" t="s">
-        <v>17</v>
-      </c>
+      <c r="E15" s="28"/>
       <c r="F15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2755,35 +2689,21 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="36"/>
-      <c r="B16" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="C16" s="16">
-        <v>17</v>
-      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="28" t="s">
-        <v>18</v>
-      </c>
+      <c r="E16" s="28"/>
       <c r="F16" s="16">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="36">
-        <v>6.9</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="A17" s="36"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="F17" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2792,35 +2712,21 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="36"/>
-      <c r="B18" s="16">
-        <v>3.2</v>
-      </c>
-      <c r="C18" s="16">
-        <v>10</v>
-      </c>
-      <c r="D18" s="16">
-        <v>212</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>18</v>
-      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="16">
         <f t="shared" si="0"/>
-        <v>225.2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="38" t="s">
-        <v>20</v>
-      </c>
+      <c r="A19" s="38"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>22</v>
-      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="37"/>
       <c r="F19" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2830,32 +2736,20 @@
     <row r="20" spans="1:7">
       <c r="A20" s="36"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="16">
-        <v>15</v>
-      </c>
-      <c r="D20" s="16">
-        <v>15</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>23</v>
-      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="16">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="38" t="s">
-        <v>24</v>
-      </c>
+      <c r="A21" s="38"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="F21" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2865,34 +2759,20 @@
     <row r="22" spans="1:7">
       <c r="A22" s="36"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="16">
-        <v>30</v>
-      </c>
-      <c r="D22" s="16">
-        <v>50</v>
-      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="F22" s="16">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>29</v>
-      </c>
+      <c r="A23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2901,35 +2781,21 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="36"/>
-      <c r="B24" s="16">
-        <v>8</v>
-      </c>
-      <c r="C24" s="16">
-        <v>10</v>
-      </c>
-      <c r="D24" s="16">
-        <v>10.8</v>
-      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="F24" s="16">
         <f t="shared" si="0"/>
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="38" t="s">
-        <v>30</v>
-      </c>
+      <c r="A25" s="38"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>32</v>
-      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2938,32 +2804,20 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="36"/>
-      <c r="B26" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="C26" s="16">
-        <v>12.5</v>
-      </c>
-      <c r="D26" s="37">
-        <v>14</v>
-      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="37"/>
       <c r="F26" s="16">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="38" t="s">
-        <v>33</v>
-      </c>
+      <c r="A27" s="38"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
       <c r="F27" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2972,35 +2826,21 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="36"/>
-      <c r="B28" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="C28" s="16">
-        <v>15.28</v>
-      </c>
-      <c r="D28" s="16">
-        <v>41</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>35</v>
-      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="16">
         <f t="shared" si="0"/>
-        <v>59.78</v>
+        <v>0</v>
       </c>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="38" t="s">
-        <v>36</v>
-      </c>
+      <c r="A29" s="38"/>
       <c r="B29" s="16"/>
-      <c r="C29" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="16"/>
       <c r="F29" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3010,29 +2850,19 @@
     <row r="30" spans="1:7">
       <c r="A30" s="36"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="D30" s="16">
-        <v>17</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>18</v>
-      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="16">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="36" t="s">
-        <v>38</v>
-      </c>
+      <c r="A31" s="36"/>
       <c r="B31" s="16"/>
-      <c r="C31" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="F31" s="16">
         <f t="shared" si="0"/>
@@ -3042,32 +2872,20 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="36"/>
-      <c r="B32" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="C32" s="16">
-        <v>9</v>
-      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="28" t="s">
-        <v>39</v>
-      </c>
+      <c r="E32" s="28"/>
       <c r="F32" s="16">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="A33" s="36"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="F33" s="16">
         <f t="shared" si="0"/>
@@ -3077,33 +2895,21 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="36"/>
-      <c r="B34" s="16">
-        <v>300</v>
-      </c>
-      <c r="C34" s="16">
-        <v>50</v>
-      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="28">
-        <v>195</v>
-      </c>
+      <c r="E34" s="28"/>
       <c r="F34" s="16">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="36" t="s">
-        <v>43</v>
-      </c>
+      <c r="A35" s="36"/>
       <c r="B35" s="16"/>
-      <c r="C35" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="F35" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3112,408 +2918,262 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="36"/>
-      <c r="B36" s="16">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16">
-        <v>13</v>
-      </c>
-      <c r="D36" s="16">
-        <v>29</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>45</v>
-      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="36" t="s">
-        <v>46</v>
-      </c>
+      <c r="A37" s="36"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
       <c r="F37" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F37:F59" si="1">SUM(B37:D37)</f>
         <v>0</v>
       </c>
       <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="36"/>
-      <c r="B38" s="16">
-        <v>4</v>
-      </c>
-      <c r="C38" s="16">
-        <v>15</v>
-      </c>
-      <c r="D38" s="16">
-        <v>11</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>48</v>
-      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="16">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="36" t="s">
-        <v>49</v>
-      </c>
+      <c r="A39" s="36"/>
       <c r="B39" s="16"/>
-      <c r="C39" s="37" t="s">
-        <v>8</v>
-      </c>
+      <c r="C39" s="37"/>
       <c r="D39" s="37"/>
       <c r="F39" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="36"/>
-      <c r="B40" s="16">
-        <v>2.8</v>
-      </c>
-      <c r="C40" s="16">
-        <v>12</v>
-      </c>
-      <c r="D40" s="16">
-        <v>10</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>48</v>
-      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="16">
-        <f t="shared" si="0"/>
-        <v>24.8</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>51</v>
-      </c>
+      <c r="A41" s="36"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="F41" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="36"/>
-      <c r="B42" s="16">
-        <v>208</v>
-      </c>
-      <c r="C42" s="16">
-        <v>12</v>
-      </c>
-      <c r="D42" s="16">
-        <v>7.5</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>52</v>
-      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="16">
-        <f t="shared" si="0"/>
-        <v>227.5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="A43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="16"/>
       <c r="F43" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="36"/>
-      <c r="B44" s="16">
-        <v>4</v>
-      </c>
-      <c r="C44" s="16">
-        <v>14.8</v>
-      </c>
-      <c r="D44" s="16">
-        <v>20</v>
-      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
       <c r="F44" s="16">
-        <f t="shared" si="0"/>
-        <v>38.8</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>57</v>
-      </c>
+      <c r="A45" s="36"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
       <c r="F45" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="36"/>
-      <c r="B46" s="16">
-        <v>14</v>
-      </c>
-      <c r="C46" s="16">
-        <v>14.5</v>
-      </c>
-      <c r="D46" s="16">
-        <v>11.5</v>
-      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
       <c r="F46" s="16">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="36" t="s">
-        <v>58</v>
-      </c>
+      <c r="A47" s="36"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="16" t="s">
-        <v>59</v>
-      </c>
+      <c r="D47" s="16"/>
       <c r="F47" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="36"/>
-      <c r="B48" s="16">
-        <v>17</v>
-      </c>
-      <c r="C48" s="16">
-        <v>14.5</v>
-      </c>
-      <c r="D48" s="16">
-        <v>25</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>60</v>
-      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="28"/>
       <c r="F48" s="16">
-        <f t="shared" si="0"/>
-        <v>56.5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="A49" s="36"/>
       <c r="B49" s="16"/>
-      <c r="C49" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>63</v>
-      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
       <c r="F49" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="36"/>
-      <c r="B50" s="28">
-        <v>4</v>
-      </c>
-      <c r="C50" s="16">
-        <v>15</v>
-      </c>
-      <c r="D50" s="16">
-        <v>10</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>64</v>
-      </c>
+      <c r="B50" s="28"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="28"/>
       <c r="F50" s="16">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="A51" s="38"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="F51" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="36"/>
-      <c r="B52" s="16">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16">
-        <v>12.5</v>
-      </c>
-      <c r="D52" s="16">
-        <v>18</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>67</v>
-      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="28"/>
       <c r="F52" s="16">
-        <f t="shared" si="0"/>
-        <v>38.5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" ht="28.8" spans="1:7">
-      <c r="A53" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>8</v>
-      </c>
+    <row r="53" spans="1:7">
+      <c r="A53" s="38"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="37"/>
       <c r="F53" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="36"/>
-      <c r="B54" s="16">
-        <v>10</v>
-      </c>
-      <c r="C54" s="16">
-        <v>13</v>
-      </c>
-      <c r="D54" s="16">
-        <v>35.5</v>
-      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
       <c r="F54" s="16">
-        <f t="shared" si="0"/>
-        <v>58.5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" ht="28.8" spans="1:7">
-      <c r="A55" s="36" t="s">
-        <v>70</v>
-      </c>
+    <row r="55" spans="1:7">
+      <c r="A55" s="36"/>
       <c r="B55" s="16"/>
-      <c r="C55" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>71</v>
-      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
       <c r="F55" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="36"/>
-      <c r="B56" s="16">
-        <v>4</v>
-      </c>
-      <c r="C56" s="16">
-        <v>17.28</v>
-      </c>
-      <c r="D56" s="16">
-        <v>18.5</v>
-      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
       <c r="F56" s="16">
-        <f t="shared" si="0"/>
-        <v>39.78</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="36" t="s">
-        <v>72</v>
-      </c>
+      <c r="A57" s="36"/>
       <c r="B57" s="16"/>
-      <c r="C57" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="F57" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="36"/>
-      <c r="B58" s="16">
-        <v>8</v>
-      </c>
-      <c r="C58" s="16">
-        <v>21</v>
-      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="16"/>
-      <c r="E58" s="28" t="s">
-        <v>73</v>
-      </c>
+      <c r="E58" s="28"/>
       <c r="F58" s="16">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G58" s="16"/>
     </row>
@@ -3522,7 +3182,10 @@
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
-      <c r="F59" s="16"/>
+      <c r="F59" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:7">
@@ -3538,7 +3201,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="39" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -3550,7 +3213,7 @@
     <row r="62" spans="5:5">
       <c r="E62" s="27"/>
     </row>
-    <row r="63" ht="28.8" spans="1:8">
+    <row r="63" ht="27" spans="1:8">
       <c r="A63" s="29"/>
       <c r="B63" s="30" t="s">
         <v>1</v>
@@ -3586,13 +3249,13 @@
         <v>4.24</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="3:7">
@@ -3616,16 +3279,16 @@
         <v>4.25</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F67" s="27">
-        <f t="shared" ref="F67:F116" si="1">SUM(B67:D67)</f>
+        <f t="shared" ref="F67:F116" si="2">SUM(B67:D67)</f>
         <v>0</v>
       </c>
     </row>
@@ -3640,7 +3303,7 @@
         <v>18</v>
       </c>
       <c r="F68" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.85</v>
       </c>
     </row>
@@ -3649,16 +3312,16 @@
         <v>4.26</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F69" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3673,7 +3336,7 @@
         <v>19.7</v>
       </c>
       <c r="F70" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.7</v>
       </c>
     </row>
@@ -3682,16 +3345,16 @@
         <v>4.27</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="F71" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3706,7 +3369,7 @@
         <v>26</v>
       </c>
       <c r="F72" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.7</v>
       </c>
     </row>
@@ -3715,13 +3378,13 @@
         <v>4.28</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F73" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3733,7 +3396,7 @@
         <v>16.2</v>
       </c>
       <c r="F74" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.2</v>
       </c>
     </row>
@@ -3742,16 +3405,16 @@
         <v>5.1</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="F75" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3760,7 +3423,7 @@
         <v>1000</v>
       </c>
       <c r="F76" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -3769,16 +3432,16 @@
         <v>5.2</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F77" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3793,7 +3456,7 @@
         <v>11</v>
       </c>
       <c r="F78" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
@@ -3802,16 +3465,16 @@
         <v>5.3</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3826,7 +3489,7 @@
         <v>291</v>
       </c>
       <c r="F80" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>306</v>
       </c>
     </row>
@@ -3835,13 +3498,13 @@
         <v>5.4</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F81" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3856,7 +3519,7 @@
         <v>95</v>
       </c>
       <c r="F82" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
     </row>
@@ -3865,13 +3528,13 @@
         <v>5.5</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F83" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3886,16 +3549,16 @@
         <v>10</v>
       </c>
       <c r="F84" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.75</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="26" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="F85" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3904,7 +3567,7 @@
         <v>300</v>
       </c>
       <c r="F86" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
@@ -3913,16 +3576,16 @@
         <v>5.9</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F87" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3937,16 +3600,16 @@
         <v>18</v>
       </c>
       <c r="F88" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="26" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F89" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3955,7 +3618,7 @@
         <v>200</v>
       </c>
       <c r="F90" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -3964,16 +3627,16 @@
         <v>5.16</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F91" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3988,7 +3651,7 @@
         <v>10</v>
       </c>
       <c r="F92" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.9</v>
       </c>
     </row>
@@ -3997,16 +3660,16 @@
         <v>5.17</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F93" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4021,7 +3684,7 @@
         <v>19.5</v>
       </c>
       <c r="F94" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.4</v>
       </c>
     </row>
@@ -4030,16 +3693,16 @@
         <v>5.18</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F95" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4054,7 +3717,7 @@
         <v>326.8</v>
       </c>
       <c r="F96" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>345.8</v>
       </c>
     </row>
@@ -4063,13 +3726,13 @@
         <v>5.19</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F97" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4081,19 +3744,19 @@
         <v>16</v>
       </c>
       <c r="F98" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="26" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="F99" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4102,7 +3765,7 @@
         <v>80</v>
       </c>
       <c r="F100" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -4111,13 +3774,13 @@
         <v>5.22</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="F101" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4129,25 +3792,25 @@
         <v>15</v>
       </c>
       <c r="F102" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.5</v>
       </c>
     </row>
-    <row r="103" ht="28.8" spans="1:6">
+    <row r="103" ht="27" spans="1:6">
       <c r="A103" s="26">
         <v>5.23</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="F103" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4162,25 +3825,25 @@
         <v>30</v>
       </c>
       <c r="F104" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.5</v>
       </c>
     </row>
-    <row r="105" ht="28.8" spans="1:6">
+    <row r="105" ht="27" spans="1:6">
       <c r="A105" s="26">
         <v>5.24</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="F105" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4195,25 +3858,25 @@
         <v>15</v>
       </c>
       <c r="F106" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
-    <row r="107" ht="28.8" spans="1:6">
+    <row r="107" ht="27" spans="1:6">
       <c r="A107" s="26">
         <v>5.25</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="F107" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4228,7 +3891,7 @@
         <v>20</v>
       </c>
       <c r="F108" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.5</v>
       </c>
     </row>
@@ -4237,19 +3900,19 @@
         <v>5.26</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="E109" s="28">
         <v>196.7</v>
       </c>
       <c r="F109" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4264,16 +3927,16 @@
         <v>10</v>
       </c>
       <c r="F110" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="26" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F111" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4283,16 +3946,16 @@
       </c>
       <c r="E112" s="27"/>
       <c r="F112" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="41" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="F113" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4304,25 +3967,25 @@
         <v>194.7</v>
       </c>
       <c r="F114" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="41" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="F115" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4340,13 +4003,1012 @@
         <v>193</v>
       </c>
       <c r="F116" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113.5</v>
       </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="36">
+        <v>6.1</v>
+      </c>
+      <c r="B120" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="36"/>
+      <c r="B121" s="16">
+        <v>8</v>
+      </c>
+      <c r="C121" s="16">
+        <v>20</v>
+      </c>
+      <c r="D121" s="16">
+        <v>17</v>
+      </c>
+      <c r="F121" s="16">
+        <f t="shared" ref="F121:F175" si="3">SUM(B121:D121)</f>
+        <v>45</v>
+      </c>
+      <c r="G121" s="16">
+        <f>SUM(F121:F152)</f>
+        <v>1673.58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="36">
+        <v>6.2</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="37"/>
+      <c r="F122" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="16"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="36"/>
+      <c r="B123" s="16">
+        <v>4</v>
+      </c>
+      <c r="C123" s="16">
+        <v>20</v>
+      </c>
+      <c r="D123" s="16"/>
+      <c r="E123" s="28">
+        <v>194.7</v>
+      </c>
+      <c r="F123" s="16">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="G123" s="16"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" s="16"/>
+      <c r="C124" s="37"/>
+      <c r="D124" s="16"/>
+      <c r="F124" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="16"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="36"/>
+      <c r="B125" s="16">
+        <v>650</v>
+      </c>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="F125" s="16">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="G125" s="16"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="36">
+        <v>6.5</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C126" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F126" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="16"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="36"/>
+      <c r="B127" s="16">
+        <v>4</v>
+      </c>
+      <c r="C127" s="16">
+        <v>16</v>
+      </c>
+      <c r="D127" s="16">
+        <v>20</v>
+      </c>
+      <c r="E127" s="28">
+        <v>194.3</v>
+      </c>
+      <c r="F127" s="16">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="G127" s="16"/>
+    </row>
+    <row r="128" ht="27" spans="1:7">
+      <c r="A128" s="36">
+        <v>6.6</v>
+      </c>
+      <c r="B128" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C128" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F128" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="16"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="36"/>
+      <c r="B129" s="16">
+        <v>1</v>
+      </c>
+      <c r="C129" s="16">
+        <v>15.8</v>
+      </c>
+      <c r="D129" s="16">
+        <v>20</v>
+      </c>
+      <c r="E129" s="28">
+        <v>194.6</v>
+      </c>
+      <c r="F129" s="16">
+        <f t="shared" si="3"/>
+        <v>36.8</v>
+      </c>
+      <c r="G129" s="16"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="36">
+        <v>6.7</v>
+      </c>
+      <c r="B130" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C130" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="16"/>
+      <c r="F130" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="16"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="36"/>
+      <c r="B131" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="C131" s="16">
+        <v>12</v>
+      </c>
+      <c r="D131" s="16"/>
+      <c r="E131" s="28">
+        <v>194.7</v>
+      </c>
+      <c r="F131" s="16">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+      <c r="G131" s="16"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="36">
+        <v>6.8</v>
+      </c>
+      <c r="B132" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="16"/>
+      <c r="E132" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F132" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="16"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="36"/>
+      <c r="B133" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="C133" s="16">
+        <v>17</v>
+      </c>
+      <c r="D133" s="16"/>
+      <c r="E133" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F133" s="16">
+        <f t="shared" si="3"/>
+        <v>20.5</v>
+      </c>
+      <c r="G133" s="16"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="36">
+        <v>6.9</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F134" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="16"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="36"/>
+      <c r="B135" s="16">
+        <v>3.2</v>
+      </c>
+      <c r="C135" s="16">
+        <v>10</v>
+      </c>
+      <c r="D135" s="16">
+        <v>212</v>
+      </c>
+      <c r="E135" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F135" s="16">
+        <f t="shared" si="3"/>
+        <v>225.2</v>
+      </c>
+      <c r="G135" s="16"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B136" s="16"/>
+      <c r="C136" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D136" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F136" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="16"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="36"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="16">
+        <v>15</v>
+      </c>
+      <c r="D137" s="16">
+        <v>15</v>
+      </c>
+      <c r="E137" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F137" s="16">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="G137" s="16"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B138" s="16"/>
+      <c r="C138" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D138" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F138" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="16"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="36"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16">
+        <v>30</v>
+      </c>
+      <c r="D139" s="16">
+        <v>50</v>
+      </c>
+      <c r="F139" s="16">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="G139" s="16"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B140" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C140" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E140" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F140" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G140" s="16"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="36"/>
+      <c r="B141" s="16">
+        <v>8</v>
+      </c>
+      <c r="C141" s="16">
+        <v>10</v>
+      </c>
+      <c r="D141" s="16">
+        <v>10.8</v>
+      </c>
+      <c r="F141" s="16">
+        <f t="shared" si="3"/>
+        <v>28.8</v>
+      </c>
+      <c r="G141" s="16"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B142" s="16"/>
+      <c r="C142" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E142" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F142" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="16"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="36"/>
+      <c r="B143" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="C143" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="D143" s="37">
+        <v>14</v>
+      </c>
+      <c r="F143" s="16">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="G143" s="16"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B144" s="16"/>
+      <c r="C144" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F144" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="16"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="36"/>
+      <c r="B145" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="C145" s="16">
+        <v>15.28</v>
+      </c>
+      <c r="D145" s="16">
+        <v>41</v>
+      </c>
+      <c r="E145" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F145" s="16">
+        <f t="shared" si="3"/>
+        <v>59.78</v>
+      </c>
+      <c r="G145" s="16"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B146" s="16"/>
+      <c r="C146" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F146" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="16"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="36"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="D147" s="16">
+        <v>17</v>
+      </c>
+      <c r="E147" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F147" s="16">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="G147" s="16"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B148" s="16"/>
+      <c r="C148" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="16"/>
+      <c r="F148" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="16"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="36"/>
+      <c r="B149" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="C149" s="16">
+        <v>9</v>
+      </c>
+      <c r="D149" s="16"/>
+      <c r="E149" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F149" s="16">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="G149" s="16"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D150" s="16"/>
+      <c r="F150" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="16"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="36"/>
+      <c r="B151" s="16">
+        <v>300</v>
+      </c>
+      <c r="C151" s="16">
+        <v>50</v>
+      </c>
+      <c r="D151" s="16"/>
+      <c r="E151" s="28">
+        <v>195</v>
+      </c>
+      <c r="F151" s="16">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="G151" s="16"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B152" s="16"/>
+      <c r="C152" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F152" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="16"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="36"/>
+      <c r="B153" s="16">
+        <v>8</v>
+      </c>
+      <c r="C153" s="16">
+        <v>13</v>
+      </c>
+      <c r="D153" s="16">
+        <v>29</v>
+      </c>
+      <c r="E153" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F153" s="16">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="G153" s="16"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B154" s="16"/>
+      <c r="C154" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F154" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="16"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="36"/>
+      <c r="B155" s="16">
+        <v>4</v>
+      </c>
+      <c r="C155" s="16">
+        <v>15</v>
+      </c>
+      <c r="D155" s="16">
+        <v>11</v>
+      </c>
+      <c r="E155" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F155" s="16">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="G155" s="16"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B156" s="16"/>
+      <c r="C156" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="37"/>
+      <c r="F156" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="16"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="36"/>
+      <c r="B157" s="16">
+        <v>2.8</v>
+      </c>
+      <c r="C157" s="16">
+        <v>12</v>
+      </c>
+      <c r="D157" s="16">
+        <v>10</v>
+      </c>
+      <c r="E157" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F157" s="16">
+        <f t="shared" si="3"/>
+        <v>24.8</v>
+      </c>
+      <c r="G157" s="16"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B158" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="F158" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="16"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="36"/>
+      <c r="B159" s="16">
+        <v>208</v>
+      </c>
+      <c r="C159" s="16">
+        <v>12</v>
+      </c>
+      <c r="D159" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="E159" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F159" s="16">
+        <f t="shared" si="3"/>
+        <v>227.5</v>
+      </c>
+      <c r="G159" s="16"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B160" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="16"/>
+      <c r="F160" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="16"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="36"/>
+      <c r="B161" s="16">
+        <v>4</v>
+      </c>
+      <c r="C161" s="16">
+        <v>14.8</v>
+      </c>
+      <c r="D161" s="16">
+        <v>20</v>
+      </c>
+      <c r="F161" s="16">
+        <f t="shared" si="3"/>
+        <v>38.8</v>
+      </c>
+      <c r="G161" s="16"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F162" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="16"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="36"/>
+      <c r="B163" s="16">
+        <v>14</v>
+      </c>
+      <c r="C163" s="16">
+        <v>14.5</v>
+      </c>
+      <c r="D163" s="16">
+        <v>11.5</v>
+      </c>
+      <c r="F163" s="16">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="G163" s="16"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B164" s="16"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F164" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="16"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="36"/>
+      <c r="B165" s="16">
+        <v>17</v>
+      </c>
+      <c r="C165" s="16">
+        <v>14.5</v>
+      </c>
+      <c r="D165" s="16">
+        <v>25</v>
+      </c>
+      <c r="E165" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F165" s="16">
+        <f t="shared" si="3"/>
+        <v>56.5</v>
+      </c>
+      <c r="G165" s="16"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B166" s="16"/>
+      <c r="C166" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F166" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G166" s="16"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="36"/>
+      <c r="B167" s="28">
+        <v>4</v>
+      </c>
+      <c r="C167" s="16">
+        <v>15</v>
+      </c>
+      <c r="D167" s="16">
+        <v>10</v>
+      </c>
+      <c r="E167" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F167" s="16">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="G167" s="16"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="16"/>
+      <c r="F168" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="16"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="36"/>
+      <c r="B169" s="16">
+        <v>8</v>
+      </c>
+      <c r="C169" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="D169" s="16">
+        <v>18</v>
+      </c>
+      <c r="E169" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F169" s="16">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="G169" s="16"/>
+    </row>
+    <row r="170" ht="27" spans="1:7">
+      <c r="A170" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B170" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C170" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="37"/>
+      <c r="F170" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G170" s="16"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="36"/>
+      <c r="B171" s="16">
+        <v>10</v>
+      </c>
+      <c r="C171" s="16">
+        <v>13</v>
+      </c>
+      <c r="D171" s="16">
+        <v>35.5</v>
+      </c>
+      <c r="F171" s="16">
+        <f t="shared" si="3"/>
+        <v>58.5</v>
+      </c>
+      <c r="G171" s="16"/>
+    </row>
+    <row r="172" ht="27" spans="1:7">
+      <c r="A172" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B172" s="16"/>
+      <c r="C172" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F172" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G172" s="16"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="36"/>
+      <c r="B173" s="16">
+        <v>4</v>
+      </c>
+      <c r="C173" s="16">
+        <v>17.28</v>
+      </c>
+      <c r="D173" s="16">
+        <v>18.5</v>
+      </c>
+      <c r="F173" s="16">
+        <f t="shared" si="3"/>
+        <v>39.78</v>
+      </c>
+      <c r="G173" s="16"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B174" s="16"/>
+      <c r="C174" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="16"/>
+      <c r="F174" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G174" s="16"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="36"/>
+      <c r="B175" s="16">
+        <v>8</v>
+      </c>
+      <c r="C175" s="16">
+        <v>21</v>
+      </c>
+      <c r="D175" s="16"/>
+      <c r="E175" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F175" s="16">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="G175" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:F3000">
-    <cfRule type="expression" dxfId="0" priority="37">
+    <cfRule type="expression" dxfId="0" priority="39">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4361,37 +5023,37 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3833333333333" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:5">
+    <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4452,7 +5114,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B9" s="1">
         <v>283</v>
@@ -4460,7 +5122,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1">
         <v>668</v>
@@ -4468,7 +5130,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B11" s="1">
         <v>40</v>
@@ -4476,7 +5138,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="24" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1">
         <v>90</v>
@@ -4484,7 +5146,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="24" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1">
         <v>128</v>
@@ -4492,7 +5154,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1">
         <v>398</v>
@@ -4500,7 +5162,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1">
         <v>90</v>
@@ -4508,7 +5170,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1">
         <v>360</v>
@@ -4516,7 +5178,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1">
         <v>300</v>
@@ -4524,7 +5186,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1">
         <v>672</v>
@@ -4532,7 +5194,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B19" s="1">
         <v>120</v>
@@ -4540,7 +5202,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1">
         <v>330</v>
@@ -4548,7 +5210,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1">
         <v>900</v>
@@ -4556,7 +5218,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1">
         <v>484</v>
@@ -4564,7 +5226,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1">
         <v>150</v>
@@ -4572,7 +5234,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B24" s="1">
         <v>416</v>
@@ -4580,7 +5242,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1">
         <v>366</v>
@@ -4588,7 +5250,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B26" s="1">
         <v>280</v>
@@ -4596,10 +5258,26 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B27" s="1">
         <v>535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4616,33 +5294,33 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="11.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:5">
+    <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4677,54 +5355,54 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1333333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.3796296296296" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.3833333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:10">
+    <row r="1" ht="27.75" spans="1:10">
       <c r="A1" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4735,23 +5413,23 @@
       <c r="E2" s="22"/>
       <c r="F2" s="23">
         <f>SUM(B3:B43)</f>
-        <v>53.3</v>
+        <v>54.8</v>
       </c>
       <c r="G2" s="23">
         <f>SUM(C3:C43)</f>
-        <v>32.2</v>
+        <v>35.2</v>
       </c>
       <c r="H2" s="23">
         <f>SUM(D3:D43)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I2" s="23">
         <f>SUM(E3:E43)</f>
-        <v>33.6</v>
+        <v>34.6</v>
       </c>
       <c r="J2" s="25">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>0.407</v>
+        <v>0.435333333333333</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:5">
@@ -4854,7 +5532,7 @@
     </row>
     <row r="10" hidden="1" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1">
         <v>2.5</v>
@@ -4869,7 +5547,7 @@
     </row>
     <row r="11" hidden="1" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -4887,7 +5565,7 @@
     </row>
     <row r="12" hidden="1" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B12" s="1">
         <v>2.1</v>
@@ -4905,7 +5583,7 @@
     </row>
     <row r="13" hidden="1" spans="1:10">
       <c r="A13" s="24" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -4923,7 +5601,7 @@
     </row>
     <row r="14" hidden="1" spans="1:10">
       <c r="A14" s="24" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -4944,7 +5622,7 @@
     </row>
     <row r="15" hidden="1" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -4962,7 +5640,7 @@
     </row>
     <row r="16" hidden="1" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -4974,7 +5652,7 @@
     </row>
     <row r="17" hidden="1" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1">
         <v>0.5</v>
@@ -4995,7 +5673,7 @@
     </row>
     <row r="18" hidden="1" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -5016,7 +5694,7 @@
     </row>
     <row r="19" hidden="1" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -5034,7 +5712,7 @@
     </row>
     <row r="20" hidden="1" spans="1:10">
       <c r="A20" s="5" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -5049,7 +5727,7 @@
     </row>
     <row r="21" hidden="1" spans="1:10">
       <c r="A21" s="5" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -5064,7 +5742,7 @@
     </row>
     <row r="22" hidden="1" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1">
         <v>5</v>
@@ -5079,7 +5757,7 @@
     </row>
     <row r="23" hidden="1" spans="1:10">
       <c r="A23" s="5" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1">
         <v>7</v>
@@ -5097,7 +5775,7 @@
     </row>
     <row r="24" hidden="1" spans="1:10">
       <c r="A24" s="5" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1">
         <v>1.5</v>
@@ -5115,7 +5793,7 @@
     </row>
     <row r="25" hidden="1" spans="1:10">
       <c r="A25" s="5" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1">
         <v>1.5</v>
@@ -5133,7 +5811,7 @@
     </row>
     <row r="26" hidden="1" spans="1:10">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -5148,7 +5826,7 @@
     </row>
     <row r="27" hidden="1" spans="1:10">
       <c r="A27" s="5" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -5166,7 +5844,7 @@
     </row>
     <row r="28" hidden="1" spans="1:10">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B28" s="1">
         <v>2.2</v>
@@ -5181,7 +5859,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B29" s="1">
         <v>3.8</v>
@@ -5196,7 +5874,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -5211,7 +5889,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
@@ -5227,13 +5905,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="10:10">
+    <row r="32" spans="1:10">
+      <c r="A32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
       <c r="J32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="10:10">
+    <row r="33" spans="1:10">
+      <c r="A33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
       <c r="J33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5257,47 +5956,47 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AI124"/>
+  <dimension ref="A1:AO129"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AK22" sqref="AK22"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="AK95" sqref="AK95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.8796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8833333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.37962962962963" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.38333333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="3.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.12962962962963" style="1" customWidth="1"/>
-    <col min="10" max="12" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3.87962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.13333333333333" style="1" customWidth="1"/>
+    <col min="10" max="12" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="3.88333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="3.90740740740741" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.14814814814815" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="3.90833333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.15" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="3.58333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="33" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="30" max="33" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:35">
+    <row r="1" ht="27.75" spans="1:35">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -5393,12 +6092,12 @@
         <v>31</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AI2" s="1">
         <f>SUM(C2:AH2)</f>
@@ -5444,10 +6143,10 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G4" s="1">
         <v>10</v>
@@ -5459,7 +6158,7 @@
     </row>
     <row r="5" spans="2:35">
       <c r="B5" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="0"/>
@@ -5511,10 +6210,10 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" si="0"/>
@@ -5523,7 +6222,7 @@
     </row>
     <row r="9" spans="2:35">
       <c r="B9" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AI9" s="1">
         <f t="shared" si="0"/>
@@ -5532,7 +6231,7 @@
     </row>
     <row r="10" spans="2:35">
       <c r="B10" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" si="0"/>
@@ -5541,7 +6240,7 @@
     </row>
     <row r="11" spans="2:35">
       <c r="B11" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="0"/>
@@ -5587,10 +6286,10 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI13" s="1">
         <f t="shared" si="0"/>
@@ -5599,16 +6298,19 @@
     </row>
     <row r="14" spans="2:35">
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
+      </c>
+      <c r="H14" s="1">
+        <v>32</v>
       </c>
       <c r="AI14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:35">
       <c r="B15" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="0"/>
@@ -5654,7 +6356,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="0"/>
@@ -5700,7 +6402,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AI19" s="1">
         <f t="shared" si="0"/>
@@ -5746,10 +6448,10 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" si="0"/>
@@ -5758,7 +6460,7 @@
     </row>
     <row r="22" spans="2:35">
       <c r="B22" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" si="0"/>
@@ -5804,10 +6506,10 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5925,7 +6627,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AI27" s="1">
         <f t="shared" si="0"/>
@@ -5971,7 +6673,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AI29" s="1">
         <f t="shared" si="0"/>
@@ -6017,7 +6719,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D31" s="4"/>
       <c r="AI31" s="1">
@@ -6064,7 +6766,7 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AI33" s="1">
         <f t="shared" si="0"/>
@@ -6110,10 +6812,10 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AI35" s="1">
         <f t="shared" si="0"/>
@@ -6159,7 +6861,7 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B37" s="4"/>
       <c r="AI37" s="1">
@@ -6206,7 +6908,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B39" s="4"/>
       <c r="AI39" s="1">
@@ -6214,20 +6916,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15.15" spans="1:1">
+    <row r="50" ht="14.25" spans="1:1">
       <c r="A50" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" ht="29.55" spans="1:35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" ht="27.75" spans="1:35">
       <c r="A51" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -6323,12 +7025,12 @@
         <v>31</v>
       </c>
       <c r="AI51" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AI52" s="1">
         <f>SUM(C52:AH52)</f>
@@ -6377,10 +7079,10 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H54" s="1">
         <v>70</v>
@@ -6407,7 +7109,7 @@
     </row>
     <row r="55" spans="2:35">
       <c r="B55" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AI55" s="1">
         <f t="shared" si="1"/>
@@ -6462,10 +7164,10 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q58" s="1">
         <v>32</v>
@@ -6477,7 +7179,7 @@
     </row>
     <row r="59" spans="2:35">
       <c r="B59" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I59" s="1">
         <v>16</v>
@@ -6489,7 +7191,7 @@
     </row>
     <row r="60" spans="2:35">
       <c r="B60" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I60" s="1">
         <v>32</v>
@@ -6501,7 +7203,7 @@
     </row>
     <row r="61" spans="2:35">
       <c r="B61" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AI61" s="1">
         <f t="shared" si="1"/>
@@ -6550,10 +7252,10 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q63" s="1">
         <v>32</v>
@@ -6568,7 +7270,7 @@
     </row>
     <row r="64" spans="2:35">
       <c r="B64" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H64" s="1">
         <v>32</v>
@@ -6586,7 +7288,7 @@
     </row>
     <row r="65" spans="2:35">
       <c r="B65" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AI65" s="1">
         <f t="shared" si="1"/>
@@ -6635,7 +7337,7 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AI67" s="1">
         <f t="shared" si="1"/>
@@ -6684,7 +7386,7 @@
     </row>
     <row r="69" spans="1:35">
       <c r="A69" s="16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H69" s="1">
         <v>100</v>
@@ -6757,10 +7459,10 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AI71" s="1">
         <f t="shared" si="1"/>
@@ -6769,7 +7471,7 @@
     </row>
     <row r="72" spans="2:35">
       <c r="B72" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I72" s="1">
         <v>10</v>
@@ -6821,10 +7523,10 @@
     </row>
     <row r="74" ht="15.95" customHeight="1" spans="1:35">
       <c r="A74" s="17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -6945,7 +7647,7 @@
     </row>
     <row r="77" spans="1:35">
       <c r="A77" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AC77" s="1">
         <v>40</v>
@@ -6997,7 +7699,7 @@
     </row>
     <row r="79" spans="1:35">
       <c r="A79" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M79" s="1">
         <v>100</v>
@@ -7049,7 +7751,7 @@
     </row>
     <row r="81" spans="1:35">
       <c r="A81" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D81" s="4"/>
       <c r="M81" s="1">
@@ -7117,7 +7819,7 @@
     </row>
     <row r="83" spans="1:35">
       <c r="A83" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P83" s="1">
         <v>25</v>
@@ -7184,10 +7886,10 @@
     </row>
     <row r="85" spans="1:35">
       <c r="A85" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H85" s="1">
         <v>32</v>
@@ -7242,7 +7944,7 @@
     </row>
     <row r="87" spans="1:35">
       <c r="A87" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B87" s="4"/>
       <c r="M87" s="1">
@@ -7313,7 +8015,7 @@
     </row>
     <row r="89" spans="1:35">
       <c r="A89" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B89" s="4"/>
       <c r="M89" s="1">
@@ -7342,24 +8044,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" ht="15.15" spans="1:35">
+    <row r="91" ht="14.25" spans="1:35">
       <c r="A91" s="20" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="AI91" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="29.55" spans="1:35">
+    <row r="92" ht="27.75" spans="1:35">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D92" s="3">
         <v>22</v>
@@ -7413,12 +8115,12 @@
         <v>31</v>
       </c>
       <c r="AI92" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D93" s="1">
         <v>10</v>
@@ -7463,10 +8165,10 @@
     </row>
     <row r="95" spans="1:35">
       <c r="A95" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C95" s="1">
         <v>240</v>
@@ -7493,7 +8195,7 @@
     </row>
     <row r="96" spans="2:35">
       <c r="B96" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AI96" s="1">
         <f t="shared" si="4"/>
@@ -7548,10 +8250,10 @@
     </row>
     <row r="99" spans="1:35">
       <c r="A99" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C99" s="1">
         <v>64</v>
@@ -7563,7 +8265,7 @@
     </row>
     <row r="100" spans="2:35">
       <c r="B100" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AI100" s="1">
         <f t="shared" si="4"/>
@@ -7572,7 +8274,7 @@
     </row>
     <row r="101" spans="2:35">
       <c r="B101" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D101" s="1">
         <v>32</v>
@@ -7584,7 +8286,7 @@
     </row>
     <row r="102" spans="2:35">
       <c r="B102" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C102" s="1">
         <v>32</v>
@@ -7642,10 +8344,10 @@
     </row>
     <row r="104" spans="1:35">
       <c r="A104" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H104" s="1">
         <v>32</v>
@@ -7657,7 +8359,7 @@
     </row>
     <row r="105" spans="2:35">
       <c r="B105" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E105" s="1">
         <v>32</v>
@@ -7669,7 +8371,7 @@
     </row>
     <row r="106" spans="2:35">
       <c r="B106" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C106" s="1">
         <v>8</v>
@@ -7721,10 +8423,10 @@
     </row>
     <row r="108" spans="1:35">
       <c r="A108" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AI108" s="1">
         <f t="shared" si="4"/>
@@ -7773,7 +8475,7 @@
     </row>
     <row r="110" spans="1:35">
       <c r="A110" s="16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C110" s="1">
         <v>20</v>
@@ -7840,10 +8542,10 @@
     </row>
     <row r="112" spans="1:35">
       <c r="A112" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C112" s="1">
         <v>10</v>
@@ -7855,7 +8557,7 @@
     </row>
     <row r="113" spans="2:35">
       <c r="B113" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D113" s="1">
         <v>20</v>
@@ -7907,10 +8609,10 @@
     </row>
     <row r="115" spans="1:35">
       <c r="A115" s="17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C115" s="17">
         <v>5</v>
@@ -8033,7 +8735,7 @@
     </row>
     <row r="118" spans="1:35">
       <c r="A118" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C118" s="1">
         <v>120</v>
@@ -8088,7 +8790,7 @@
     </row>
     <row r="120" spans="1:35">
       <c r="A120" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D120" s="1">
         <v>120</v>
@@ -8143,7 +8845,7 @@
     </row>
     <row r="122" spans="1:35">
       <c r="A122" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D122" s="4">
         <v>5</v>
@@ -8195,7 +8897,7 @@
     </row>
     <row r="124" spans="1:35">
       <c r="A124" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D124" s="1">
         <v>20</v>
@@ -8203,6 +8905,12 @@
       <c r="AI124" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="41:41">
+      <c r="AO129" s="1">
+        <f>SUM(I129:AN129)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8220,62 +8928,62 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="5"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3833333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6296296296296" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.6333333333333" style="6" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1296296296296" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.1333333333333" style="5" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1296296296296" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1333333333333" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="6" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58.35" spans="1:12">
+    <row r="1" ht="27.75" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="2:14">
@@ -8357,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15.15" spans="2:12">
+    <row r="18" ht="14.25" spans="2:12">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -8375,42 +9083,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="58.35" spans="1:12">
+    <row r="19" ht="27.75" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -8435,7 +9143,7 @@
       </c>
       <c r="L20" s="6">
         <f>SUM(I20:I42)/93</f>
-        <v>0.127956989247312</v>
+        <v>0.138709677419355</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -8518,7 +9226,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="5" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1">
         <v>250</v>
@@ -8536,7 +9244,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1">
         <v>303</v>
@@ -8554,7 +9262,7 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="5" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1">
         <v>328</v>
@@ -8564,7 +9272,7 @@
         <v>0.358469945355191</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="I27" s="1">
         <v>0.7</v>
@@ -8572,7 +9280,7 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="5" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1">
         <v>420</v>
@@ -8582,7 +9290,7 @@
         <v>0.459016393442623</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
@@ -8593,7 +9301,7 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C29" s="1">
         <v>472</v>
@@ -8603,15 +9311,15 @@
         <v>0.515846994535519</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I29" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:9">
       <c r="B30" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C30" s="1">
         <v>550</v>
@@ -8620,10 +9328,16 @@
         <f t="shared" si="2"/>
         <v>0.601092896174863</v>
       </c>
+      <c r="H30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C31" s="1">
         <v>580</v>
@@ -8688,27 +9402,27 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.12962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.13333333333333" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:2">
+    <row r="1" ht="27.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -8716,7 +9430,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -8724,7 +9438,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B4" s="1">
         <v>50</v>
@@ -8732,7 +9446,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
@@ -8740,7 +9454,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="25020" windowHeight="14130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -1140,9 +1140,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1207,60 +1207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1276,40 +1222,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,8 +1274,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1338,7 +1307,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,6 +1403,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1415,85 +1457,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,13 +1511,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,13 +1547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,25 +1559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,30 +1616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1651,41 +1627,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1713,6 +1654,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1721,10 +1721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1733,133 +1733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2476,10 +2476,10 @@
   </sheetPr>
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2577,7 +2577,6 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="28"/>
       <c r="F6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2622,7 +2621,6 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="28"/>
       <c r="F10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2645,7 +2643,6 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="28"/>
       <c r="F12" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2668,7 +2665,6 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="28"/>
       <c r="F14" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2680,7 +2676,6 @@
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="28"/>
       <c r="F15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2692,7 +2687,6 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="28"/>
       <c r="F16" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2715,7 +2709,6 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="28"/>
       <c r="F18" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2738,7 +2731,6 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="28"/>
       <c r="F20" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2772,7 +2764,6 @@
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="28"/>
       <c r="F23" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2795,7 +2786,6 @@
       <c r="B25" s="16"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="28"/>
       <c r="F25" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2829,7 +2819,6 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="28"/>
       <c r="F28" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2852,7 +2841,6 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="28"/>
       <c r="F30" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2875,7 +2863,6 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="28"/>
       <c r="F32" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2898,7 +2885,6 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="28"/>
       <c r="F34" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2921,7 +2907,6 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="28"/>
       <c r="F36" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2934,7 +2919,7 @@
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="F37" s="16">
-        <f t="shared" ref="F37:F59" si="1">SUM(B37:D37)</f>
+        <f t="shared" ref="F37:F60" si="1">SUM(B37:D37)</f>
         <v>0</v>
       </c>
       <c r="G37" s="16"/>
@@ -2944,7 +2929,6 @@
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
-      <c r="E38" s="28"/>
       <c r="F38" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2967,7 +2951,6 @@
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
-      <c r="E40" s="28"/>
       <c r="F40" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2990,7 +2973,6 @@
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
-      <c r="E42" s="28"/>
       <c r="F42" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3057,7 +3039,6 @@
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
-      <c r="E48" s="28"/>
       <c r="F48" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3080,7 +3061,6 @@
       <c r="B50" s="28"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
-      <c r="E50" s="28"/>
       <c r="F50" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3103,7 +3083,6 @@
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="28"/>
       <c r="F52" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3170,7 +3149,6 @@
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
-      <c r="E58" s="28"/>
       <c r="F58" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3194,7 +3172,7 @@
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="F60" s="16">
-        <f>SUM(B60:D60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G60" s="16"/>
@@ -5025,8 +5003,8 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5277,7 +5255,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>257</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25020" windowHeight="14130" activeTab="2"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -53,10 +53,34 @@
     <t>7.6</t>
   </si>
   <si>
-    <t>puncake</t>
+    <t>pancake</t>
   </si>
   <si>
     <t>take-out</t>
+  </si>
+  <si>
+    <t>7.11</t>
+  </si>
+  <si>
+    <t>189(am)</t>
+  </si>
+  <si>
+    <t>7.12</t>
+  </si>
+  <si>
+    <t>pancake+milk</t>
+  </si>
+  <si>
+    <t>188.8(am)</t>
+  </si>
+  <si>
+    <t>7.13</t>
+  </si>
+  <si>
+    <t>187(am)</t>
+  </si>
+  <si>
+    <t>7.14</t>
   </si>
   <si>
     <r>
@@ -198,9 +222,6 @@
     </r>
   </si>
   <si>
-    <t>pancake+milk</t>
-  </si>
-  <si>
     <t>sausage+water+coca cola+noodle+banana+apple</t>
   </si>
   <si>
@@ -208,9 +229,6 @@
   </si>
   <si>
     <t>noodle+wilk with tea</t>
-  </si>
-  <si>
-    <t>pancake</t>
   </si>
   <si>
     <t>noodle+beer egg +mosquto spellent iscense</t>
@@ -400,24 +418,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ired tofu+puncake+fired dumpling</t>
-    </r>
+    <t>fired tofu+pancake+fired dumpling</t>
   </si>
   <si>
     <t>milk+meat bun</t>
@@ -597,24 +598,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>oodles+milk+egg puncake</t>
-    </r>
+    <t>noodles+milk+egg pancake</t>
   </si>
   <si>
     <t>194（am)</t>
@@ -1140,10 +1124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1207,31 +1191,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1245,16 +1207,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1275,17 +1251,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1297,17 +1274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1318,6 +1287,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1339,6 +1315,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1409,7 +1393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,7 +1405,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,13 +1477,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,13 +1513,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,97 +1549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,21 +1601,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1642,15 +1611,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1671,6 +1631,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1699,6 +1674,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1721,10 +1705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1733,133 +1717,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2348,7 +2332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="3" tint="0.399761955626087"/>
   </sheetPr>
@@ -2469,7 +2453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -2479,7 +2463,7 @@
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2554,17 +2538,25 @@
       <c r="C4" s="16">
         <v>13</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="16">
+        <v>80</v>
+      </c>
       <c r="F4" s="16">
         <f>SUM(B4:D4)</f>
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="36"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="37"/>
       <c r="F5" s="16">
         <f t="shared" ref="F5:F36" si="0">SUM(B5:D5)</f>
@@ -2574,19 +2566,32 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="36"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16">
+        <v>20</v>
+      </c>
       <c r="D6" s="16"/>
+      <c r="E6" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="F6" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="36"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>9</v>
+      </c>
       <c r="D7" s="16"/>
       <c r="F7" s="16">
         <f t="shared" si="0"/>
@@ -2596,19 +2601,32 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="36"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="16">
+        <v>8</v>
+      </c>
+      <c r="C8" s="16">
+        <v>10.5</v>
+      </c>
       <c r="D8" s="16"/>
+      <c r="E8" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>9</v>
+      </c>
       <c r="D9" s="37"/>
       <c r="F9" s="16">
         <f t="shared" si="0"/>
@@ -2618,17 +2636,26 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="36"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="16">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>18</v>
+      </c>
       <c r="D10" s="16"/>
+      <c r="E10" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="F10" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="36"/>
+      <c r="A11" s="36" t="s">
+        <v>17</v>
+      </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
@@ -2640,12 +2667,14 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="36"/>
-      <c r="B12" s="16"/>
+      <c r="B12" s="16">
+        <v>8.49</v>
+      </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="F12" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.49</v>
       </c>
       <c r="G12" s="16"/>
     </row>
@@ -3179,7 +3208,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="39" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -3227,13 +3256,13 @@
         <v>4.24</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C65" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="3:7">
@@ -3257,13 +3286,13 @@
         <v>4.25</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C67" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F67" s="27">
         <f t="shared" ref="F67:F116" si="2">SUM(B67:D67)</f>
@@ -3290,13 +3319,13 @@
         <v>4.26</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F69" s="27">
         <f t="shared" si="2"/>
@@ -3323,13 +3352,13 @@
         <v>4.27</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C71" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F71" s="27">
         <f t="shared" si="2"/>
@@ -3356,7 +3385,7 @@
         <v>4.28</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C73" s="27" t="s">
         <v>9</v>
@@ -3383,13 +3412,13 @@
         <v>5.1</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F75" s="27">
         <f t="shared" si="2"/>
@@ -3410,7 +3439,7 @@
         <v>5.2</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C77" s="27" t="s">
         <v>9</v>
@@ -3443,7 +3472,7 @@
         <v>5.3</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C79" s="27" t="s">
         <v>9</v>
@@ -3476,7 +3505,7 @@
         <v>5.4</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C81" s="27" t="s">
         <v>9</v>
@@ -3506,7 +3535,7 @@
         <v>5.5</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>9</v>
@@ -3533,7 +3562,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="26" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F85" s="27">
         <f t="shared" si="2"/>
@@ -3554,7 +3583,7 @@
         <v>5.9</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C87" s="27" t="s">
         <v>9</v>
@@ -3584,7 +3613,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="26" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F89" s="27">
         <f t="shared" si="2"/>
@@ -3605,7 +3634,7 @@
         <v>5.16</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C91" s="27" t="s">
         <v>9</v>
@@ -3638,7 +3667,7 @@
         <v>5.17</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C93" s="27" t="s">
         <v>9</v>
@@ -3671,13 +3700,13 @@
         <v>5.18</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C95" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F95" s="27">
         <f t="shared" si="2"/>
@@ -3704,7 +3733,7 @@
         <v>5.19</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C97" s="27" t="s">
         <v>9</v>
@@ -3728,10 +3757,10 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F99" s="27">
         <f t="shared" si="2"/>
@@ -3752,10 +3781,10 @@
         <v>5.22</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F101" s="27">
         <f t="shared" si="2"/>
@@ -3779,13 +3808,13 @@
         <v>5.23</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C103" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F103" s="27">
         <f t="shared" si="2"/>
@@ -3812,13 +3841,13 @@
         <v>5.24</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C105" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F105" s="27">
         <f t="shared" si="2"/>
@@ -3845,13 +3874,13 @@
         <v>5.25</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C107" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F107" s="27">
         <f t="shared" si="2"/>
@@ -3878,13 +3907,13 @@
         <v>5.26</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C109" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E109" s="28">
         <v>196.7</v>
@@ -3911,7 +3940,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="26" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F111" s="27">
         <f t="shared" si="2"/>
@@ -3930,7 +3959,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="41" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F113" s="27">
         <f t="shared" si="2"/>
@@ -3951,16 +3980,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="41" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F115" s="27">
         <f t="shared" si="2"/>
@@ -3987,7 +4016,7 @@
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="39" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3995,13 +4024,13 @@
         <v>6.1</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="37" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
@@ -4031,7 +4060,7 @@
         <v>6.2</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>9</v>
@@ -4063,7 +4092,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="36" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B124" s="16"/>
       <c r="C124" s="37"/>
@@ -4092,13 +4121,13 @@
         <v>6.5</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="37" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F126" s="16">
         <f t="shared" si="3"/>
@@ -4131,13 +4160,13 @@
         <v>6.6</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C128" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="37" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F128" s="16">
         <f t="shared" si="3"/>
@@ -4170,7 +4199,7 @@
         <v>6.7</v>
       </c>
       <c r="B130" s="37" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C130" s="37" t="s">
         <v>9</v>
@@ -4205,14 +4234,14 @@
         <v>6.8</v>
       </c>
       <c r="B132" s="37" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C132" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="16"/>
       <c r="E132" s="28" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F132" s="16">
         <f t="shared" si="3"/>
@@ -4230,7 +4259,7 @@
       </c>
       <c r="D133" s="16"/>
       <c r="E133" s="28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F133" s="16">
         <f t="shared" si="3"/>
@@ -4243,13 +4272,13 @@
         <v>6.9</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F134" s="16">
         <f t="shared" si="3"/>
@@ -4269,7 +4298,7 @@
         <v>212</v>
       </c>
       <c r="E135" s="28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F135" s="16">
         <f t="shared" si="3"/>
@@ -4279,14 +4308,14 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="38" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B136" s="16"/>
       <c r="C136" s="16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D136" s="37" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F136" s="16">
         <f t="shared" si="3"/>
@@ -4304,7 +4333,7 @@
         <v>15</v>
       </c>
       <c r="E137" s="28" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F137" s="16">
         <f t="shared" si="3"/>
@@ -4314,14 +4343,14 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="38" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B138" s="16"/>
       <c r="C138" s="37" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D138" s="37" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F138" s="16">
         <f t="shared" si="3"/>
@@ -4346,19 +4375,19 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="38" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B140" s="37" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C140" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E140" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F140" s="16">
         <f t="shared" si="3"/>
@@ -4385,17 +4414,17 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="38" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B142" s="16"/>
       <c r="C142" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="37" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E142" s="28" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F142" s="16">
         <f t="shared" si="3"/>
@@ -4422,14 +4451,14 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="38" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B144" s="16"/>
       <c r="C144" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="37" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F144" s="16">
         <f t="shared" si="3"/>
@@ -4449,7 +4478,7 @@
         <v>41</v>
       </c>
       <c r="E145" s="28" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F145" s="16">
         <f t="shared" si="3"/>
@@ -4459,14 +4488,14 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="38" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B146" s="16"/>
       <c r="C146" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F146" s="16">
         <f t="shared" si="3"/>
@@ -4484,7 +4513,7 @@
         <v>17</v>
       </c>
       <c r="E147" s="28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F147" s="16">
         <f t="shared" si="3"/>
@@ -4494,7 +4523,7 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="36" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B148" s="16"/>
       <c r="C148" s="16" t="s">
@@ -4517,7 +4546,7 @@
       </c>
       <c r="D149" s="16"/>
       <c r="E149" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F149" s="16">
         <f t="shared" si="3"/>
@@ -4527,13 +4556,13 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="36" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D150" s="16"/>
       <c r="F150" s="16">
@@ -4562,14 +4591,14 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="36" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B152" s="16"/>
       <c r="C152" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F152" s="16">
         <f t="shared" si="3"/>
@@ -4589,7 +4618,7 @@
         <v>29</v>
       </c>
       <c r="E153" s="28" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F153" s="16">
         <f t="shared" si="3"/>
@@ -4599,14 +4628,14 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="36" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B154" s="16"/>
       <c r="C154" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F154" s="16">
         <f t="shared" si="3"/>
@@ -4626,7 +4655,7 @@
         <v>11</v>
       </c>
       <c r="E155" s="28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F155" s="16">
         <f t="shared" si="3"/>
@@ -4636,7 +4665,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="36" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B156" s="16"/>
       <c r="C156" s="37" t="s">
@@ -4661,7 +4690,7 @@
         <v>10</v>
       </c>
       <c r="E157" s="28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F157" s="16">
         <f t="shared" si="3"/>
@@ -4671,10 +4700,10 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="36" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B158" s="37" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C158" s="16"/>
       <c r="D158" s="16"/>
@@ -4696,7 +4725,7 @@
         <v>7.5</v>
       </c>
       <c r="E159" s="28" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F159" s="16">
         <f t="shared" si="3"/>
@@ -4706,10 +4735,10 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="36" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C160" s="16" t="s">
         <v>9</v>
@@ -4740,16 +4769,16 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="36" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F162" s="16">
         <f t="shared" si="3"/>
@@ -4776,12 +4805,12 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="36" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B164" s="16"/>
       <c r="C164" s="16"/>
       <c r="D164" s="16" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F164" s="16">
         <f t="shared" si="3"/>
@@ -4801,7 +4830,7 @@
         <v>25</v>
       </c>
       <c r="E165" s="28" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F165" s="16">
         <f t="shared" si="3"/>
@@ -4811,14 +4840,14 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="36" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B166" s="16"/>
       <c r="C166" s="16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F166" s="16">
         <f t="shared" si="3"/>
@@ -4838,7 +4867,7 @@
         <v>10</v>
       </c>
       <c r="E167" s="28" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F167" s="16">
         <f t="shared" si="3"/>
@@ -4848,10 +4877,10 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="38" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C168" s="16" t="s">
         <v>9</v>
@@ -4875,7 +4904,7 @@
         <v>18</v>
       </c>
       <c r="E169" s="28" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F169" s="16">
         <f t="shared" si="3"/>
@@ -4885,10 +4914,10 @@
     </row>
     <row r="170" ht="27" spans="1:7">
       <c r="A170" s="38" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B170" s="37" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C170" s="37" t="s">
         <v>9</v>
@@ -4919,14 +4948,14 @@
     </row>
     <row r="172" ht="27" spans="1:7">
       <c r="A172" s="36" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B172" s="16"/>
       <c r="C172" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F172" s="16">
         <f t="shared" si="3"/>
@@ -4953,7 +4982,7 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="36" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B174" s="16"/>
       <c r="C174" s="16" t="s">
@@ -4976,7 +5005,7 @@
       </c>
       <c r="D175" s="16"/>
       <c r="E175" s="28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F175" s="16">
         <f t="shared" si="3"/>
@@ -4997,14 +5026,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5019,19 +5048,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5092,7 +5121,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1">
         <v>283</v>
@@ -5100,7 +5129,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="24" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B10" s="1">
         <v>668</v>
@@ -5108,7 +5137,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="24" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B11" s="1">
         <v>40</v>
@@ -5116,7 +5145,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="24" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1">
         <v>90</v>
@@ -5124,7 +5153,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="24" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1">
         <v>128</v>
@@ -5132,7 +5161,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1">
         <v>398</v>
@@ -5140,7 +5169,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1">
         <v>90</v>
@@ -5148,7 +5177,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1">
         <v>360</v>
@@ -5156,7 +5185,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1">
         <v>300</v>
@@ -5164,7 +5193,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1">
         <v>672</v>
@@ -5172,7 +5201,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1">
         <v>120</v>
@@ -5180,7 +5209,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1">
         <v>330</v>
@@ -5188,7 +5217,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1">
         <v>900</v>
@@ -5196,7 +5225,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B22" s="1">
         <v>484</v>
@@ -5204,7 +5233,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B23" s="1">
         <v>150</v>
@@ -5212,7 +5241,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1">
         <v>416</v>
@@ -5220,7 +5249,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B25" s="1">
         <v>366</v>
@@ -5228,7 +5257,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B26" s="1">
         <v>280</v>
@@ -5236,7 +5265,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B27" s="1">
         <v>535</v>
@@ -5244,7 +5273,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B28" s="1">
         <v>432</v>
@@ -5256,6 +5285,14 @@
       </c>
       <c r="B29" s="1">
         <v>457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1">
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -5265,7 +5302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="0" tint="-0.14981536301767"/>
   </sheetPr>
@@ -5286,19 +5323,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5327,14 +5364,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5353,34 +5390,34 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:10">
       <c r="A1" s="8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5395,7 +5432,7 @@
       </c>
       <c r="G2" s="23">
         <f>SUM(C3:C43)</f>
-        <v>35.2</v>
+        <v>39.2</v>
       </c>
       <c r="H2" s="23">
         <f>SUM(D3:D43)</f>
@@ -5407,7 +5444,7 @@
       </c>
       <c r="J2" s="25">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>0.435333333333333</v>
+        <v>0.448666666666667</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:5">
@@ -5510,7 +5547,7 @@
     </row>
     <row r="10" hidden="1" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1">
         <v>2.5</v>
@@ -5525,7 +5562,7 @@
     </row>
     <row r="11" hidden="1" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -5543,7 +5580,7 @@
     </row>
     <row r="12" hidden="1" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B12" s="1">
         <v>2.1</v>
@@ -5561,7 +5598,7 @@
     </row>
     <row r="13" hidden="1" spans="1:10">
       <c r="A13" s="24" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -5579,7 +5616,7 @@
     </row>
     <row r="14" hidden="1" spans="1:10">
       <c r="A14" s="24" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -5600,7 +5637,7 @@
     </row>
     <row r="15" hidden="1" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -5618,7 +5655,7 @@
     </row>
     <row r="16" hidden="1" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -5630,7 +5667,7 @@
     </row>
     <row r="17" hidden="1" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1">
         <v>0.5</v>
@@ -5651,7 +5688,7 @@
     </row>
     <row r="18" hidden="1" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -5672,7 +5709,7 @@
     </row>
     <row r="19" hidden="1" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -5690,7 +5727,7 @@
     </row>
     <row r="20" hidden="1" spans="1:10">
       <c r="A20" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -5705,7 +5742,7 @@
     </row>
     <row r="21" hidden="1" spans="1:10">
       <c r="A21" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -5720,7 +5757,7 @@
     </row>
     <row r="22" hidden="1" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1">
         <v>5</v>
@@ -5735,7 +5772,7 @@
     </row>
     <row r="23" hidden="1" spans="1:10">
       <c r="A23" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1">
         <v>7</v>
@@ -5753,7 +5790,7 @@
     </row>
     <row r="24" hidden="1" spans="1:10">
       <c r="A24" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B24" s="1">
         <v>1.5</v>
@@ -5771,7 +5808,7 @@
     </row>
     <row r="25" hidden="1" spans="1:10">
       <c r="A25" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B25" s="1">
         <v>1.5</v>
@@ -5789,7 +5826,7 @@
     </row>
     <row r="26" hidden="1" spans="1:10">
       <c r="A26" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -5804,7 +5841,7 @@
     </row>
     <row r="27" hidden="1" spans="1:10">
       <c r="A27" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -5822,7 +5859,7 @@
     </row>
     <row r="28" hidden="1" spans="1:10">
       <c r="A28" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1">
         <v>2.2</v>
@@ -5837,7 +5874,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B29" s="1">
         <v>3.8</v>
@@ -5852,7 +5889,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -5867,7 +5904,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
@@ -5885,7 +5922,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B32" s="1">
         <v>1.5</v>
@@ -5916,7 +5953,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="10:10">
+    <row r="34" spans="1:10">
+      <c r="A34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
       <c r="J34" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5930,14 +5973,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:AO129"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="AK95" sqref="AK95"/>
+      <selection activeCell="AM102" sqref="AM102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5968,13 +6011,13 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:35">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -6070,12 +6113,12 @@
         <v>31</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AI2" s="1">
         <f>SUM(C2:AH2)</f>
@@ -6121,10 +6164,10 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1">
         <v>10</v>
@@ -6136,7 +6179,7 @@
     </row>
     <row r="5" spans="2:35">
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="0"/>
@@ -6188,10 +6231,10 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" si="0"/>
@@ -6200,7 +6243,7 @@
     </row>
     <row r="9" spans="2:35">
       <c r="B9" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AI9" s="1">
         <f t="shared" si="0"/>
@@ -6209,7 +6252,7 @@
     </row>
     <row r="10" spans="2:35">
       <c r="B10" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" si="0"/>
@@ -6218,7 +6261,7 @@
     </row>
     <row r="11" spans="2:35">
       <c r="B11" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="0"/>
@@ -6264,10 +6307,10 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AI13" s="1">
         <f t="shared" si="0"/>
@@ -6276,7 +6319,7 @@
     </row>
     <row r="14" spans="2:35">
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H14" s="1">
         <v>32</v>
@@ -6288,7 +6331,7 @@
     </row>
     <row r="15" spans="2:35">
       <c r="B15" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="0"/>
@@ -6334,7 +6377,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="0"/>
@@ -6380,7 +6423,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="16" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AI19" s="1">
         <f t="shared" si="0"/>
@@ -6426,10 +6469,10 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" si="0"/>
@@ -6438,7 +6481,7 @@
     </row>
     <row r="22" spans="2:35">
       <c r="B22" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" si="0"/>
@@ -6484,10 +6527,10 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="17" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -6605,7 +6648,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AI27" s="1">
         <f t="shared" si="0"/>
@@ -6651,7 +6694,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AI29" s="1">
         <f t="shared" si="0"/>
@@ -6697,7 +6740,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D31" s="4"/>
       <c r="AI31" s="1">
@@ -6744,7 +6787,7 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AI33" s="1">
         <f t="shared" si="0"/>
@@ -6790,10 +6833,10 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AI35" s="1">
         <f t="shared" si="0"/>
@@ -6839,7 +6882,7 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B37" s="4"/>
       <c r="AI37" s="1">
@@ -6886,7 +6929,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B39" s="4"/>
       <c r="AI39" s="1">
@@ -6896,18 +6939,18 @@
     </row>
     <row r="50" ht="14.25" spans="1:1">
       <c r="A50" s="19" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" ht="27.75" spans="1:35">
       <c r="A51" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -7003,12 +7046,12 @@
         <v>31</v>
       </c>
       <c r="AI51" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AI52" s="1">
         <f>SUM(C52:AH52)</f>
@@ -7057,10 +7100,10 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H54" s="1">
         <v>70</v>
@@ -7087,7 +7130,7 @@
     </row>
     <row r="55" spans="2:35">
       <c r="B55" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AI55" s="1">
         <f t="shared" si="1"/>
@@ -7142,10 +7185,10 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q58" s="1">
         <v>32</v>
@@ -7157,7 +7200,7 @@
     </row>
     <row r="59" spans="2:35">
       <c r="B59" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I59" s="1">
         <v>16</v>
@@ -7169,7 +7212,7 @@
     </row>
     <row r="60" spans="2:35">
       <c r="B60" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I60" s="1">
         <v>32</v>
@@ -7181,7 +7224,7 @@
     </row>
     <row r="61" spans="2:35">
       <c r="B61" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AI61" s="1">
         <f t="shared" si="1"/>
@@ -7230,10 +7273,10 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q63" s="1">
         <v>32</v>
@@ -7248,7 +7291,7 @@
     </row>
     <row r="64" spans="2:35">
       <c r="B64" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H64" s="1">
         <v>32</v>
@@ -7266,7 +7309,7 @@
     </row>
     <row r="65" spans="2:35">
       <c r="B65" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AI65" s="1">
         <f t="shared" si="1"/>
@@ -7315,7 +7358,7 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AI67" s="1">
         <f t="shared" si="1"/>
@@ -7364,7 +7407,7 @@
     </row>
     <row r="69" spans="1:35">
       <c r="A69" s="16" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H69" s="1">
         <v>100</v>
@@ -7437,10 +7480,10 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AI71" s="1">
         <f t="shared" si="1"/>
@@ -7449,7 +7492,7 @@
     </row>
     <row r="72" spans="2:35">
       <c r="B72" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I72" s="1">
         <v>10</v>
@@ -7501,10 +7544,10 @@
     </row>
     <row r="74" ht="15.95" customHeight="1" spans="1:35">
       <c r="A74" s="17" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -7625,7 +7668,7 @@
     </row>
     <row r="77" spans="1:35">
       <c r="A77" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AC77" s="1">
         <v>40</v>
@@ -7677,7 +7720,7 @@
     </row>
     <row r="79" spans="1:35">
       <c r="A79" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M79" s="1">
         <v>100</v>
@@ -7729,7 +7772,7 @@
     </row>
     <row r="81" spans="1:35">
       <c r="A81" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D81" s="4"/>
       <c r="M81" s="1">
@@ -7797,7 +7840,7 @@
     </row>
     <row r="83" spans="1:35">
       <c r="A83" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P83" s="1">
         <v>25</v>
@@ -7864,10 +7907,10 @@
     </row>
     <row r="85" spans="1:35">
       <c r="A85" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H85" s="1">
         <v>32</v>
@@ -7922,7 +7965,7 @@
     </row>
     <row r="87" spans="1:35">
       <c r="A87" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B87" s="4"/>
       <c r="M87" s="1">
@@ -7993,7 +8036,7 @@
     </row>
     <row r="89" spans="1:35">
       <c r="A89" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B89" s="4"/>
       <c r="M89" s="1">
@@ -8024,7 +8067,7 @@
     </row>
     <row r="91" ht="14.25" spans="1:35">
       <c r="A91" s="20" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AI91" s="1">
         <f t="shared" si="3"/>
@@ -8033,13 +8076,13 @@
     </row>
     <row r="92" ht="27.75" spans="1:35">
       <c r="A92" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D92" s="3">
         <v>22</v>
@@ -8093,12 +8136,12 @@
         <v>31</v>
       </c>
       <c r="AI92" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D93" s="1">
         <v>10</v>
@@ -8143,10 +8186,10 @@
     </row>
     <row r="95" spans="1:35">
       <c r="A95" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C95" s="1">
         <v>240</v>
@@ -8173,7 +8216,7 @@
     </row>
     <row r="96" spans="2:35">
       <c r="B96" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AI96" s="1">
         <f t="shared" si="4"/>
@@ -8228,10 +8271,10 @@
     </row>
     <row r="99" spans="1:35">
       <c r="A99" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C99" s="1">
         <v>64</v>
@@ -8243,7 +8286,7 @@
     </row>
     <row r="100" spans="2:35">
       <c r="B100" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AI100" s="1">
         <f t="shared" si="4"/>
@@ -8252,7 +8295,7 @@
     </row>
     <row r="101" spans="2:35">
       <c r="B101" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D101" s="1">
         <v>32</v>
@@ -8264,7 +8307,7 @@
     </row>
     <row r="102" spans="2:35">
       <c r="B102" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C102" s="1">
         <v>32</v>
@@ -8322,10 +8365,10 @@
     </row>
     <row r="104" spans="1:35">
       <c r="A104" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H104" s="1">
         <v>32</v>
@@ -8337,7 +8380,7 @@
     </row>
     <row r="105" spans="2:35">
       <c r="B105" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E105" s="1">
         <v>32</v>
@@ -8349,7 +8392,7 @@
     </row>
     <row r="106" spans="2:35">
       <c r="B106" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C106" s="1">
         <v>8</v>
@@ -8401,10 +8444,10 @@
     </row>
     <row r="108" spans="1:35">
       <c r="A108" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AI108" s="1">
         <f t="shared" si="4"/>
@@ -8453,7 +8496,7 @@
     </row>
     <row r="110" spans="1:35">
       <c r="A110" s="16" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C110" s="1">
         <v>20</v>
@@ -8520,10 +8563,10 @@
     </row>
     <row r="112" spans="1:35">
       <c r="A112" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C112" s="1">
         <v>10</v>
@@ -8535,7 +8578,7 @@
     </row>
     <row r="113" spans="2:35">
       <c r="B113" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D113" s="1">
         <v>20</v>
@@ -8587,10 +8630,10 @@
     </row>
     <row r="115" spans="1:35">
       <c r="A115" s="17" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C115" s="17">
         <v>5</v>
@@ -8713,7 +8756,7 @@
     </row>
     <row r="118" spans="1:35">
       <c r="A118" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C118" s="1">
         <v>120</v>
@@ -8768,7 +8811,7 @@
     </row>
     <row r="120" spans="1:35">
       <c r="A120" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D120" s="1">
         <v>120</v>
@@ -8823,7 +8866,7 @@
     </row>
     <row r="122" spans="1:35">
       <c r="A122" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D122" s="4">
         <v>5</v>
@@ -8875,7 +8918,7 @@
     </row>
     <row r="124" spans="1:35">
       <c r="A124" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D124" s="1">
         <v>20</v>
@@ -8899,7 +8942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -8928,40 +8971,40 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="2:14">
@@ -9063,40 +9106,40 @@
     </row>
     <row r="19" ht="27.75" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -9204,7 +9247,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1">
         <v>250</v>
@@ -9222,7 +9265,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1">
         <v>303</v>
@@ -9240,7 +9283,7 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C27" s="1">
         <v>328</v>
@@ -9250,7 +9293,7 @@
         <v>0.358469945355191</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I27" s="1">
         <v>0.7</v>
@@ -9258,7 +9301,7 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1">
         <v>420</v>
@@ -9268,7 +9311,7 @@
         <v>0.459016393442623</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
@@ -9279,7 +9322,7 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C29" s="1">
         <v>472</v>
@@ -9289,7 +9332,7 @@
         <v>0.515846994535519</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I29" s="1">
         <v>0.5</v>
@@ -9297,7 +9340,7 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C30" s="1">
         <v>550</v>
@@ -9307,7 +9350,7 @@
         <v>0.601092896174863</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -9315,7 +9358,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C31" s="1">
         <v>580</v>
@@ -9375,7 +9418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -9392,15 +9435,15 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -9408,7 +9451,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -9416,7 +9459,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B4" s="1">
         <v>50</v>
@@ -9424,7 +9467,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
@@ -9432,7 +9475,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="4"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>7.14</t>
+  </si>
+  <si>
+    <t>186.7(am)</t>
   </si>
   <si>
     <r>
@@ -1125,9 +1128,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1191,6 +1194,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1229,24 +1255,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1274,47 +1295,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1387,6 +1390,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1400,6 +1433,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,36 +1522,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1496,36 +1529,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,17 +1603,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1636,40 +1678,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1682,21 +1700,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1705,10 +1708,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1717,85 +1720,85 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1807,43 +1810,43 @@
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2460,10 +2463,10 @@
   </sheetPr>
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2670,11 +2673,16 @@
       <c r="B12" s="16">
         <v>8.49</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="16">
+        <v>10</v>
+      </c>
       <c r="D12" s="16"/>
+      <c r="E12" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="16">
         <f t="shared" si="0"/>
-        <v>8.49</v>
+        <v>18.49</v>
       </c>
       <c r="G12" s="16"/>
     </row>
@@ -3208,7 +3216,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -3256,13 +3264,13 @@
         <v>4.24</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C65" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="3:7">
@@ -3286,13 +3294,13 @@
         <v>4.25</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C67" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F67" s="27">
         <f t="shared" ref="F67:F116" si="2">SUM(B67:D67)</f>
@@ -3319,13 +3327,13 @@
         <v>4.26</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F69" s="27">
         <f t="shared" si="2"/>
@@ -3352,13 +3360,13 @@
         <v>4.27</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C71" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F71" s="27">
         <f t="shared" si="2"/>
@@ -3385,7 +3393,7 @@
         <v>4.28</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C73" s="27" t="s">
         <v>9</v>
@@ -3412,13 +3420,13 @@
         <v>5.1</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F75" s="27">
         <f t="shared" si="2"/>
@@ -3439,7 +3447,7 @@
         <v>5.2</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C77" s="27" t="s">
         <v>9</v>
@@ -3472,7 +3480,7 @@
         <v>5.3</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C79" s="27" t="s">
         <v>9</v>
@@ -3505,7 +3513,7 @@
         <v>5.4</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C81" s="27" t="s">
         <v>9</v>
@@ -3535,7 +3543,7 @@
         <v>5.5</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>9</v>
@@ -3562,7 +3570,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F85" s="27">
         <f t="shared" si="2"/>
@@ -3583,7 +3591,7 @@
         <v>5.9</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C87" s="27" t="s">
         <v>9</v>
@@ -3613,7 +3621,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F89" s="27">
         <f t="shared" si="2"/>
@@ -3634,7 +3642,7 @@
         <v>5.16</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C91" s="27" t="s">
         <v>9</v>
@@ -3667,7 +3675,7 @@
         <v>5.17</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C93" s="27" t="s">
         <v>9</v>
@@ -3700,13 +3708,13 @@
         <v>5.18</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C95" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F95" s="27">
         <f t="shared" si="2"/>
@@ -3733,7 +3741,7 @@
         <v>5.19</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C97" s="27" t="s">
         <v>9</v>
@@ -3757,10 +3765,10 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F99" s="27">
         <f t="shared" si="2"/>
@@ -3781,10 +3789,10 @@
         <v>5.22</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F101" s="27">
         <f t="shared" si="2"/>
@@ -3814,7 +3822,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F103" s="27">
         <f t="shared" si="2"/>
@@ -3841,13 +3849,13 @@
         <v>5.24</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C105" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F105" s="27">
         <f t="shared" si="2"/>
@@ -3880,7 +3888,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F107" s="27">
         <f t="shared" si="2"/>
@@ -3907,13 +3915,13 @@
         <v>5.26</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C109" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E109" s="28">
         <v>196.7</v>
@@ -3940,7 +3948,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F111" s="27">
         <f t="shared" si="2"/>
@@ -3959,7 +3967,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F113" s="27">
         <f t="shared" si="2"/>
@@ -3980,16 +3988,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F115" s="27">
         <f t="shared" si="2"/>
@@ -4016,7 +4024,7 @@
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4024,13 +4032,13 @@
         <v>6.1</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
@@ -4060,7 +4068,7 @@
         <v>6.2</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>9</v>
@@ -4092,7 +4100,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B124" s="16"/>
       <c r="C124" s="37"/>
@@ -4121,13 +4129,13 @@
         <v>6.5</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F126" s="16">
         <f t="shared" si="3"/>
@@ -4160,13 +4168,13 @@
         <v>6.6</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C128" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F128" s="16">
         <f t="shared" si="3"/>
@@ -4199,7 +4207,7 @@
         <v>6.7</v>
       </c>
       <c r="B130" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C130" s="37" t="s">
         <v>9</v>
@@ -4234,14 +4242,14 @@
         <v>6.8</v>
       </c>
       <c r="B132" s="37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C132" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="16"/>
       <c r="E132" s="28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F132" s="16">
         <f t="shared" si="3"/>
@@ -4259,7 +4267,7 @@
       </c>
       <c r="D133" s="16"/>
       <c r="E133" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F133" s="16">
         <f t="shared" si="3"/>
@@ -4272,13 +4280,13 @@
         <v>6.9</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F134" s="16">
         <f t="shared" si="3"/>
@@ -4298,7 +4306,7 @@
         <v>212</v>
       </c>
       <c r="E135" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F135" s="16">
         <f t="shared" si="3"/>
@@ -4308,14 +4316,14 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B136" s="16"/>
       <c r="C136" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D136" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F136" s="16">
         <f t="shared" si="3"/>
@@ -4333,7 +4341,7 @@
         <v>15</v>
       </c>
       <c r="E137" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F137" s="16">
         <f t="shared" si="3"/>
@@ -4343,14 +4351,14 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B138" s="16"/>
       <c r="C138" s="37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D138" s="37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F138" s="16">
         <f t="shared" si="3"/>
@@ -4375,19 +4383,19 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B140" s="37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C140" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E140" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F140" s="16">
         <f t="shared" si="3"/>
@@ -4414,17 +4422,17 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B142" s="16"/>
       <c r="C142" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E142" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F142" s="16">
         <f t="shared" si="3"/>
@@ -4451,14 +4459,14 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B144" s="16"/>
       <c r="C144" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F144" s="16">
         <f t="shared" si="3"/>
@@ -4478,7 +4486,7 @@
         <v>41</v>
       </c>
       <c r="E145" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F145" s="16">
         <f t="shared" si="3"/>
@@ -4488,14 +4496,14 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B146" s="16"/>
       <c r="C146" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F146" s="16">
         <f t="shared" si="3"/>
@@ -4513,7 +4521,7 @@
         <v>17</v>
       </c>
       <c r="E147" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F147" s="16">
         <f t="shared" si="3"/>
@@ -4523,7 +4531,7 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B148" s="16"/>
       <c r="C148" s="16" t="s">
@@ -4546,7 +4554,7 @@
       </c>
       <c r="D149" s="16"/>
       <c r="E149" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F149" s="16">
         <f t="shared" si="3"/>
@@ -4556,13 +4564,13 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D150" s="16"/>
       <c r="F150" s="16">
@@ -4591,14 +4599,14 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B152" s="16"/>
       <c r="C152" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F152" s="16">
         <f t="shared" si="3"/>
@@ -4618,7 +4626,7 @@
         <v>29</v>
       </c>
       <c r="E153" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F153" s="16">
         <f t="shared" si="3"/>
@@ -4628,14 +4636,14 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B154" s="16"/>
       <c r="C154" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F154" s="16">
         <f t="shared" si="3"/>
@@ -4655,7 +4663,7 @@
         <v>11</v>
       </c>
       <c r="E155" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F155" s="16">
         <f t="shared" si="3"/>
@@ -4665,7 +4673,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B156" s="16"/>
       <c r="C156" s="37" t="s">
@@ -4690,7 +4698,7 @@
         <v>10</v>
       </c>
       <c r="E157" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F157" s="16">
         <f t="shared" si="3"/>
@@ -4700,10 +4708,10 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B158" s="37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C158" s="16"/>
       <c r="D158" s="16"/>
@@ -4725,7 +4733,7 @@
         <v>7.5</v>
       </c>
       <c r="E159" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F159" s="16">
         <f t="shared" si="3"/>
@@ -4735,10 +4743,10 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C160" s="16" t="s">
         <v>9</v>
@@ -4769,16 +4777,16 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F162" s="16">
         <f t="shared" si="3"/>
@@ -4805,12 +4813,12 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B164" s="16"/>
       <c r="C164" s="16"/>
       <c r="D164" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F164" s="16">
         <f t="shared" si="3"/>
@@ -4830,7 +4838,7 @@
         <v>25</v>
       </c>
       <c r="E165" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F165" s="16">
         <f t="shared" si="3"/>
@@ -4840,14 +4848,14 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B166" s="16"/>
       <c r="C166" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F166" s="16">
         <f t="shared" si="3"/>
@@ -4867,7 +4875,7 @@
         <v>10</v>
       </c>
       <c r="E167" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F167" s="16">
         <f t="shared" si="3"/>
@@ -4877,10 +4885,10 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C168" s="16" t="s">
         <v>9</v>
@@ -4904,7 +4912,7 @@
         <v>18</v>
       </c>
       <c r="E169" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F169" s="16">
         <f t="shared" si="3"/>
@@ -4914,10 +4922,10 @@
     </row>
     <row r="170" ht="27" spans="1:7">
       <c r="A170" s="38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B170" s="37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C170" s="37" t="s">
         <v>9</v>
@@ -4948,14 +4956,14 @@
     </row>
     <row r="172" ht="27" spans="1:7">
       <c r="A172" s="36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B172" s="16"/>
       <c r="C172" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F172" s="16">
         <f t="shared" si="3"/>
@@ -4982,7 +4990,7 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B174" s="16"/>
       <c r="C174" s="16" t="s">
@@ -5005,7 +5013,7 @@
       </c>
       <c r="D175" s="16"/>
       <c r="E175" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F175" s="16">
         <f t="shared" si="3"/>
@@ -5030,10 +5038,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5048,19 +5056,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5121,7 +5129,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1">
         <v>283</v>
@@ -5129,7 +5137,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1">
         <v>668</v>
@@ -5137,7 +5145,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" s="1">
         <v>40</v>
@@ -5145,7 +5153,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1">
         <v>90</v>
@@ -5153,7 +5161,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1">
         <v>128</v>
@@ -5161,7 +5169,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1">
         <v>398</v>
@@ -5169,7 +5177,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="1">
         <v>90</v>
@@ -5177,7 +5185,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" s="1">
         <v>360</v>
@@ -5185,7 +5193,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1">
         <v>300</v>
@@ -5193,7 +5201,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1">
         <v>672</v>
@@ -5201,7 +5209,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1">
         <v>120</v>
@@ -5209,7 +5217,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1">
         <v>330</v>
@@ -5217,7 +5225,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21" s="1">
         <v>900</v>
@@ -5225,7 +5233,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="1">
         <v>484</v>
@@ -5233,7 +5241,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" s="1">
         <v>150</v>
@@ -5241,7 +5249,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1">
         <v>416</v>
@@ -5249,7 +5257,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1">
         <v>366</v>
@@ -5257,7 +5265,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1">
         <v>280</v>
@@ -5265,7 +5273,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B27" s="1">
         <v>535</v>
@@ -5273,7 +5281,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B28" s="1">
         <v>432</v>
@@ -5293,6 +5301,14 @@
       </c>
       <c r="B30" s="1">
         <v>677</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5323,19 +5339,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5370,8 +5386,8 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5390,34 +5406,34 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:10">
       <c r="A1" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5428,11 +5444,11 @@
       <c r="E2" s="22"/>
       <c r="F2" s="23">
         <f>SUM(B3:B43)</f>
-        <v>54.8</v>
+        <v>56.3</v>
       </c>
       <c r="G2" s="23">
         <f>SUM(C3:C43)</f>
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="H2" s="23">
         <f>SUM(D3:D43)</f>
@@ -5440,11 +5456,11 @@
       </c>
       <c r="I2" s="23">
         <f>SUM(E3:E43)</f>
-        <v>34.6</v>
+        <v>35.6</v>
       </c>
       <c r="J2" s="25">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>0.448666666666667</v>
+        <v>0.460333333333333</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:5">
@@ -5547,7 +5563,7 @@
     </row>
     <row r="10" hidden="1" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1">
         <v>2.5</v>
@@ -5562,7 +5578,7 @@
     </row>
     <row r="11" hidden="1" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -5580,7 +5596,7 @@
     </row>
     <row r="12" hidden="1" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1">
         <v>2.1</v>
@@ -5598,7 +5614,7 @@
     </row>
     <row r="13" hidden="1" spans="1:10">
       <c r="A13" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -5616,7 +5632,7 @@
     </row>
     <row r="14" hidden="1" spans="1:10">
       <c r="A14" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -5637,7 +5653,7 @@
     </row>
     <row r="15" hidden="1" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -5655,7 +5671,7 @@
     </row>
     <row r="16" hidden="1" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -5667,7 +5683,7 @@
     </row>
     <row r="17" hidden="1" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1">
         <v>0.5</v>
@@ -5688,7 +5704,7 @@
     </row>
     <row r="18" hidden="1" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -5709,7 +5725,7 @@
     </row>
     <row r="19" hidden="1" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -5727,7 +5743,7 @@
     </row>
     <row r="20" hidden="1" spans="1:10">
       <c r="A20" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -5742,7 +5758,7 @@
     </row>
     <row r="21" hidden="1" spans="1:10">
       <c r="A21" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -5757,7 +5773,7 @@
     </row>
     <row r="22" hidden="1" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1">
         <v>5</v>
@@ -5772,7 +5788,7 @@
     </row>
     <row r="23" hidden="1" spans="1:10">
       <c r="A23" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1">
         <v>7</v>
@@ -5790,7 +5806,7 @@
     </row>
     <row r="24" hidden="1" spans="1:10">
       <c r="A24" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B24" s="1">
         <v>1.5</v>
@@ -5808,7 +5824,7 @@
     </row>
     <row r="25" hidden="1" spans="1:10">
       <c r="A25" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25" s="1">
         <v>1.5</v>
@@ -5826,7 +5842,7 @@
     </row>
     <row r="26" hidden="1" spans="1:10">
       <c r="A26" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -5841,7 +5857,7 @@
     </row>
     <row r="27" hidden="1" spans="1:10">
       <c r="A27" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -5859,7 +5875,7 @@
     </row>
     <row r="28" hidden="1" spans="1:10">
       <c r="A28" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B28" s="1">
         <v>2.2</v>
@@ -5874,7 +5890,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B29" s="1">
         <v>3.8</v>
@@ -5889,7 +5905,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -5904,7 +5920,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
@@ -5922,7 +5938,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B32" s="1">
         <v>1.5</v>
@@ -5957,8 +5973,14 @@
       <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="B34" s="1">
+        <v>1.5</v>
+      </c>
       <c r="C34" s="1">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="0"/>
@@ -5979,8 +6001,8 @@
   </sheetPr>
   <dimension ref="A1:AO129"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="AM102" sqref="AM102"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK29" sqref="AK29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5990,16 +6012,16 @@
     <col min="3" max="3" width="11.8833333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.38333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.13333333333333" style="1" customWidth="1"/>
+    <col min="6" max="7" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="3.75" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.13333333333333" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="12" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3.88333333333333" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="3.90833333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="3.75" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.38333333333333" style="1" customWidth="1"/>
+    <col min="18" max="19" width="3.90833333333333" style="1" customWidth="1"/>
     <col min="20" max="26" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="4.15" style="1" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
@@ -6011,13 +6033,13 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:35">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -6113,12 +6135,12 @@
         <v>31</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI2" s="1">
         <f>SUM(C2:AH2)</f>
@@ -6164,10 +6186,10 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" s="1">
         <v>10</v>
@@ -6179,7 +6201,7 @@
     </row>
     <row r="5" spans="2:35">
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="0"/>
@@ -6231,10 +6253,10 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" si="0"/>
@@ -6243,7 +6265,7 @@
     </row>
     <row r="9" spans="2:35">
       <c r="B9" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AI9" s="1">
         <f t="shared" si="0"/>
@@ -6252,7 +6274,7 @@
     </row>
     <row r="10" spans="2:35">
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" si="0"/>
@@ -6261,7 +6283,7 @@
     </row>
     <row r="11" spans="2:35">
       <c r="B11" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="0"/>
@@ -6307,10 +6329,10 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AI13" s="1">
         <f t="shared" si="0"/>
@@ -6319,7 +6341,7 @@
     </row>
     <row r="14" spans="2:35">
       <c r="B14" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H14" s="1">
         <v>32</v>
@@ -6331,7 +6353,7 @@
     </row>
     <row r="15" spans="2:35">
       <c r="B15" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="0"/>
@@ -6377,7 +6399,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="0"/>
@@ -6423,11 +6445,14 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="P19" s="1">
+        <v>100</v>
       </c>
       <c r="AI19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -6469,10 +6494,10 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" si="0"/>
@@ -6481,7 +6506,7 @@
     </row>
     <row r="22" spans="2:35">
       <c r="B22" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" si="0"/>
@@ -6527,10 +6552,10 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -6648,7 +6673,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AI27" s="1">
         <f t="shared" si="0"/>
@@ -6694,7 +6719,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AI29" s="1">
         <f t="shared" si="0"/>
@@ -6740,7 +6765,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D31" s="4"/>
       <c r="AI31" s="1">
@@ -6787,11 +6812,14 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="P33" s="1">
+        <v>20</v>
       </c>
       <c r="AI33" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -6833,10 +6861,10 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AI35" s="1">
         <f t="shared" si="0"/>
@@ -6882,12 +6910,15 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B37" s="4"/>
+      <c r="P37" s="1">
+        <v>20</v>
+      </c>
       <c r="AI37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -6929,28 +6960,31 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B39" s="4"/>
+      <c r="P39" s="1">
+        <v>20</v>
+      </c>
       <c r="AI39" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="14.25" spans="1:1">
       <c r="A50" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" ht="27.75" spans="1:35">
       <c r="A51" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -7046,12 +7080,12 @@
         <v>31</v>
       </c>
       <c r="AI51" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI52" s="1">
         <f>SUM(C52:AH52)</f>
@@ -7100,10 +7134,10 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H54" s="1">
         <v>70</v>
@@ -7130,7 +7164,7 @@
     </row>
     <row r="55" spans="2:35">
       <c r="B55" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AI55" s="1">
         <f t="shared" si="1"/>
@@ -7185,10 +7219,10 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q58" s="1">
         <v>32</v>
@@ -7200,7 +7234,7 @@
     </row>
     <row r="59" spans="2:35">
       <c r="B59" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I59" s="1">
         <v>16</v>
@@ -7212,7 +7246,7 @@
     </row>
     <row r="60" spans="2:35">
       <c r="B60" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I60" s="1">
         <v>32</v>
@@ -7224,7 +7258,7 @@
     </row>
     <row r="61" spans="2:35">
       <c r="B61" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AI61" s="1">
         <f t="shared" si="1"/>
@@ -7273,10 +7307,10 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q63" s="1">
         <v>32</v>
@@ -7291,7 +7325,7 @@
     </row>
     <row r="64" spans="2:35">
       <c r="B64" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H64" s="1">
         <v>32</v>
@@ -7309,7 +7343,7 @@
     </row>
     <row r="65" spans="2:35">
       <c r="B65" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AI65" s="1">
         <f t="shared" si="1"/>
@@ -7358,7 +7392,7 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AI67" s="1">
         <f t="shared" si="1"/>
@@ -7407,7 +7441,7 @@
     </row>
     <row r="69" spans="1:35">
       <c r="A69" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H69" s="1">
         <v>100</v>
@@ -7480,10 +7514,10 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AI71" s="1">
         <f t="shared" si="1"/>
@@ -7492,7 +7526,7 @@
     </row>
     <row r="72" spans="2:35">
       <c r="B72" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I72" s="1">
         <v>10</v>
@@ -7544,10 +7578,10 @@
     </row>
     <row r="74" ht="15.95" customHeight="1" spans="1:35">
       <c r="A74" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -7668,7 +7702,7 @@
     </row>
     <row r="77" spans="1:35">
       <c r="A77" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AC77" s="1">
         <v>40</v>
@@ -7720,7 +7754,7 @@
     </row>
     <row r="79" spans="1:35">
       <c r="A79" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M79" s="1">
         <v>100</v>
@@ -7772,7 +7806,7 @@
     </row>
     <row r="81" spans="1:35">
       <c r="A81" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D81" s="4"/>
       <c r="M81" s="1">
@@ -7840,7 +7874,7 @@
     </row>
     <row r="83" spans="1:35">
       <c r="A83" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P83" s="1">
         <v>25</v>
@@ -7907,10 +7941,10 @@
     </row>
     <row r="85" spans="1:35">
       <c r="A85" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H85" s="1">
         <v>32</v>
@@ -7965,7 +7999,7 @@
     </row>
     <row r="87" spans="1:35">
       <c r="A87" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B87" s="4"/>
       <c r="M87" s="1">
@@ -8036,7 +8070,7 @@
     </row>
     <row r="89" spans="1:35">
       <c r="A89" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B89" s="4"/>
       <c r="M89" s="1">
@@ -8067,7 +8101,7 @@
     </row>
     <row r="91" ht="14.25" spans="1:35">
       <c r="A91" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI91" s="1">
         <f t="shared" si="3"/>
@@ -8076,13 +8110,13 @@
     </row>
     <row r="92" ht="27.75" spans="1:35">
       <c r="A92" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D92" s="3">
         <v>22</v>
@@ -8136,12 +8170,12 @@
         <v>31</v>
       </c>
       <c r="AI92" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D93" s="1">
         <v>10</v>
@@ -8186,10 +8220,10 @@
     </row>
     <row r="95" spans="1:35">
       <c r="A95" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C95" s="1">
         <v>240</v>
@@ -8216,7 +8250,7 @@
     </row>
     <row r="96" spans="2:35">
       <c r="B96" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AI96" s="1">
         <f t="shared" si="4"/>
@@ -8271,10 +8305,10 @@
     </row>
     <row r="99" spans="1:35">
       <c r="A99" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C99" s="1">
         <v>64</v>
@@ -8286,7 +8320,7 @@
     </row>
     <row r="100" spans="2:35">
       <c r="B100" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AI100" s="1">
         <f t="shared" si="4"/>
@@ -8295,7 +8329,7 @@
     </row>
     <row r="101" spans="2:35">
       <c r="B101" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D101" s="1">
         <v>32</v>
@@ -8307,7 +8341,7 @@
     </row>
     <row r="102" spans="2:35">
       <c r="B102" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C102" s="1">
         <v>32</v>
@@ -8365,10 +8399,10 @@
     </row>
     <row r="104" spans="1:35">
       <c r="A104" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H104" s="1">
         <v>32</v>
@@ -8380,7 +8414,7 @@
     </row>
     <row r="105" spans="2:35">
       <c r="B105" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E105" s="1">
         <v>32</v>
@@ -8392,7 +8426,7 @@
     </row>
     <row r="106" spans="2:35">
       <c r="B106" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C106" s="1">
         <v>8</v>
@@ -8444,10 +8478,10 @@
     </row>
     <row r="108" spans="1:35">
       <c r="A108" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AI108" s="1">
         <f t="shared" si="4"/>
@@ -8496,7 +8530,7 @@
     </row>
     <row r="110" spans="1:35">
       <c r="A110" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C110" s="1">
         <v>20</v>
@@ -8563,10 +8597,10 @@
     </row>
     <row r="112" spans="1:35">
       <c r="A112" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C112" s="1">
         <v>10</v>
@@ -8578,7 +8612,7 @@
     </row>
     <row r="113" spans="2:35">
       <c r="B113" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D113" s="1">
         <v>20</v>
@@ -8630,10 +8664,10 @@
     </row>
     <row r="115" spans="1:35">
       <c r="A115" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C115" s="17">
         <v>5</v>
@@ -8756,7 +8790,7 @@
     </row>
     <row r="118" spans="1:35">
       <c r="A118" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C118" s="1">
         <v>120</v>
@@ -8811,7 +8845,7 @@
     </row>
     <row r="120" spans="1:35">
       <c r="A120" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D120" s="1">
         <v>120</v>
@@ -8866,7 +8900,7 @@
     </row>
     <row r="122" spans="1:35">
       <c r="A122" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D122" s="4">
         <v>5</v>
@@ -8918,7 +8952,7 @@
     </row>
     <row r="124" spans="1:35">
       <c r="A124" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D124" s="1">
         <v>20</v>
@@ -8971,40 +9005,40 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="L1" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="2:14">
@@ -9106,40 +9140,40 @@
     </row>
     <row r="19" ht="27.75" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -9247,7 +9281,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" s="1">
         <v>250</v>
@@ -9265,7 +9299,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1">
         <v>303</v>
@@ -9283,7 +9317,7 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C27" s="1">
         <v>328</v>
@@ -9293,7 +9327,7 @@
         <v>0.358469945355191</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I27" s="1">
         <v>0.7</v>
@@ -9301,7 +9335,7 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1">
         <v>420</v>
@@ -9311,7 +9345,7 @@
         <v>0.459016393442623</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
@@ -9322,7 +9356,7 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1">
         <v>472</v>
@@ -9332,7 +9366,7 @@
         <v>0.515846994535519</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I29" s="1">
         <v>0.5</v>
@@ -9340,7 +9374,7 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C30" s="1">
         <v>550</v>
@@ -9350,7 +9384,7 @@
         <v>0.601092896174863</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -9358,7 +9392,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1">
         <v>580</v>
@@ -9435,15 +9469,15 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -9451,7 +9485,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -9459,7 +9493,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1">
         <v>50</v>
@@ -9467,7 +9501,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
@@ -9475,7 +9509,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>
